--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumiya/Desktop/Work/2020/02/fresta/textdata-2020/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E749BE-26F3-B948-B24B-77EEF2772954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <sheet name="ch5" sheetId="7" r:id="rId7"/>
     <sheet name="ch6" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -38,17 +44,7 @@
     <t>title</t>
   </si>
   <si>
-    <t>FRESTA-TEXT-2019 Win10</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Windows10&lt;/h3&gt;
-Apr. 2019&lt;br&gt;
- Information Media Center, Hiroshima University&lt;br&gt;
- Hiroshima Univesity Coop shop 
- </t>
   </si>
   <si>
     <t xml:space="preserve">You are going to prepare your PC for your study life at Hiroshima University during this lecture. Here is the list of what you are going to do today.
@@ -917,17 +913,36 @@
 &lt;/ul&gt;
  </t>
   </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;Windows10&lt;/h3&gt;
+Apr. 2020&lt;br&gt;
+ Information Media Center, Hiroshima University&lt;br&gt;
+ Hiroshima Univesity Coop shop 
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Win10</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -958,15 +973,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1008,7 +1031,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1040,9 +1063,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1074,6 +1115,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1249,20 +1308,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1278,1770 +1339,1778 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="45">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:4" ht="90">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:4" ht="60">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:4" ht="60">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:4" ht="90">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:4" ht="30">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:4" ht="30">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:4" ht="105">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:4" ht="30">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="120">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="90">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="195">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:4" ht="75">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:4" ht="165">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="150">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="B7" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="8" spans="1:4" ht="210">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="1" t="s">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="B9" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="1" t="s">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:4" ht="30">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:4" ht="60">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:4" ht="45">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:4" ht="15">
+      <c r="B15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="90">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="1" t="s">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:4" ht="45">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:4" ht="30">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:4" ht="30">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:4" ht="15">
+      <c r="B20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="45">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="B20" s="1" t="s">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:4" ht="75">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="150">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>87</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="75">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:4" ht="105">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:4" ht="60">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:4" ht="90">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:4" ht="90">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:4" ht="75">
+      <c r="A14" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B14" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="210">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
         <v>103</v>
       </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>105</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="30">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="165">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="B7" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="1" t="s">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:4" ht="90">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:4" ht="45">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:4" ht="15">
+      <c r="B13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="60">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="1" t="s">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:4" ht="30">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:4" ht="105">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:4" ht="75">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:4" ht="90">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:4" ht="120">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:4" ht="15">
+      <c r="B20" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="60">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="B20" s="1" t="s">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:4" ht="45">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:4" ht="60">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:4" ht="45">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>142</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="225">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="B7" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="1" t="s">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:4" ht="60">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:4" ht="15">
+      <c r="B11" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="1" t="s">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:4" ht="45">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:4" ht="30">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:4" ht="30">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" t="s">
         <v>161</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="90">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:4" ht="45">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:4" ht="60">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:4" ht="15">
+      <c r="B21" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" s="1" t="s">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:4" ht="60">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:4" ht="30">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:4" ht="15">
+      <c r="B26" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="60">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="B26" s="1" t="s">
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="1:4" ht="30">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="1:4" ht="60">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="1:4" ht="30">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:4" ht="30">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:4" ht="240">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="1:4" ht="105">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:4" ht="45">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:4" ht="45">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="1:4" ht="75">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:4" ht="75">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:4" ht="15">
+      <c r="B39" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="30">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="B39" s="1" t="s">
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="120">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
         <v>201</v>
       </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:4" ht="45">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="1:4" ht="135">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="1:4" ht="105">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
-        <v>209</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="B6" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="7" spans="1:4" ht="15">
+      <c r="B7" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="210">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumiya/Desktop/Work/2020/02/fresta/textdata-2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E749BE-26F3-B948-B24B-77EEF2772954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B479A127-0E14-4F77-B035-E5F39D46E2D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26880" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -239,9 +239,6 @@
     <t>Install required programs</t>
   </si>
   <si>
-    <t>FRESTA-TEXT-2019 Win10en chap.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Copy the installation files in numbered USB flash drive to your PC. Here, you will install Microsoft Office and Google Chrome on your PC.
 &lt;ul&gt;&lt;li&gt;&lt;a href="#copy"&gt;Copy the files in the USB flash drive to your PC&lt;/a&gt;
 &lt;/li&gt;
@@ -310,12 +307,6 @@
   </si>
   <si>
     <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Install Microsoft Office&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If Office2016 has already been installed on your PC, you can skip this section and &lt;a href="#chrome"&gt;proceed to step [10]&lt;/a&gt;
-. If you have Office2013 in your PC, you may install Office2016 on your PC.
-Double-click the copied &amp;quot;setup2019-win10en&amp;quot; folder on your desktop to open it. Then double-click the &amp;quot;office2016win-en&amp;quot; in the &amp;quot;windows-en&amp;quot; window. When you find the &amp;quot;install&amp;quot; item in the folder, double-click to start the installation.
-  </t>
   </si>
   <si>
     <t>win10-2-06.svg</t>
@@ -925,12 +916,23 @@
     <t>FRESTA-TEXT-2020 Win10</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">If Office2016 has already been installed on your PC, you can skip this section and &lt;a href="#chrome"&gt;proceed to step [10]&lt;/a&gt;
+. If you have Office2013 in your PC, you may install Office2016 on your PC.
+Double-click the copied &amp;quot;setup2020-win10en&amp;quot; folder on your desktop to open it. Then double-click the &amp;quot;officepropluswin-en&amp;quot; in the &amp;quot;windows-en&amp;quot; window. When you find the &amp;quot;install&amp;quot; item in the folder, double-click to start the installation.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Win10en chap.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,12 +948,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -966,9 +974,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1311,19 +1322,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1331,7 +1342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1339,20 +1350,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="75">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1361,7 +1372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60">
+    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1385,17 +1396,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1411,7 +1424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1419,7 +1432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60">
+    <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1433,7 +1446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1447,7 +1460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45">
+    <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1461,7 +1474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
+    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1475,7 +1488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30">
+    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1489,7 +1502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="90">
+    <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1503,7 +1516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30">
+    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1517,7 +1530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60">
+    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1531,7 +1544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="60">
+    <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1545,7 +1558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="90">
+    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1559,7 +1572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30">
+    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1573,7 +1586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30">
+    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1587,7 +1600,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="105">
+    <row r="17" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1601,7 +1614,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30">
+    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1625,17 +1638,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1643,7 +1658,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1666,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1659,7 +1674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1667,7 +1682,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="120">
+    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1681,7 +1696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="90">
+    <row r="7" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1695,7 +1710,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="195">
+    <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1709,7 +1724,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75">
+    <row r="9" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1723,7 +1738,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="165">
+    <row r="10" spans="1:4" ht="169" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1747,17 +1762,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1765,7 +1782,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +1790,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1781,219 +1798,220 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="150">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="210">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="30">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="30">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="30">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="60">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="45">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="90">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
-      <c r="B20" s="1" t="s">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="45">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="75">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2001,33 +2019,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2035,152 +2055,152 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="150">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="105">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="90">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="90">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="75">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="182" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="210">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2195,31 +2215,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2227,251 +2247,251 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="165">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="B7" s="1" t="s">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="90">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="B13" s="1" t="s">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="105">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="75">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="90">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="120">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
-      <c r="B20" s="1" t="s">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="45">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2484,33 +2504,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2518,513 +2540,513 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="225">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="B7" s="1" t="s">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="60">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="B11" s="1" t="s">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="30">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" t="s">
         <v>159</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="90">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
-      <c r="B21" s="1" t="s">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="45">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="60">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15">
-      <c r="B26" s="1" t="s">
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="60">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="60">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="240">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="105">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="45">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="45">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="75">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="75">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15">
-      <c r="B39" s="1" t="s">
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="120">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="45">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="135">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="105">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3039,23 +3061,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3063,44 +3085,44 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="B7" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="210">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B479A127-0E14-4F77-B035-E5F39D46E2D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E8A35E-35A0-4CC8-882F-C0EF6ECAF1A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26880" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="510" windowWidth="13500" windowHeight="8270" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,17 @@
     <sheet name="ch5" sheetId="7" r:id="rId7"/>
     <sheet name="ch6" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -199,15 +209,6 @@
     <t>win10-1-01.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Look carefully at &amp;quot;About&amp;quot; page.
-&amp;quot;Edition&amp;quot; entry under &amp;quot;Windows Specifications&amp;quot; tells you what kind of Windows your PC is running. In this case, your PC is running &amp;quot;Windows 10 Pro&amp;quot;. And &amp;quot;Version&amp;quot; entry gives you the detailed version number of your Windows10.&lt;span class="check"&gt;check-1&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-&amp;quot;System type&amp;quot; entry under &amp;quot;Device Specifications&amp;quot; tells you that your PC is running &amp;quot;64-bit operating system&amp;quot;. It means your OS can handle 64-binary-digit data.&lt;span class="check"&gt;check-2&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-&amp;quot;Installed RAM&amp;quot; entry tells you the capacity of the main memory in your PC. The larger the size of RAM your PC have, the more data your PC can store or the greater multi-tasking ability your PC gets.
-  </t>
-  </si>
-  <si>
     <t>win10-1-02.svg</t>
   </si>
   <si>
@@ -218,16 +219,6 @@
   </si>
   <si>
     <t>win10-1-03.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the battery run time, here.
- Click the battery icon in the taskbar, the battery level and estimated remaining time will be shown. The remaining battery time charged at 100% can be the estimated run time of your battery.
- For example, in the case that it says the battery level is 80% and the remaining time will be 6 hours, your can estimate the run time of your battery as 7.5 hours because 6 devided by 0.8 is 7.5.) &lt;span class="check"&gt;check-3&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-&lt;div class="spl"&gt;* You can find the remaining time on a while after system startup and the system usage has become stable. 
-If you do not see it after trying a few times, check the specifications in the catalog etc. and fill it out.
- &lt;/div&gt;
-  </t>
   </si>
   <si>
     <t>win10-1-04.svg</t>
@@ -291,14 +282,6 @@
     <t>win10-2-03.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">When &amp;quot;FIRST LEC (D:)&amp;quot; window appears, drag and drop &amp;quot;setup2019-win10en&amp;quot; folder to your desktop.
-* Here is other way to copy the folder; choose it, press &amp;quot;Ctrl&amp;quot; key and c, click the desktop, and press &amp;quot;Ctrl&amp;quot; key and v.
-  </t>
-  </si>
-  <si>
-    <t>win10-2-04.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">When you have finished the copy, you need to eject the USB flash drive from your PC. Right-click &amp;quot;FIRST LEC (D:)&amp;quot; on the left side of &amp;quot;FIRST LEC (D:)&amp;quot; window and click &amp;quot;Eject&amp;quot; in the list.
   </t>
   </si>
@@ -309,18 +292,11 @@
     <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Install Microsoft Office&lt;/h2&gt;</t>
   </si>
   <si>
-    <t>win10-2-06.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">In order to install software, the installation program needs to create files in the area which PC user may not access for the general use. Therefore, OS asks you if you really allow the installation. Here, click &amp;quot;Yes&amp;quot;.
   </t>
   </si>
   <si>
     <t>win10-2-07.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The window says, &amp;quot;We&amp;apos;ll be done in just a moment.&amp;quot; But...
-  </t>
   </si>
   <si>
     <t>win10-2-08.svg</t>
@@ -407,12 +383,6 @@
   </si>
   <si>
     <t>win10-4-05.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you are asked to continue connecting, click &amp;quot;Connect&amp;quot;. 
-When your PC has successfully connected to the Wi-Fi, you will see the word &amp;quot;Connected&amp;quot; under the name of the Wi-Fi. &lt;span class="check"&gt;check-4&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-   </t>
   </si>
   <si>
     <t>win10-4-06.svg</t>
@@ -917,14 +887,60 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">If Office2016 has already been installed on your PC, you can skip this section and &lt;a href="#chrome"&gt;proceed to step [10]&lt;/a&gt;
-. If you have Office2013 in your PC, you may install Office2016 on your PC.
-Double-click the copied &amp;quot;setup2020-win10en&amp;quot; folder on your desktop to open it. Then double-click the &amp;quot;officepropluswin-en&amp;quot; in the &amp;quot;windows-en&amp;quot; window. When you find the &amp;quot;install&amp;quot; item in the folder, double-click to start the installation.
-  </t>
+    <t>FRESTA-TEXT-2020 Win10en chap.2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2020 Win10en chap.2</t>
+    <t xml:space="preserve">Look carefully at &amp;quot;About&amp;quot; page.
+&amp;quot;Edition&amp;quot; entry under &amp;quot;Windows Specifications&amp;quot; tells you what kind of Windows your PC is running. In this case, your PC is running &amp;quot;Windows 10 Pro&amp;quot;. And &amp;quot;Version&amp;quot; entry gives you the detailed version number of your Windows10.&lt;span class="check"&gt;check-1&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+&amp;quot;System type&amp;quot; entry under &amp;quot;Device Specifications&amp;quot; tells you that your PC is running &amp;quot;64-bit operating system&amp;quot;. It means your OS can handle 64-binary-digit data.&lt;span class="check"&gt;check-2&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+&amp;quot;Installed RAM&amp;quot; entry tells you the capacity of the main memory in your PC. The larger the size of RAM your PC have, the more data your PC can store or the greater multi-tasking ability your PC gets.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the battery run time, here.
+ Click the battery icon in the taskbar, the battery level and estimated remaining time will be shown. The remaining battery time charged at 100% can be the estimated run time of your battery.
+ For example, in the case that it says the battery level is 80% and the remaining time will be 6 hours, your can estimate the run time of your battery as 7.5 hours because 6 devided by 0.8 is 7.5.) 
+&lt;div class="spl"&gt;* You can find the remaining time on a while after system startup and the system usage has become stable. 
+If you do not see it after trying a few times, check the specifications in the catalog etc. and fill it out.
+ &lt;/div&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">When &amp;quot;FIRST LEC (D:)&amp;quot; window appears, drag and drop &amp;quot;setup2020-win10en&amp;quot; folder to your desktop.
+* Here is other way to copy the folder; choose it, press &amp;quot;Ctrl&amp;quot; key and c, click the desktop, and press &amp;quot;Ctrl&amp;quot; key and v.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If Office365 ProPlus has already been installed on your PC, you can skip this section and &lt;a href="#chrome"&gt;proceed to step [10]&lt;/a&gt;
+. If you have Office2013 in your PC, you may install Office365 ProPlus on your PC.
+Double-click the copied &amp;quot;setup2020-win10en&amp;quot; folder on your desktop to open it. Then double-click the &amp;quot;officepropluswin-en&amp;quot; in the &amp;quot;setup2020-win10en&amp;quot; window. When you find the &amp;quot;install&amp;quot; item in the folder, double-click to start the installation.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The window says, &amp;quot;We&amp;apos;ll be done in just a moment.&amp;quot; Wait &lt;it&gt;a few&lt;/it&gt; minutes.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-06a.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-04a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">When you are asked to continue connecting, click &amp;quot;Connect&amp;quot;. 
+When your PC has successfully connected to the Wi-Fi, you will see the word &amp;quot;Connected&amp;quot; under the name of the Wi-Fi. &lt;span class="check"&gt;check-3&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+   </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1355,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1363,7 +1379,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1396,7 +1412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1638,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1715,13 +1731,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -1729,32 +1745,33 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="169" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1762,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1779,7 +1796,7 @@
         <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1787,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1803,7 +1820,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
@@ -1811,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1822,7 +1839,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
@@ -1830,7 +1847,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1841,7 +1858,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -1849,13 +1866,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -1863,13 +1880,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -1877,13 +1894,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1891,13 +1908,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1905,18 +1922,18 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -1924,13 +1941,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1938,13 +1955,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -1952,13 +1969,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1966,18 +1983,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1985,13 +2002,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1999,13 +2016,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2019,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2036,7 +2053,7 @@
         <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2044,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2060,7 +2077,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2068,7 +2085,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2082,13 +2099,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2096,13 +2113,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2110,13 +2127,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2124,13 +2141,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2138,13 +2155,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2152,13 +2169,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2166,21 +2183,21 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2194,13 +2211,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2213,7 +2230,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2228,7 +2247,7 @@
         <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2236,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2252,7 +2271,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2260,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2271,7 +2290,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2279,13 +2298,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2293,13 +2312,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2307,13 +2326,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2321,13 +2340,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2335,18 +2354,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2354,13 +2373,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2368,13 +2387,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2382,13 +2401,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2396,13 +2415,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2410,13 +2429,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2424,18 +2443,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2443,13 +2462,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2457,13 +2476,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2471,13 +2490,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2485,13 +2504,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2521,7 +2540,7 @@
         <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2529,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2545,7 +2564,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -2553,7 +2572,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2564,7 +2583,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2586,13 +2605,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2600,18 +2619,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2633,13 +2652,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2647,13 +2666,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2661,13 +2680,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2675,13 +2694,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2689,13 +2708,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2703,13 +2722,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2717,13 +2736,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2731,18 +2750,18 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2764,13 +2783,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2778,13 +2797,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2792,18 +2811,18 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2825,13 +2844,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2839,13 +2858,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2853,13 +2872,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2867,13 +2886,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2881,13 +2900,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -2895,13 +2914,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2909,13 +2928,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2923,13 +2942,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2937,13 +2956,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2951,13 +2970,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2965,18 +2984,18 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2984,7 +3003,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2998,13 +3017,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3012,13 +3031,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3026,13 +3045,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3040,13 +3059,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3074,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3090,7 +3109,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3098,7 +3117,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3109,12 +3128,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -3122,7 +3141,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46382B93-9625-43CE-8AED-10DC7AB6B153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65671D26-B625-4491-8746-692C6AC9E89D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26985" yWindow="7785" windowWidth="28830" windowHeight="7830" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25635" yWindow="540" windowWidth="17370" windowHeight="8265" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -376,9 +376,6 @@
   </t>
   </si>
   <si>
-    <t>win10-5-04.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check the box for &amp;quot;Give me updates for other Microsoft products when I update Windows.&amp;quot; Click the arrow displayed on the upper left corner of the window to return to &amp;quot;Windows Update&amp;quot; window.
   </t>
   </si>
@@ -387,9 +384,6 @@
   </si>
   <si>
     <t>&lt;h2&gt;&lt;a name="defender"&gt;&lt;/a&gt;Microsoft Defender -manual update and a full scan-&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>win10-5-06.svg</t>
   </si>
   <si>
     <t xml:space="preserve">Click &amp;quot;Virus &amp;amp; threat protection&amp;quot;.
@@ -414,9 +408,6 @@
   </si>
   <si>
     <t>win10-5-09.svg</t>
-  </si>
-  <si>
-    <t>win10-5-10.svg</t>
   </si>
   <si>
     <t xml:space="preserve">You can see three advanced scans. Choose &amp;quot;Full scan&amp;quot; and click &amp;quot;Scan now&amp;quot; button to run a full scan.&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
@@ -424,9 +415,6 @@
 But it will take a long time. Do not run a full scan during this workshop. But do it at the earliest opportunity after this workshop and fill out the checklist.
 Click X on the upper right corner of the window to close it.
   </t>
-  </si>
-  <si>
-    <t>win10-5-11.svg</t>
   </si>
   <si>
     <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Office activation&lt;/h2&gt;</t>
@@ -946,10 +934,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-5-23.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">In order to tell Microsoft that you are a rightful user, you need to verify that you are a student in Hiroshima University.
 Click &amp;quot;Sign in to get the most out of Office&amp;quot;.  </t>
     <phoneticPr fontId="1"/>
@@ -960,23 +944,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-5-14a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-5-15a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-5-22.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-5-17.svg</t>
-  </si>
-  <si>
-    <t>win10-5-13a.svg</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">&amp;quot;HIROSHIMA UNIVERSITY&amp;quot; window appears. Type &amp;quot;HIRODAI password&amp;quot; in the lower box and click &amp;quot;Sign in&amp;quot;.
@@ -1056,6 +1024,42 @@
   <si>
     <t xml:space="preserve">Input your &amp;quot;HIRODAI password&amp;quot; in the lower box. And click &amp;quot;Sign in&amp;quot;, blue button.
   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-04e.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-06e.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-10e.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-11e.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-23e.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-22e.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-14a.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-15a.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-13e.svg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1496,7 +1500,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1504,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1555,7 +1559,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1579,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1587,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1615,13 +1619,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1640,10 +1644,10 @@
     </row>
     <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1651,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>10</v>
@@ -1665,21 +1669,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -1687,13 +1691,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1701,7 +1705,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>10</v>
@@ -1726,10 +1730,10 @@
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -1737,13 +1741,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1751,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>10</v>
@@ -1762,10 +1766,10 @@
     </row>
     <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1773,13 +1777,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
@@ -1787,13 +1791,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1801,13 +1805,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +1902,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1926,7 +1930,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1987,7 +1991,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
@@ -2014,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2075,13 +2079,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>176</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2108,13 +2112,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2136,7 +2140,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -2336,7 +2340,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2397,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2438,7 +2442,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2513,7 +2517,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2521,18 +2525,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>87</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2540,13 +2544,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2554,13 +2558,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2568,13 +2572,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2582,13 +2586,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2596,13 +2600,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2610,18 +2614,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2629,21 +2633,21 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2651,13 +2655,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2665,13 +2669,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2679,51 +2683,52 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2731,8 +2736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2748,7 +2753,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2756,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2772,7 +2777,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -2780,7 +2785,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2791,7 +2796,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2813,13 +2818,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2827,18 +2832,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2860,13 +2865,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2874,13 +2879,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2888,13 +2893,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2902,13 +2907,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2916,13 +2921,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2930,13 +2935,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2944,13 +2949,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2958,13 +2963,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2972,18 +2977,18 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3005,13 +3010,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3019,13 +3024,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3033,18 +3038,18 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3066,13 +3071,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3080,13 +3085,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3094,13 +3099,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3108,13 +3113,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3122,13 +3127,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3136,13 +3141,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3150,13 +3155,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3164,13 +3169,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3178,13 +3183,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3192,13 +3197,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3206,18 +3211,18 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3225,7 +3230,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3239,13 +3244,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3253,13 +3258,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3267,21 +3272,21 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3289,13 +3294,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3325,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3341,7 +3346,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3349,7 +3354,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3360,12 +3365,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="221" x14ac:dyDescent="0.2">
@@ -3373,7 +3378,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65671D26-B625-4491-8746-692C6AC9E89D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9657C8A3-6D70-4D4B-B36F-6B1637313215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25635" yWindow="540" windowWidth="17370" windowHeight="8265" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41790" yWindow="2685" windowWidth="13980" windowHeight="10410" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -754,14 +754,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-2-06a.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-04a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">When you are asked to continue connecting, click &amp;quot;Connect&amp;quot;. 
 When your PC has successfully connected to the Wi-Fi, you will see the word &amp;quot;Connected&amp;quot; under the name of the Wi-Fi. &lt;span class="check"&gt;check-3&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
@@ -1060,6 +1052,14 @@
   </si>
   <si>
     <t>win10-5-13e.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-04e.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-06e.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1559,7 +1559,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1583,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1591,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1619,13 +1619,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1644,10 +1644,10 @@
     </row>
     <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1655,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>10</v>
@@ -1669,21 +1669,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -1691,13 +1691,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1705,7 +1705,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>10</v>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -1741,13 +1741,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1755,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>10</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1777,13 +1777,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
@@ -1791,13 +1791,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1805,13 +1805,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1950,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2018,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2085,7 +2085,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2118,7 +2118,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2340,7 +2340,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2401,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2442,7 +2442,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2517,7 +2517,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2544,13 +2544,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2600,13 +2600,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2620,7 +2620,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2633,7 +2633,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2644,10 +2644,10 @@
     </row>
     <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2669,13 +2669,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2683,46 +2683,46 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2777,7 +2777,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -2893,13 +2893,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2907,7 +2907,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3244,13 +3244,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3283,10 +3283,10 @@
     </row>
     <row r="45" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3346,7 +3346,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3378,7 +3378,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9657C8A3-6D70-4D4B-B36F-6B1637313215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750028F5-1247-4F62-8F8E-004827B7A207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41790" yWindow="2685" windowWidth="13980" windowHeight="10410" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40125" yWindow="195" windowWidth="13500" windowHeight="8265" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>Know your PC's spec</t>
   </si>
   <si>
-    <t>FRESTA-TEXT-2019 Win10en chap.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">First of all, you will learn how to know your PC&amp;apos;s &amp;quot;spec&amp;quot;. Sometimes the word &amp;quot;spec&amp;quot; indicates some features which tell you the capability of your PC. Here, find these specs in the list below;
 &lt;ol&gt;&lt;li&gt; OS version &lt;/li&gt;
 &lt;li&gt; Main memory capacity &lt;/li&gt;
@@ -242,9 +239,6 @@
     <t>Connect your PC to campus network</t>
   </si>
   <si>
-    <t>FRESTA-TEXT-2019 Win10en chap.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">You can connect to Wi-Fi called &amp;quot;HINET Wi-Fi&amp;quot; in shared facilities in Hiroshima University campus. Here you will set up your PC to connect to the internal network and the internet via Wi-Fi. As far as you connect to the same access point, you do not need to do this again.
  </t>
   </si>
@@ -322,9 +316,6 @@
 &lt;li&gt;When unconnected &amp;quot;HU-CUPxx&amp;quot; appears in the list again, set up Wi-Fi connection again &lt;/li&gt;
 &lt;/ol&gt;
   </t>
-  </si>
-  <si>
-    <t>win10-4-10.png</t>
   </si>
   <si>
     <t>Set up Windows Update so that your Windows10 will keep updated. And set up anti-virus software, Microsoft Defender, to be updated automatically.</t>
@@ -597,18 +588,6 @@
     <t>win10-6-16.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">This is &amp;quot;myBlackboard&amp;quot; page. There is &amp;quot;Course List&amp;quot; in the middle of the page. Courses, which you can access, are listed there. Some courses in the list are related to the courses you registered. But others are not.
-Several courses should be introduced here.
-&lt;dl&gt;&lt;dt&gt;Introduction to University Education&lt;/dt&gt;
-&lt;dd&gt;This course is required. In this course, you will learn what you need to know to study in Hiroshima University. And you are expected to download course text PDFs and answer a test on a weekly basis.&lt;/dd&gt;
-&lt;dt&gt;The survey of laptop computer ownership 2018&lt;/dt&gt;
-&lt;dd&gt;You need to submit a checklist which declares that your PC is capable of your study life in Hiroshima University. You can submit the checklist in this course. Access to this course after finishing this lecture.&lt;/dd&gt;
-&lt;dt&gt;Information Security &amp;amp; Compliance 2019&lt;/dt&gt;
-&lt;dd&gt;In this course, you will learn how to use computer or network safely in Hiroshima University. All members in the university should take this course. You need to take a lecture in a classroom and learn more in this Bb9 course. If you cannot pass &amp;quot;Verification Test2019&amp;quot; and finish &amp;quot;account confirmation&amp;quot; by the end of June, your &amp;quot;IMC account&amp;quot; will be locked and you will not be able to read emails sent to your &amp;quot;HIRODAI mail address&amp;quot;. &lt;/dd&gt;
- &lt;/dl&gt;
-  </t>
-  </si>
-  <si>
     <t>win10-6-17.svg</t>
   </si>
   <si>
@@ -985,11 +964,6 @@
   </si>
   <si>
     <t>win10-0-13a.jpg</t>
-  </si>
-  <si>
-    <t>In recent Windows 10 PC, Microsoft Teams automatically open when you sign in your PC. Teams is a comminication tool provided by Microsoft. You can use Teams with your HIRODAI mailaddress and password, or you can dismiss Teams from your PC setting (Settings -&gt; Apps -&gt; Startup)
-You can find more information on &lt;a href="https://www.media.hiroshima-u.ac.jp/services/communication/teams/"&gt;&amp;quot;Microsoft Teams&amp;quot;&lt;/a&gt;.</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">If you are in trouble when you use your PC, don&amp;apos;t hesitate to make a inquiry to IMC.
@@ -1060,6 +1034,36 @@
   </si>
   <si>
     <t>win10-2-06e.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In recent versions of Windows 10, Microsoft Teams run automatically when you sign in your PC. Teams is a comminication tool provided by Microsoft. You can use Teams with your HIRODAI mailaddress and password. Or, you can dismiss Teams from your PC setting (Settings -&gt; Apps -&gt; Startup)
+You can find more information on &lt;a href="https://www.media.hiroshima-u.ac.jp/services/communication/teams/"&gt;&amp;quot;Microsoft Teams&amp;quot;&lt;/a&gt;.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This is &amp;quot;myBlackboard&amp;quot; page. There is &amp;quot;Course List&amp;quot; in the middle of the page. Courses, which you can access, are listed there. Some courses in the list are related to the courses you registered. But others are not.
+Several courses should be introduced here.
+&lt;dl&gt;&lt;dt&gt;Introduction to University Education&lt;/dt&gt;
+&lt;dd&gt;This course is required. In this course, you will learn what you need to know to study in Hiroshima University. And you are expected to download course text PDFs and answer a test on a weekly basis.&lt;/dd&gt;
+&lt;dt&gt;The survey of laptop computer ownership 2020&lt;/dt&gt;
+&lt;dd&gt;You need to submit a checklist which declares that your PC is capable of your study life in Hiroshima University. You can submit the checklist in this course. Access to this course after finishing this lecture.&lt;/dd&gt;
+&lt;dt&gt;Information Security &amp;amp; Compliance 2020&lt;/dt&gt;
+&lt;dd&gt;In this course, you will learn how to use computer or network safely in Hiroshima University. All members in the university should take this course. You need to take a lecture in a classroom and learn more in this Bb9 course. If you cannot pass &amp;quot;Verification Test2020&amp;quot; and finish &amp;quot;account confirmation&amp;quot; by the end of June, your &amp;quot;IMC account&amp;quot; will be locked and you will not be able to read emails sent to your &amp;quot;HIRODAI mail address&amp;quot;. &lt;/dd&gt;
+ &lt;/dl&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-10e.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Win10en chap.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Win10en chap.1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1500,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1508,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1559,7 +1563,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1583,7 +1587,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1591,7 +1595,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1619,13 +1623,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1644,10 +1648,10 @@
     </row>
     <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1655,7 +1659,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>10</v>
@@ -1669,21 +1673,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -1691,13 +1695,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1705,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>10</v>
@@ -1730,10 +1734,10 @@
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -1741,13 +1745,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1755,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>10</v>
@@ -1766,10 +1770,10 @@
     </row>
     <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1777,13 +1781,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
@@ -1791,13 +1795,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1805,13 +1809,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1825,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1866,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -1874,7 +1878,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1888,13 +1892,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
@@ -1902,13 +1906,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -1916,13 +1920,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -1930,13 +1934,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1950,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1967,7 +1971,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1975,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1991,7 +1995,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
@@ -1999,7 +2003,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2010,7 +2014,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
@@ -2018,7 +2022,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2029,7 +2033,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2037,13 +2041,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2051,13 +2055,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2065,13 +2069,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2079,13 +2083,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2093,18 +2097,18 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2112,13 +2116,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2126,13 +2130,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2140,13 +2144,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2154,18 +2158,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2173,13 +2177,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2187,13 +2191,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2207,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2224,7 +2228,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2232,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2248,7 +2252,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2256,7 +2260,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2270,13 +2274,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2284,13 +2288,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2298,13 +2302,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2312,13 +2316,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2326,13 +2330,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2340,13 +2344,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2354,21 +2358,21 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2382,13 +2386,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2401,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2418,7 +2422,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2426,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2442,7 +2446,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2450,7 +2454,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2461,7 +2465,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2469,13 +2473,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2483,13 +2487,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2497,13 +2501,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2511,13 +2515,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2525,18 +2529,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2544,13 +2548,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2558,13 +2562,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2572,13 +2576,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2586,13 +2590,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2600,13 +2604,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2614,18 +2618,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2633,21 +2637,21 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2655,13 +2659,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2669,13 +2673,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2683,46 +2687,46 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2753,7 +2757,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2761,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2777,7 +2781,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -2785,7 +2789,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2796,7 +2800,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2818,13 +2822,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2832,18 +2836,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2865,13 +2869,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2879,13 +2883,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2893,13 +2897,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2907,13 +2911,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2921,13 +2925,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2935,13 +2939,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2949,13 +2953,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2963,13 +2967,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2977,18 +2981,18 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3010,13 +3014,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3024,13 +3028,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3038,18 +3042,18 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3071,13 +3075,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3085,13 +3089,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3099,13 +3103,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3113,13 +3117,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3127,13 +3131,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3141,13 +3145,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3155,13 +3159,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3169,13 +3173,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3183,13 +3187,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3197,13 +3201,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3211,18 +3215,18 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3230,7 +3234,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3244,13 +3248,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3258,13 +3262,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3272,21 +3276,21 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3294,18 +3298,19 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3313,8 +3318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3330,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3346,7 +3351,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3354,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3365,12 +3370,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="221" x14ac:dyDescent="0.2">
@@ -3378,7 +3383,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750028F5-1247-4F62-8F8E-004827B7A207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274F280E-BE12-4422-99EA-3D9C687C9364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40125" yWindow="195" windowWidth="13500" windowHeight="8265" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1970" yWindow="1980" windowWidth="13500" windowHeight="8260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
-    <sheet name="ch0 " sheetId="9" r:id="rId2"/>
+    <sheet name="ch0" sheetId="9" r:id="rId2"/>
     <sheet name="ch1" sheetId="3" r:id="rId3"/>
     <sheet name="ch2" sheetId="4" r:id="rId4"/>
     <sheet name="ch3" sheetId="5" r:id="rId5"/>
@@ -1472,7 +1472,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1546,13 +1546,13 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6328125" customWidth="1" phonetic="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1" phonetic="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6328125" customWidth="1" phonetic="1"/>
     <col min="4" max="4" width="20.6328125" customWidth="1" phonetic="1"/>
     <col min="5" max="16384" width="8.81640625" phonetic="1"/>
@@ -1562,7 +1562,7 @@
       <c r="A1" t="s" ph="1">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s" ph="1">
+      <c r="B1" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       <c r="A2" t="s" ph="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s" ph="1">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       <c r="A3" t="s" ph="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s" ph="1">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1586,15 +1586,15 @@
       <c r="A4" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s" ph="1">
+      <c r="B4" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s" ph="1">
+      <c r="B6" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C6" t="s" ph="1">
@@ -1604,11 +1604,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s" ph="1">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s" ph="1">
@@ -1618,11 +1618,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s" ph="1">
+      <c r="B8" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C8" t="s" ph="1">
@@ -1632,11 +1632,11 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s" ph="1">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s" ph="1">
@@ -1646,19 +1646,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s" ph="1">
+    <row r="10" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D10" t="s" ph="1">
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s" ph="1">
+      <c r="B11" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C11" t="s" ph="1">
@@ -1668,11 +1668,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B12" s="1" t="s" ph="1">
+      <c r="B12" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C12" t="s" ph="1">
@@ -1682,19 +1682,19 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s" ph="1">
+    <row r="13" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>182</v>
       </c>
       <c r="D13" t="s" ph="1">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s" ph="1">
+      <c r="B14" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C14" t="s" ph="1">
@@ -1704,11 +1704,11 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B15" s="1" t="s" ph="1">
+      <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C15" t="s" ph="1">
@@ -1718,11 +1718,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B16" s="1" t="s" ph="1">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s" ph="1">
@@ -1733,18 +1733,18 @@
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s" ph="1">
+      <c r="B17" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D17" t="s" ph="1">
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B18" s="1" t="s" ph="1">
+      <c r="B18" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C18" t="s" ph="1">
@@ -1754,11 +1754,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B19" s="1" t="s" ph="1">
+      <c r="B19" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C19" t="s" ph="1">
@@ -1768,19 +1768,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s" ph="1">
+    <row r="20" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>192</v>
       </c>
       <c r="D20" t="s" ph="1">
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B21" s="1" t="s" ph="1">
+      <c r="B21" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C21" t="s" ph="1">
@@ -1790,11 +1790,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="91" ph="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B22" s="1" t="s" ph="1">
+      <c r="B22" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C22" t="s" ph="1">
@@ -1804,11 +1804,11 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B23" s="1" t="s" ph="1">
+      <c r="B23" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C23" t="s" ph="1">
@@ -1829,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2211,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3318,7 +3318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274F280E-BE12-4422-99EA-3D9C687C9364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AD9D65-F4C0-41BA-A62B-2DE85F6FFE39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1970" yWindow="1980" windowWidth="13500" windowHeight="8260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1090" yWindow="2120" windowWidth="13500" windowHeight="8260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
   </t>
   </si>
   <si>
-    <t>初期設定</t>
-  </si>
-  <si>
     <t>fresta</t>
   </si>
   <si>
@@ -740,9 +737,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">購入したばかりの Windows 10 の電源を入れて、使い始められるようになるまでに必要な設定作業を説明します。 </t>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2020 Win10 chap.0</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1064,6 +1058,14 @@
   </si>
   <si>
     <t>FRESTA-TEXT-2020 Win10en chap.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Initial setting of your PC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are going to turn on your PC for the first time, follow chapter 0 to initial setting </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1504,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1512,7 +1514,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1545,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -1560,10 +1562,10 @@
   <sheetData>
     <row r="1" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s" ph="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1571,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1579,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1587,7 +1589,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
@@ -1595,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1609,13 +1611,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" ph="1">
         <v>9</v>
       </c>
-      <c r="C7" t="s" ph="1">
+      <c r="D7" t="s" ph="1">
         <v>10</v>
-      </c>
-      <c r="D7" t="s" ph="1">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1623,13 +1625,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1637,21 +1639,21 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s" ph="1">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s" ph="1">
         <v>12</v>
-      </c>
-      <c r="C9" t="s" ph="1">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s" ph="1">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1659,13 +1661,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1673,21 +1675,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1695,13 +1697,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C14" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
@@ -1709,13 +1711,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
@@ -1723,21 +1725,21 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s" ph="1">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s" ph="1">
         <v>16</v>
-      </c>
-      <c r="C16" t="s" ph="1">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s" ph="1">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1745,13 +1747,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C18" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1759,21 +1761,21 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1781,13 +1783,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="91" ph="1" x14ac:dyDescent="0.2">
@@ -1795,13 +1797,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1809,13 +1811,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1829,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1843,10 +1845,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1854,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1862,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1870,7 +1872,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -1878,7 +1880,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1892,13 +1894,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
@@ -1906,13 +1908,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -1920,13 +1922,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -1934,13 +1936,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +1956,262 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1968,10 +2225,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1979,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1987,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1995,264 +2252,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2260,7 +2260,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2274,13 +2274,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2288,13 +2288,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2302,13 +2302,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2316,13 +2316,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2330,13 +2330,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2344,13 +2344,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2358,21 +2358,21 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2386,13 +2386,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2419,10 +2419,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2438,7 +2438,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2446,7 +2446,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2454,7 +2454,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2473,13 +2473,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>76</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2487,13 +2487,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2501,13 +2501,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2515,13 +2515,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2529,18 +2529,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>83</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2548,13 +2548,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2562,13 +2562,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2576,13 +2576,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2590,13 +2590,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>90</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2604,13 +2604,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2618,18 +2618,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2637,21 +2637,21 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2659,13 +2659,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>95</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2673,13 +2673,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2687,46 +2687,46 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2754,10 +2754,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2773,7 +2773,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2781,7 +2781,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -2789,7 +2789,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2822,13 +2822,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2836,18 +2836,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>103</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2869,13 +2869,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>106</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2883,13 +2883,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>108</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2897,13 +2897,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2911,13 +2911,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2925,13 +2925,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>111</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2939,13 +2939,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
         <v>113</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>114</v>
-      </c>
-      <c r="D18" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2953,13 +2953,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>116</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2967,13 +2967,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>118</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2981,18 +2981,18 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>120</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3014,13 +3014,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>123</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3028,13 +3028,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>125</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3042,18 +3042,18 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>127</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3075,13 +3075,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>130</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3089,13 +3089,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>132</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3103,13 +3103,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>134</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3117,13 +3117,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>136</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3131,13 +3131,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>138</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3145,13 +3145,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3159,13 +3159,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>141</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3173,13 +3173,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>143</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3187,13 +3187,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>145</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3201,13 +3201,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>147</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3215,18 +3215,18 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
         <v>149</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3234,7 +3234,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3248,13 +3248,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3262,13 +3262,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
         <v>153</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3276,21 +3276,21 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
         <v>155</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3298,13 +3298,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
         <v>157</v>
-      </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3343,7 +3343,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3351,7 +3351,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3359,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3370,12 +3370,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="221" x14ac:dyDescent="0.2">
@@ -3383,7 +3383,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AD9D65-F4C0-41BA-A62B-2DE85F6FFE39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFC8F22-7577-4A09-9C36-C4F7BC3F567A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1090" yWindow="2120" windowWidth="13500" windowHeight="8260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="830" windowWidth="13500" windowHeight="8260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -1065,7 +1065,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">If you are going to turn on your PC for the first time, follow chapter 0 to initial setting </t>
+    <t>If you are going to turn on your PC for the first time, follow this chapter to see your Desktop in your PC.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1548,7 +1548,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFC8F22-7577-4A09-9C36-C4F7BC3F567A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97D3DA1-088E-47DF-A83E-74F7732ADDC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="830" windowWidth="13500" windowHeight="8260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27120" yWindow="1035" windowWidth="16890" windowHeight="12270" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="ch0" sheetId="9" r:id="rId2"/>
     <sheet name="ch1" sheetId="3" r:id="rId3"/>
-    <sheet name="ch2" sheetId="4" r:id="rId4"/>
-    <sheet name="ch3" sheetId="5" r:id="rId5"/>
-    <sheet name="ch4" sheetId="6" r:id="rId6"/>
+    <sheet name="ch2" sheetId="5" r:id="rId4"/>
+    <sheet name="ch3" sheetId="6" r:id="rId5"/>
+    <sheet name="ch4" sheetId="4" r:id="rId6"/>
     <sheet name="ch5" sheetId="7" r:id="rId7"/>
     <sheet name="ch6" sheetId="8" r:id="rId8"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="224">
   <si>
     <t>header1</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Know your PC&amp;apos;s basic spec, such as type of CPU, type of your Windows10, storage capacity of your PC. </t>
   </si>
   <si>
     <t>Know your PC's spec</t>
@@ -141,82 +138,13 @@
     <t>win10-1-04.svg</t>
   </si>
   <si>
-    <t>Update your Windows10 and install Microsoft Office or other required programs.</t>
-  </si>
-  <si>
     <t>Install required programs</t>
   </si>
   <si>
-    <t xml:space="preserve">Copy the installation files in numbered USB flash drive to your PC. Here, you will install Microsoft Office and Google Chrome on your PC.
-&lt;ul&gt;&lt;li&gt;&lt;a href="#copy"&gt;Copy the files in the USB flash drive to your PC&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#office"&gt;Install Microsoft Office&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#chrome"&gt;Install Google Chrome&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
- </t>
-  </si>
-  <si>
     <t>&lt;h2&gt;Before starting this chapter&lt;/h2&gt;</t>
   </si>
   <si>
-    <t>&lt;h2&gt;&lt;a name="copy"&gt;&lt;/a&gt;Copy the files in the USB flash drive to your PC&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert the USB flash drive into a USB port on your PC. If your PC recognizes the flash drive, it will make a sound.
-  </t>
-  </si>
-  <si>
-    <t>win10-2-01.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the message about FIRST LEC appears on the lower right of the desktop, click it.
-  </t>
-  </si>
-  <si>
-    <t>win10-2-02.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose &amp;quot;Open folder to view files&amp;quot; in &amp;quot;FIRST LEC (D:)&amp;quot; window.
-  </t>
-  </si>
-  <si>
-    <t>win10-2-03.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you have finished the copy, you need to eject the USB flash drive from your PC. Right-click &amp;quot;FIRST LEC (D:)&amp;quot; on the left side of &amp;quot;FIRST LEC (D:)&amp;quot; window and click &amp;quot;Eject&amp;quot; in the list.
-  </t>
-  </si>
-  <si>
-    <t>win10-2-05.svg</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Install Microsoft Office&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In order to install software, the installation program needs to create files in the area which PC user may not access for the general use. Therefore, OS asks you if you really allow the installation. Here, click &amp;quot;Yes&amp;quot;.
-  </t>
-  </si>
-  <si>
-    <t>win10-2-07.svg</t>
-  </si>
-  <si>
-    <t>win10-2-08.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you see the window in the picture, the installation has been completed. Click &amp;quot;Close&amp;quot; to proceed the next step.
-  </t>
-  </si>
-  <si>
-    <t>win10-2-09.svg</t>
-  </si>
-  <si>
     <t>&lt;h2&gt;&lt;a name="chrome"&gt;&lt;/a&gt;Install Google Chrome&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double-click &amp;quot;ChromeStandaloneSetup64&amp;quot; in the copied &amp;quot;windows-en&amp;quot; folder on your desktop. When you are asked to allow the app to make changes to your PC, click &amp;quot;Yes&amp;quot;.
-  </t>
   </si>
   <si>
     <t>win10-2-10.svg</t>
@@ -234,17 +162,6 @@
   </si>
   <si>
     <t>Connect your PC to campus network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can connect to Wi-Fi called &amp;quot;HINET Wi-Fi&amp;quot; in shared facilities in Hiroshima University campus. Here you will set up your PC to connect to the internal network and the internet via Wi-Fi. As far as you connect to the same access point, you do not need to do this again.
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">First of all, you need to remember that there are two IDs to use information services provided by Hiroshima University. These IDs are based on student number.
-One of them is called HIRODAI ID, which looks same to student number. The other is &amp;quot;IMC account&amp;quot;, which looks little bit different from student number. The first letter of student number is capital, whereas that of &amp;quot;IMC account&amp;quot; is in lowercase.
-Both IDs share password. It is called &amp;quot;HIRODAI password&amp;quot;. You will know it when you get your ID card.
-Adding &amp;quot;@hiroshima-u.ac.jp&amp;quot; behind your &amp;quot;IMC account&amp;quot;, you will get your email address as a student in Hiroshima University. The email address is called &amp;quot;HIRODAI mail address&amp;quot;. Teachers or staffs in Hiroshima University may send emails to the email address. Check your email box frequently. You will learn how to check it in Chapter 5.
-  </t>
   </si>
   <si>
     <t>win10-4-01.svg</t>
@@ -286,10 +203,6 @@
   </si>
   <si>
     <t>win10-4-06.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This map shows which &amp;quot;HU-CUPxx&amp;quot; you may find in the campus.
-  </t>
   </si>
   <si>
     <t>win10-4-07.svg</t>
@@ -321,18 +234,6 @@
     <t>Automatic update and software setup</t>
   </si>
   <si>
-    <t xml:space="preserve">Here, you will set up Windows Update which keeps your Wndows10 and Office updated. And, as the preparation of using Office, you will activate it by signing in with &amp;quot;HIRODAI mail address&amp;quot;. You will do it here, as well.
-Furthermore, you will learn how to use Microsoft Defender&amp;apos;s full scan.
-&lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;Set up Windows Update &lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#defender"&gt;Microsoft Defender -manual update and a full scan-&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#office"&gt;Office activation&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
- </t>
-  </si>
-  <si>
     <t>&lt;h2&gt;&lt;a name="windows_update"&gt;&lt;/a&gt;Set up Windows Update&lt;/h2&gt;</t>
   </si>
   <si>
@@ -403,20 +304,6 @@
 But it will take a long time. Do not run a full scan during this workshop. But do it at the earliest opportunity after this workshop and fill out the checklist.
 Click X on the upper right corner of the window to close it.
   </t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Office activation&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>win10-5-12.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click &amp;quot;Accept&amp;quot;.
-* This act means that you agree to the Microsoft Office License Agreement.
-  </t>
-  </si>
-  <si>
-    <t>win10-5-13.svg</t>
   </si>
   <si>
     <t>Office365, MOMIJI, Bb9, and others…</t>
@@ -712,24 +599,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">When &amp;quot;FIRST LEC (D:)&amp;quot; window appears, drag and drop &amp;quot;setup2020-win10en&amp;quot; folder to your desktop.
-* Here is other way to copy the folder; choose it, press &amp;quot;Ctrl&amp;quot; key and c, click the desktop, and press &amp;quot;Ctrl&amp;quot; key and v.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">If Office365 ProPlus has already been installed on your PC, you can skip this section and &lt;a href="#chrome"&gt;proceed to step [10]&lt;/a&gt;
-. If you have Office2013 in your PC, you may install Office365 ProPlus on your PC.
-Double-click the copied &amp;quot;setup2020-win10en&amp;quot; folder on your desktop to open it. Then double-click the &amp;quot;officepropluswin-en&amp;quot; in the &amp;quot;setup2020-win10en&amp;quot; window. When you find the &amp;quot;install&amp;quot; item in the folder, double-click to start the installation.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The window says, &amp;quot;We&amp;apos;ll be done in just a moment.&amp;quot; Wait &lt;it&gt;a few&lt;/it&gt; minutes.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">When you are asked to continue connecting, click &amp;quot;Connect&amp;quot;. 
 When your PC has successfully connected to the Wi-Fi, you will see the word &amp;quot;Connected&amp;quot; under the name of the Wi-Fi. &lt;span class="check"&gt;check-3&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
@@ -860,21 +729,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">In this chapter, we will describe your works assuming that you have a USB stick that was handed in the workshop.
-In the case that you did not take the workshop, please choose from following two options:
-&lt;ol&gt;&lt;li&gt;Borrowing a USB stick at Information Media Center Counter, and following the instructions on this chapter.&lt;/li&gt;
-&lt;li&gt;Downloading programs, the contents of USB stick, from Web site directly, installing them, and proceeding to the next chapter. * Please follow the instructions on the following sites. If you are asked ID and password, please input HIRODAI ID (student ID) and HIRODAI password (printed on a paper handed with your ID card)
-&lt;ul&gt;&lt;li&gt;&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/e_ms/e_office365ProPlus_win.html"&gt;Office&lt;/a&gt;
- &lt;/li&gt;
-&lt;li&gt;&lt;a href="https://www.google.com/chrome/"&gt;Chrome（Web browser）&lt;/a&gt;
-  &lt;/li&gt;
-&lt;/ul&gt;
- &lt;/li&gt;
- &lt;/ol&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2020 Win10en chap.4</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -892,43 +746,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Here, you will activate OfficeProPlus. With this activation, you can verify the license and start to use the software.
-In order to activate Office, You need to open one of the products in Office. Here, let us open Excel.
-Click the Start button and find &amp;quot;Excel&amp;quot; in the list. Then click &amp;quot;Excel&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">In order to tell Microsoft that you are a rightful user, you need to verify that you are a student in Hiroshima University.
-Click &amp;quot;Sign in to get the most out of Office&amp;quot;.  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> When &amp;quot;Sign in&amp;quot; window appears, input &amp;quot;HIRODAI mail address&amp;quot;, which is like b20xxxxx@hiroshima-u.ac.jp, and click &amp;quot;Next&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-5-17.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;quot;HIROSHIMA UNIVERSITY&amp;quot; window appears. Type &amp;quot;HIRODAI password&amp;quot; in the lower box and click &amp;quot;Sign in&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If your PC ask &amp;quot;Use this account everywhere on you device&amp;quot;, click &amp;quot;Yes&amp;quot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Click &amp;quot;Finish&amp;quot;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Click &amp;quot;Accept&amp;quot; to accept Microsoft Software License Terms.
-Therefore, you can use Office applications with your PC. &lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
-</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>FRESTA-TEXT-2020 Win10en chap.5</t>
@@ -960,24 +778,6 @@
     <t>win10-0-13a.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">If you are in trouble when you use your PC, don&amp;apos;t hesitate to make a inquiry to IMC.
-&lt;dl&gt;&lt;dt&gt;At IMC: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;IMC main building, IMC east branch in East Library, IMC service desk in West Library and Central Library, IMC Kasumi branch&lt;/dd&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;Access map&lt;/a&gt;&lt;/dd&gt;
-&lt;dt&gt;Online: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
-&lt;/dd&gt;
- &lt;/dl&gt;For your better PC life, IMC holds F3S, First Three Steps, Workshops. 
-In the workshop, you may get some useful knowledge or technique to use your PC. Join us if you are interested in the themes. 
-&lt;ul&gt;&lt;li&gt;&lt;a href="https://f3s.riise.hiroshima-u.ac.jp"&gt;https://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
- &lt;/li&gt;
-&lt;/ul&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2020 Win10en conclusion</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1003,31 +803,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-5-23e.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-5-22e.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-5-14a.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>win10-5-15a.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-5-13e.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-04e.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-06e.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1066,6 +846,192 @@
   </si>
   <si>
     <t>If you are going to turn on your PC for the first time, follow this chapter to see your Desktop in your PC.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Know your PC&amp;apos;s basic spec, such as type of CPU, type of your Windows10, storage capacity of your PC. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In this chaper, we explain how to connect your PC to HINET Wi-Fi (Wi-Fi network in Hiroshima Univ,).
+If you can connect your PC to Internet already, you may use it now and go on next chapter.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You can connect to Wi-Fi called &amp;quot;HINET Wi-Fi&amp;quot; in shared facilities in Hiroshima University campus. Here you will set up your PC to connect to the internal network and the internet via Wi-Fi. As far as you connect to the same access point, you do not need to do this again.
+This map shows which &amp;quot;HU-CUPxx&amp;quot; you may find in the campus.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">First of all, you need to remember that there are two IDs to use information services provided by Hiroshima University. These IDs are based on student number.
+One of them is called HIRODAI ID, which looks same to student number. The other is &amp;quot;IMC account&amp;quot;, which looks little bit different from student number. The first letter of student number is capital, whereas that of &amp;quot;IMC account&amp;quot; is in lowercase.
+Both IDs share password. It is called &amp;quot;HIRODAI password&amp;quot;. You will know it when you get your ID card.
+Adding &amp;quot;@hiroshima-u.ac.jp&amp;quot; behind your &amp;quot;IMC account&amp;quot;, you will get your email address as a student in Hiroshima University. The email address is called &amp;quot;HIRODAI mail address&amp;quot;. Teachers or staffs in Hiroshima University may send emails to the email address. Check your email box frequently. You will learn how to check it in Chapter 5.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Install Google Chrome and activate Microsoft Office.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy the installation files in numbered USB flash drive to your PC. Here, you will install Microsoft Office and Google Chrome on your PC.
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#chrome"&gt;Install Google Chrome&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#office"&gt;Activate Microsoft Office&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;You need your HIRODAI ID(student ID) and HIRODAI Password to go on this chapter.&lt;/strong&gt;
+Again, you need to remember that there are two IDs to use information services provided by Hiroshima University. These IDs are based on student number.
+One of them is called HIRODAI ID, which looks same to student number. The other is &amp;quot;IMC account&amp;quot;, which looks little bit different from student number. The first letter of student number is capital, whereas that of &amp;quot;IMC account&amp;quot; is in lowercase.
+Both IDs share password. It is called &amp;quot;HIRODAI password&amp;quot;. You will know it when you get your ID card.
+Adding &amp;quot;@hiroshima-u.ac.jp&amp;quot; behind your &amp;quot;IMC account&amp;quot;, you will get your email address as a student in Hiroshima University. The email address is called &amp;quot;HIRODAI mail address&amp;quot;. Teachers or staffs in Hiroshima University may send emails to the email address. Check your email box frequently. You will learn how to check it in Chapter 5.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's download Google Chrome from official site
+&lt;a href="https://www.google.com/intl/en_us/chrome/"&gt;https://www.google.com/intl/en_us/chrome/&lt;/a&gt;
+and click &amp;quot;Download Chrome&amp;quot; in the site.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-42.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-43.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-44.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-10a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click &amp;quot;Accept and Install&amp;quot;
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Activate Microsoft Office&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Here, you will set up Windows Update which keeps your Wndows10 and Office updated. 
+Furthermore, you will learn how to use Microsoft Defender&amp;apos;s full scan.
+&lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;Set up Windows Update &lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#defender"&gt;Microsoft Defender -manual update and a full scan-&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Run the installer.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>When you see blinking sheeld icon in the task bar, click it. (appear in down area of display)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-22.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-13a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click &amp;quot;Yes&amp;quot. to allow this app to make changes to your device.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-12.svg</t>
+  </si>
+  <si>
+    <t>win10-5-23.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The window says, &amp;quot;We&amp;apos;ll be done in just a moment.&amp;quot; Wait &lt;it&gt;a few&lt;/it&gt; minutes.
+Click &amp;quot;Finished&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Input HIRODAI mailaddress（b20xxxxx@hiroshima-u.ac.jp）and click &amp;quot;Next&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Input HIRODAI password and click &amp;quot;Sign in&amp;quot;.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click &amp;quot;Yes&amp;quot;.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click &amp;quot;I agree&amp;quot;.
+Now you can use Microsoft Office applications!&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Run &amp;quot;Excel&amp;quot; in your PC.
+&lt;p class="spl"&gt; * If you cannot run &amp;quot;Excel&amp;quot; for now, you have to download Office to your PC. Please contact support team.&lt;/p&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you see a prompt for sign in and set Office(see right figure), you need to activate Office on your PC.
+Click &amp;quot;Sign in&amp;quot;,
+&lt;p class="spl"&gt;* If you can use Excel without seeing any prompt to sign in,  go on next chapter.&lt;/p&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are in trouble when you use your PC, don&amp;apos;t hesitate to make a inquiry to IMC.
+&lt;dl&gt;&lt;dt&gt;At IMC: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;Startup workshop (Apr.4-8, for detail, see below URL)&lt;/dd&gt;
+&lt;dd&gt;&lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;&lt;/dd&gt;
+&lt;dd&gt;Special QA Support (Apr.4-5, 9:00-17:00)&lt;/dd&gt;
+&lt;dd&gt;IMC mail building&lt;/dd&gt;
+&lt;dd&gt;Support Desks (9:00-16:30 Weekday)&lt;/dd&gt;
+&lt;dd&gt;IMC main building, IMC east branch in East Library, IMC service desk in West Library and Central Library, IMC Kasumi branch&lt;/dd&gt;
+&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;Access map&lt;/a&gt;&lt;/dd&gt;
+&lt;dt&gt;Online: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
+&lt;/dd&gt;
+&lt;dt&gt;Mail: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;
+&lt;/dd&gt; &lt;/dl&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">For your better PC life, IMC holds F3S, First Three Steps, Workshops. 
+In the workshop, you may get some useful knowledge or technique to use your PC. Join us if you are interested in the themes. 
+&lt;ul&gt;&lt;li&gt;&lt;a href="https://f3s.riise.hiroshima-u.ac.jp"&gt;https://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
+ &lt;/li&gt;
+&lt;/ul&gt;
+ </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1089,7 +1055,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1099,12 +1065,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1129,10 +1089,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1506,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1514,7 +1470,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1547,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -1565,7 +1521,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1573,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1589,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
@@ -1597,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1625,13 +1581,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>174</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1650,10 +1606,10 @@
     </row>
     <row r="10" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>176</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1661,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>9</v>
@@ -1675,21 +1631,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>181</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1697,13 +1653,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>183</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
@@ -1711,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>9</v>
@@ -1736,10 +1692,10 @@
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>186</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1747,13 +1703,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1761,7 +1717,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
@@ -1772,10 +1728,10 @@
     </row>
     <row r="20" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1783,13 +1739,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>193</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="91" ph="1" x14ac:dyDescent="0.2">
@@ -1797,13 +1753,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1811,13 +1767,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1831,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1848,7 +1804,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1856,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1872,7 +1828,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -1880,7 +1836,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1894,13 +1850,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
@@ -1908,13 +1864,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -1922,13 +1878,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -1936,13 +1892,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1953,266 +1909,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2228,7 +1929,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2236,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2252,127 +1953,118 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
       <c r="D8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2386,13 +2078,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2401,12 +2093,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2422,7 +2114,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2430,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2446,15 +2138,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2465,7 +2157,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2473,13 +2165,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2487,13 +2179,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2501,13 +2193,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2515,13 +2207,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2529,18 +2221,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2548,13 +2240,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2562,13 +2254,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2576,13 +2268,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2590,13 +2282,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2604,13 +2296,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2618,115 +2310,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D22" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2736,12 +2326,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D46"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2757,7 +2347,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2765,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2781,7 +2371,263 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="156" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -2789,7 +2635,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2800,7 +2646,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2822,13 +2668,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2836,18 +2682,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2869,13 +2715,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2883,13 +2729,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2897,13 +2743,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2911,13 +2757,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2925,13 +2771,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2939,13 +2785,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2953,13 +2799,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2967,13 +2813,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2981,18 +2827,18 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3014,13 +2860,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3028,13 +2874,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3042,18 +2888,18 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3075,13 +2921,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3089,13 +2935,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3103,13 +2949,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3117,13 +2963,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3131,13 +2977,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3145,13 +2991,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3159,13 +3005,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3173,13 +3019,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3187,13 +3033,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3201,13 +3047,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3215,18 +3061,18 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3234,7 +3080,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3248,13 +3094,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3262,13 +3108,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3276,21 +3122,21 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>215</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3298,13 +3144,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3316,10 +3162,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3335,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3351,7 +3197,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3359,7 +3205,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3370,25 +3216,39 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="260" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97D3DA1-088E-47DF-A83E-74F7732ADDC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67A5260-E60D-4699-9511-0E50C7B87235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27120" yWindow="1035" windowWidth="16890" windowHeight="12270" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37545" yWindow="1725" windowWidth="16890" windowHeight="10155" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="225">
   <si>
     <t>header1</t>
   </si>
@@ -55,11 +55,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">You are going to prepare your PC for your study life at Hiroshima University during this lecture. Here is the list of what you are going to do today.
-&lt;ol&gt; &lt;/ol&gt;
-  </t>
   </si>
   <si>
     <t>fresta</t>
@@ -147,9 +142,6 @@
     <t>&lt;h2&gt;&lt;a name="chrome"&gt;&lt;/a&gt;Install Google Chrome&lt;/h2&gt;</t>
   </si>
   <si>
-    <t>win10-2-10.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">The installation will be completed in a minute!
 &lt;p class="spl"&gt;* You may realize that Microsoft Edge, as the default browser, has already been in Windows 10. But there are some web pages which cannot be displayed successfully by Microsoft Edge. In that case, you can use Google Chrome as the secondary browser.&lt;/p&gt;
   </t>
@@ -174,11 +166,6 @@
   </si>
   <si>
     <t>win10-4-02.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now you can see the list of Wi-Fi AP (access points) which your PC can detect. Choose Wi-Fi AP named like &amp;quot;HU-CUPxx&amp;quot;. Here, each x represents a number. The two-digit number is different from the area in the campus. For examples, you will find &amp;quot;HU-CUP30&amp;quot; near School of Integrated Arts and Sciences, &amp;quot;HU-CUP40&amp;quot; in Kasumi campus, or &amp;quot;HU-CUP50&amp;quot; in Higashisneda campus.
-&lt;p class="spl"&gt;&amp;amp;ast; If your PC could not detect Wi-Fi AP named &amp;quot;HU-CUPxx&amp;quot; in classroom, it possiblly does not meet system requirement, it should support 5GHz Wi-Fi. Please contact IMC staff.&lt;/p&gt;
-  </t>
   </si>
   <si>
     <t>win10-4-03.svg</t>
@@ -966,12 +953,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">The window says, &amp;quot;We&amp;apos;ll be done in just a moment.&amp;quot; Wait &lt;it&gt;a few&lt;/it&gt; minutes.
-Click &amp;quot;Finished&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Input HIRODAI mailaddress（b20xxxxx@hiroshima-u.ac.jp）and click &amp;quot;Next&amp;quot;.
   </t>
     <phoneticPr fontId="1"/>
@@ -1004,14 +985,49 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">For your better PC life, IMC holds F3S, First Three Steps, Workshops. 
+In the workshop, you may get some useful knowledge or technique to use your PC. Join us if you are interested in the themes. 
+&lt;ul&gt;&lt;li&gt;&lt;a href="https://f3s.riise.hiroshima-u.ac.jp"&gt;https://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
+ &lt;/li&gt;
+&lt;/ul&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You are going to prepare your PC for your study life at Hiroshima University during this lecture. Here is the list of what you are going to do at this workshop.
+&lt;ol&gt; &lt;/ol&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Now you can see the list of Wi-Fi AP (access points) which your PC can detect. Choose Wi-Fi AP named like &amp;quot;HU-CUPxx&amp;quot;. Here, each x represents a number. The two-digit number is different from the area in the campus. For examples, you will find &amp;quot;HU-CUP30&amp;quot; near School of Integrated Arts and Sciences, &amp;quot;HU-CUP40&amp;quot; in Kasumi campus, or &amp;quot;HU-CUP50&amp;quot; in Higashisneda campus.
+&lt;p class="spl"&gt;&amp;ast; If your PC could not detect Wi-Fi AP named &amp;quot;HU-CUPxx&amp;quot; in classroom, it possiblly does not meet system requirement, it should support 5GHz Wi-Fi. Please contact IMC staff.&lt;/p&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-01.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-41.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The window says, &amp;quot;We&amp;apos;ll be done in just a moment.&amp;quot; Wait &lt;it&gt;a few&lt;/it&gt; minutes.
+Click &amp;quot;Finish&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">If you are in trouble when you use your PC, don&amp;apos;t hesitate to make a inquiry to IMC.
 &lt;dl&gt;&lt;dt&gt;At IMC: &lt;/dt&gt;
 &lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;Startup workshop (Apr.4-8, for detail, see below URL)&lt;/dd&gt;
+&lt;dd&gt;&amp;ast;Startup workshop (Apr.4-8, for detail, see below URL)&lt;/dd&gt;
 &lt;dd&gt;&lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;&lt;/dd&gt;
-&lt;dd&gt;Special QA Support (Apr.4-5, 9:00-17:00)&lt;/dd&gt;
-&lt;dd&gt;IMC mail building&lt;/dd&gt;
-&lt;dd&gt;Support Desks (9:00-16:30 Weekday)&lt;/dd&gt;
+&lt;dd&gt;&amp;ast;Special QA Support (Apr.4-5, 9:00-17:00)&lt;/dd&gt;
+&lt;dd&gt;IMC main building&lt;/dd&gt;
+&lt;dd&gt;&amp;ast;Support Desks (9:00-16:30 Weekday)&lt;/dd&gt;
 &lt;dd&gt;IMC main building, IMC east branch in East Library, IMC service desk in West Library and Central Library, IMC Kasumi branch&lt;/dd&gt;
 &lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;Access map&lt;/a&gt;&lt;/dd&gt;
 &lt;dt&gt;Online: &lt;/dt&gt;
@@ -1022,15 +1038,6 @@
 &lt;dt&gt; &lt;/dt&gt;
 &lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;
 &lt;/dd&gt; &lt;/dl&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">For your better PC life, IMC holds F3S, First Three Steps, Workshops. 
-In the workshop, you may get some useful knowledge or technique to use your PC. Join us if you are interested in the themes. 
-&lt;ul&gt;&lt;li&gt;&lt;a href="https://f3s.riise.hiroshima-u.ac.jp"&gt;https://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
- &lt;/li&gt;
-&lt;/ul&gt;
  </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1430,7 +1437,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1462,7 +1469,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1470,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1484,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1496,6 +1503,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1503,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -1518,10 +1526,10 @@
   <sheetData>
     <row r="1" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s" ph="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1529,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1537,7 +1545,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1545,7 +1553,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
@@ -1553,7 +1561,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1567,13 +1575,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s" ph="1">
         <v>8</v>
       </c>
-      <c r="C7" t="s" ph="1">
+      <c r="D7" t="s" ph="1">
         <v>9</v>
-      </c>
-      <c r="D7" t="s" ph="1">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1581,13 +1589,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s" ph="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1595,21 +1603,21 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s" ph="1">
         <v>11</v>
-      </c>
-      <c r="C9" t="s" ph="1">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s" ph="1">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1617,13 +1625,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s" ph="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1631,21 +1639,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s" ph="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1653,13 +1661,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s" ph="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
@@ -1667,13 +1675,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s" ph="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
@@ -1681,21 +1689,21 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s" ph="1">
         <v>15</v>
-      </c>
-      <c r="C16" t="s" ph="1">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s" ph="1">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1703,13 +1711,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s" ph="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1717,21 +1725,21 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s" ph="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1739,13 +1747,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C21" t="s" ph="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="91" ph="1" x14ac:dyDescent="0.2">
@@ -1753,13 +1761,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s" ph="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1767,13 +1775,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C23" t="s" ph="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1801,10 +1809,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1812,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1820,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1828,7 +1836,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -1836,7 +1844,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1850,13 +1858,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
@@ -1864,13 +1872,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -1878,13 +1886,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -1892,13 +1900,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1912,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1926,10 +1934,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1937,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1945,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1953,12 +1961,12 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1966,13 +1974,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -1980,13 +1988,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1994,13 +2002,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2008,13 +2016,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2022,13 +2030,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2036,13 +2044,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2050,21 +2058,21 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2078,13 +2086,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2111,10 +2119,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2122,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2130,7 +2138,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2138,7 +2146,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2146,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2157,7 +2165,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2165,13 +2173,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2179,13 +2187,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2193,13 +2201,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2207,13 +2215,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2221,18 +2229,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2240,13 +2248,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2254,13 +2262,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2268,13 +2276,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2282,13 +2290,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2296,13 +2304,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2310,13 +2318,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2331,7 +2339,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2344,10 +2352,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2355,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2363,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2371,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -2379,7 +2387,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2390,7 +2398,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="156" x14ac:dyDescent="0.2">
@@ -2398,18 +2406,18 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2417,37 +2425,37 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2455,13 +2463,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2469,18 +2477,18 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2488,21 +2496,21 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2510,13 +2518,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2524,13 +2532,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2538,13 +2546,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2552,13 +2560,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2566,13 +2574,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2600,10 +2608,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2611,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2619,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2627,7 +2635,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -2635,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2646,7 +2654,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2668,13 +2676,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2682,18 +2690,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2715,13 +2723,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2729,13 +2737,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2743,13 +2751,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2757,13 +2765,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2771,13 +2779,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2785,13 +2793,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2799,13 +2807,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2813,13 +2821,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2827,18 +2835,18 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2860,13 +2868,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2874,13 +2882,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2888,18 +2896,18 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2921,13 +2929,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2935,13 +2943,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2949,13 +2957,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2963,13 +2971,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2977,13 +2985,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -2991,13 +2999,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3005,13 +3013,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3019,13 +3027,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3033,13 +3041,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3047,13 +3055,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3061,18 +3069,18 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3080,7 +3088,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3094,13 +3102,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3108,13 +3116,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3122,21 +3130,21 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3144,13 +3152,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3165,7 +3173,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3181,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3189,7 +3197,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3197,7 +3205,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3205,7 +3213,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3216,7 +3224,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="260" x14ac:dyDescent="0.2">
@@ -3224,7 +3232,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3235,7 +3243,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3243,7 +3251,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67A5260-E60D-4699-9511-0E50C7B87235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90D19F5-C7C0-4FDD-B3BB-BB530E78EA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37545" yWindow="1725" windowWidth="16890" windowHeight="10155" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36660" yWindow="2040" windowWidth="16890" windowHeight="10155" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -1023,11 +1023,11 @@
     <t xml:space="preserve">If you are in trouble when you use your PC, don&amp;apos;t hesitate to make a inquiry to IMC.
 &lt;dl&gt;&lt;dt&gt;At IMC: &lt;/dt&gt;
 &lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&amp;ast;Startup workshop (Apr.4-8, for detail, see below URL)&lt;/dd&gt;
+&lt;dd&gt;&amp;ast; Startup workshop (Apr.4-8, for detail, see below URL)&lt;/dd&gt;
 &lt;dd&gt;&lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;&lt;/dd&gt;
-&lt;dd&gt;&amp;ast;Special QA Support (Apr.4-5, 9:00-17:00)&lt;/dd&gt;
+&lt;dd&gt;&amp;ast; Special QA Support (Apr.4 12:30-17:00, Apr.5 9:00-17:00)&lt;/dd&gt;
 &lt;dd&gt;IMC main building&lt;/dd&gt;
-&lt;dd&gt;&amp;ast;Support Desks (9:00-16:30 Weekday)&lt;/dd&gt;
+&lt;dd&gt;&amp;ast; Support Desks (9:00-16:30 Weekday)&lt;/dd&gt;
 &lt;dd&gt;IMC main building, IMC east branch in East Library, IMC service desk in West Library and Central Library, IMC Kasumi branch&lt;/dd&gt;
 &lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;Access map&lt;/a&gt;&lt;/dd&gt;
 &lt;dt&gt;Online: &lt;/dt&gt;
@@ -1920,7 +1920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2105,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2338,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3172,7 +3172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3263,5 +3263,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90D19F5-C7C0-4FDD-B3BB-BB530E78EA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7955294-651A-4524-A301-0B3C9775FDC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36660" yWindow="2040" windowWidth="16890" windowHeight="10155" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36120" yWindow="915" windowWidth="17925" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -60,20 +60,12 @@
     <t>fresta</t>
   </si>
   <si>
-    <t xml:space="preserve">Windowsで使用する言語を選びます。「日本語」をクリックしてください。
-  </t>
-  </si>
-  <si>
     <t>chartn</t>
   </si>
   <si>
     <t>win10-0-01.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">現在いる地域を選びます。日本ですね。これは、時間帯などを設定するための情報として使われます。
-  </t>
-  </si>
-  <si>
     <t>win10-0-03.svg</t>
   </si>
   <si>
@@ -81,11 +73,6 @@
   </si>
   <si>
     <t>win10-0-07.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「パスワード」は、十分に複雑な（でも、ちゃんと覚えていられて忘れないもの）を付けましょう。ユーザ名と同じものとか &amp;quot;333&amp;quot; とかすぐに類推できてしまうようなものを付けてはいけません。
-ここで決めたパスワードを忘れると、相当面倒なことになりますので慎重に！
-  </t>
   </si>
   <si>
     <t>win10-0-08.svg</t>
@@ -597,118 +584,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Surfaceの電源を初めて入れて、デスクトップ画面が表示されるまでの設定内容について説明します。一番重要なのは、普段利用するユーザ名とパスワードを作成するところ。あとは概ね言われるままにしていけば大丈夫です。
-すでにデスクトップが表示されている方は、この章をスキップして次の「パソコンのスペック確認」へ進んでください。
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">住んでいる地域を選びますが、その前に音声が出るのがちょっとうるさいので画面左下のマイクアイコンをクリックして黙ってもらいましょう。
-  </t>
-  </si>
-  <si>
     <t>win10-0-02a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">キーボードレイアウトについての質問に答えます。「Microsoft IME」になっていることを確認して、「はい」をクリックしましょう。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-0-21.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">キーボードレイアウトの追加についての質問に答えます。追加のレイアウトはないので、「スキップ」としましょう。
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークに接続するための画面がでます。あとで設定しますので、ここでは左下の「インターネットに接続していません」をクリックし、何もせずに飛ばします。
-  </t>
-  </si>
-  <si>
     <t>win10-0-06a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「インターネットに接続すると、・・・」と再度確認の画面が出ます。左下の「制限された設定で続行する」をクリックして飛ばします。</t>
-  </si>
-  <si>
     <t>win10-0-22.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Windows 10の使用許諾契約が表示されます。
-ここには、みなさんがどういう条件でWindows を利用できるかということが細かく書かれています。内容を確認して「同意」をクリックしてください。
-※ この内容は、「設定」→「システム」→「バージョン情報」の画面で「マイクロソフトライセンス条項を読む」をクリックすると、いつでも読めます。
-  </t>
-  </si>
-  <si>
     <t>win10-0-05a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">PCを使うときのユーザ名を記入します。自分で使いやすいものをきめてください。
-「ユーザ名」は、&amp;quot;ayase&amp;quot; など名前をローマ字にしたものが一般的です。日本語も使えますが、そうするとたまに動かないソフトがあります。ユーザ名には日本語を使わないようにしましょう。
-  </t>
-  </si>
-  <si>
-    <t>「パスワードの確認」として、先ほど決めたパスワードをもう一度入力します。</t>
-  </si>
-  <si>
     <t>win10-0-23.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">「このアカウントのセキュリティの質問」を作成するように促されます。これは、パスワードを忘れてしまった時に、代わりになる質問を入れておく機能です。
-しかしこのPCに触れる人なら誰でもこの質問を使ってログインできてしまうので、あなたのPCが乗っ取られる危険性を大きくするものです。あまり良い機能ではありません。
-何か記入をしないと次に進めないので、あえて質問とは関係のない答を入れるのがおススメです。
-  </t>
-  </si>
-  <si>
     <t>win10-0-24.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">顔認証は結構面白くて便利ですが、設定に少し時間がかかりますので今はスキップしておきましょう。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「アクティビティの履歴を利用して・・・」というのはスマホなどの機器でMicrosoft製品を使うときに利用履歴を共有する機能です。今の所は「いいえ」としておきます。後から使うように変更できます。</t>
-  </si>
-  <si>
     <t>win10-0-25.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">「デジタルアシスタントの利用」も、今の所は「拒否」としておきます。後から使うように変更できます。
-  </t>
-  </si>
-  <si>
     <t>win10-0-11a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">「デバイスのプライバシー設定の選択」では、あなたのプライバシー情報がMicrosoftのサーバなどに送られる可能性がある機能のオン／オフを設定します。
-本来は、利便性とプライバシーを比較して各個人で決定するものです。
-Microsoftは全部をオンにすることを勧めていますが、「音声認識」と「位置情報」以外の五つは利用者にとってそれほどメリットがあるものではないので、オフにしておいたら良いでしょう。
-「同意」をクリックします。これで設定項目は終了です。しばらく待ちましょう。
-  </t>
-  </si>
-  <si>
     <t>win10-0-12.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>数分待つと、Windows10のデスクトップ画面が出てきます。Microsoft Teamsのアカウント入力要求が画面に出ますが、とりあえず右上の×マークをクリックして画面から消しましょう。</t>
-    <rPh sb="54" eb="56">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>ミギ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -973,11 +885,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Run &amp;quot;Excel&amp;quot; in your PC.
-&lt;p class="spl"&gt; * If you cannot run &amp;quot;Excel&amp;quot; for now, you have to download Office to your PC. Please contact support team.&lt;/p&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">If you see a prompt for sign in and set Office(see right figure), you need to activate Office on your PC.
 Click &amp;quot;Sign in&amp;quot;,
 &lt;p class="spl"&gt;* If you can use Excel without seeing any prompt to sign in,  go on next chapter.&lt;/p&gt;
@@ -1020,12 +927,102 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Run &amp;quot;Excel&amp;quot; in your PC.
+&lt;p class="spl"&gt; * If you cannot run &amp;quot;Excel&amp;quot; for now, you have to download Office to your PC. Please contact helpdesk. See chapter 6. &lt;/p&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Here is how to make initial setting of your PC, when you are going to turn on your PC for the first time. If you have finished your PC&amp;apos;s initial setting, go next chapter.
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose using area. We recommend to choose &amp;quot;Japan&amp;quot; to display proper timezone.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Chose &amp;quot;Microsoft IME&amp;quot; keyboard layout, and click &amp;quot;yes&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click &amp;quot;Skip&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Here, Windows recommend you to connect network. But we will connect the PC to network aftertime, not now. So, Choose &amp;quot;Skip for now&amp;quot; at left below.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click &amp;quot;No&amp;quot;.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click &amp;quot;Accept&amp;quot; to accept Windows 10 License Agreement.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Input user name to use the PC.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Input a super memorable password. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Confirm your password.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows recommend to create security questions for the account, to prepare for the situation that you may forget password.
+But this is not so good solution to keep your PC secure. We recommend you to input &lt;strong&gt;meeningless&lt;/strong&gt; answers here. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">It will take a long time to setup using your face to sign in, so Click &amp;quot;Skip for now&amp;quot; here.
+You can set to use your face to sign in later.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>When Windows asks &amp;quot;Make Cortana your personal assistant?&amp;quot;, click &amp;quot;Decline&amp;quot; for now. You can change the configuration later.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows asks you &amp;quot; Choose privacy settings for your device&amp;quot;. We recommend &amp;quot;Yes&amp;quot; to help improve our speech serveces, data to improve location services, and &amp;quot;No&amp;quot; to others.
+Of course, you can change the configuration later.
+Click &amp;quot;Accept&amp;quot; and wait a few minutes.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>When Windows asks &amp;quot;Do more aross devices with activity history&amp;quot;, click &amp;quot;No&amp;quot; for now. You can change the configuration later.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Teams will run automatically. Click x at left up in the window to close the application for now.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose your language to use in your PC. You may choose &amp;quot;English&amp;quot; or other language.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the microphone icon to make your PC keep silence.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">If you are in trouble when you use your PC, don&amp;apos;t hesitate to make a inquiry to IMC.
 &lt;dl&gt;&lt;dt&gt;At IMC: &lt;/dt&gt;
 &lt;dt&gt; &lt;/dt&gt;
 &lt;dd&gt;&amp;ast; Startup workshop (Apr.4-8, for detail, see below URL)&lt;/dd&gt;
 &lt;dd&gt;&lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;&lt;/dd&gt;
-&lt;dd&gt;&amp;ast; Special QA Support (Apr.4 12:30-17:00, Apr.5 9:00-17:00)&lt;/dd&gt;
+&lt;dd&gt;&amp;ast; Special QA Support (Apr.4 12:30-15:30, Apr.5 9:00-17:00)&lt;/dd&gt;
 &lt;dd&gt;IMC main building&lt;/dd&gt;
 &lt;dd&gt;&amp;ast; Support Desks (9:00-16:30 Weekday)&lt;/dd&gt;
 &lt;dd&gt;IMC main building, IMC east branch in East Library, IMC service desk in West Library and Central Library, IMC Kasumi branch&lt;/dd&gt;
@@ -1436,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1469,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1477,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1491,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1511,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -1526,10 +1523,10 @@
   <sheetData>
     <row r="1" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s" ph="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1537,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1553,15 +1550,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1575,27 +1572,27 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" t="s" ph="1">
         <v>7</v>
       </c>
-      <c r="C7" t="s" ph="1">
+      <c r="D7" t="s" ph="1">
         <v>8</v>
       </c>
-      <c r="D7" t="s" ph="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="C8" t="s" ph="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1603,21 +1600,21 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s" ph="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1625,13 +1622,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s" ph="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1639,107 +1636,107 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s" ph="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s" ph="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s" ph="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s" ph="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s" ph="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s" ph="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1747,41 +1744,41 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s" ph="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="91" ph="1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="65" ph="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="C22" t="s" ph="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s" ph="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1809,10 +1806,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1820,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1836,7 +1833,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -1844,7 +1841,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1858,13 +1855,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
@@ -1872,13 +1869,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -1886,13 +1883,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -1900,13 +1897,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1920,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1934,10 +1931,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1945,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1961,12 +1958,12 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1974,13 +1971,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -1988,13 +1985,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2002,13 +1999,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2016,13 +2013,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2030,13 +2027,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2044,13 +2041,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2058,21 +2055,21 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2086,13 +2083,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2119,10 +2116,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2130,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2146,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2154,7 +2151,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2165,7 +2162,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2173,13 +2170,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2187,13 +2184,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2201,13 +2198,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2215,13 +2212,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2229,18 +2226,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2248,13 +2245,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2262,13 +2259,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2276,13 +2273,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2290,13 +2287,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2304,13 +2301,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2318,13 +2315,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2338,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2352,10 +2349,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2363,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2379,7 +2376,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -2387,7 +2384,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2398,7 +2395,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="156" x14ac:dyDescent="0.2">
@@ -2406,18 +2403,18 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2425,37 +2422,37 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2463,13 +2460,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2477,18 +2474,18 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2496,21 +2493,21 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2518,13 +2515,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2532,13 +2529,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2546,13 +2543,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2560,13 +2557,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2574,13 +2571,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2608,10 +2605,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2619,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2635,7 +2632,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -2643,7 +2640,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2654,7 +2651,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2676,13 +2673,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2690,18 +2687,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2723,13 +2720,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2737,13 +2734,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2751,13 +2748,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2765,13 +2762,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2779,13 +2776,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2793,13 +2790,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2807,13 +2804,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2821,13 +2818,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2835,18 +2832,18 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2868,13 +2865,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2882,13 +2879,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2896,18 +2893,18 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2929,13 +2926,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2943,13 +2940,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2957,13 +2954,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2971,13 +2968,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2985,13 +2982,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -2999,13 +2996,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3013,13 +3010,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3027,13 +3024,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3041,13 +3038,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3055,13 +3052,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3069,18 +3066,18 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3088,7 +3085,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3102,13 +3099,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3116,13 +3113,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3130,21 +3127,21 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3152,13 +3149,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3172,7 +3169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3189,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3205,7 +3202,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3213,7 +3210,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3224,7 +3221,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="260" x14ac:dyDescent="0.2">
@@ -3243,7 +3240,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3251,7 +3248,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7955294-651A-4524-A301-0B3C9775FDC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B2D6CC-095E-48E5-B3AA-0D374E2D723F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36120" yWindow="915" windowWidth="17925" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28170" yWindow="270" windowWidth="17925" windowHeight="12450" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -937,11 +937,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Choose using area. We recommend to choose &amp;quot;Japan&amp;quot; to display proper timezone.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Chose &amp;quot;Microsoft IME&amp;quot; keyboard layout, and click &amp;quot;yes&amp;quot;.
   </t>
     <phoneticPr fontId="1"/>
@@ -979,12 +974,6 @@
   <si>
     <t xml:space="preserve">Windows recommend to create security questions for the account, to prepare for the situation that you may forget password.
 But this is not so good solution to keep your PC secure. We recommend you to input &lt;strong&gt;meeningless&lt;/strong&gt; answers here. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">It will take a long time to setup using your face to sign in, so Click &amp;quot;Skip for now&amp;quot; here.
-You can set to use your face to sign in later.
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1004,16 +993,6 @@
   </si>
   <si>
     <t>Microsoft Teams will run automatically. Click x at left up in the window to close the application for now.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose your language to use in your PC. You may choose &amp;quot;English&amp;quot; or other language.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Click the microphone icon to make your PC keep silence.
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1036,6 +1015,27 @@
 &lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;
 &lt;/dd&gt; &lt;/dl&gt;
  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose your language to use in your PC. You may choose &amp;quot;English&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the microphone icon at lef below to make your PC keep silence.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose using area. We recommend you to choose &amp;quot;Japan&amp;quot; to display proper timezone.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">It will take a long time to setup using your face to sign in, so click &amp;quot;Skip for now&amp;quot; here.
+You can set to use your face to sign in later.
+  </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1433,7 +1433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1508,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -1572,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>7</v>
@@ -1586,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>7</v>
@@ -1600,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>7</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="10" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D10" t="s" ph="1">
         <v>137</v>
@@ -1622,7 +1622,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>7</v>
@@ -1636,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>7</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D13" t="s" ph="1">
         <v>139</v>
@@ -1658,7 +1658,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>7</v>
@@ -1672,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>7</v>
@@ -1686,7 +1686,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>7</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D17" t="s" ph="1">
         <v>141</v>
@@ -1708,7 +1708,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>7</v>
@@ -1722,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>7</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="20" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D20" t="s" ph="1">
         <v>143</v>
@@ -1744,7 +1744,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>7</v>
@@ -1758,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>7</v>
@@ -1772,7 +1772,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>7</v>
@@ -3169,7 +3169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3229,7 +3229,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B2D6CC-095E-48E5-B3AA-0D374E2D723F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492BB874-0D20-4FD0-91C7-9457E58F37FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28170" yWindow="270" windowWidth="17925" windowHeight="12450" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29295" yWindow="2070" windowWidth="17925" windowHeight="12450" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="226">
   <si>
     <t>header1</t>
   </si>
@@ -232,13 +232,6 @@
     <t>win10-5-03.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">&amp;quot;Windows Update&amp;quot; window appears. Windows OS and Microsoft Defender will be updated automatically and periodically. 
-You will know update status of your system. &lt;span class="check"&gt;check-5&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-Now turn on Automatic Updates in Windows Update. Click &amp;quot;Advanced options&amp;quot;.
-  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Check the box for &amp;quot;Give me updates for other Microsoft products when I update Windows.&amp;quot; Click the arrow displayed on the upper left corner of the window to return to &amp;quot;Windows Update&amp;quot; window.
   </t>
   </si>
@@ -254,12 +247,6 @@
   </si>
   <si>
     <t>win10-5-07.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;quot;Threats&amp;quot; in Defender indicate computer viruses, spyware, or other malware. And &amp;quot;threat definition&amp;quot; is the file that contains the rule to distinguish those &amp;quot;threats&amp;quot; from other programs.
-The information on &amp;quot;threat definition&amp;quot; is displayed on the middle of the window.&lt;span class="check"&gt;check-6,7&lt;/span&gt;
-In order to update &amp;quot;threat definition&amp;quot;, click &amp;quot;Protection updates&amp;quot;.
-  </t>
   </si>
   <si>
     <t>win10-5-08.svg</t>
@@ -271,13 +258,6 @@
   </si>
   <si>
     <t>win10-5-09.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can see three advanced scans. Choose &amp;quot;Full scan&amp;quot; and click &amp;quot;Scan now&amp;quot; button to run a full scan.&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-But it will take a long time. Do not run a full scan during this workshop. But do it at the earliest opportunity after this workshop and fill out the checklist.
-Click X on the upper right corner of the window to close it.
-  </t>
   </si>
   <si>
     <t>Office365, MOMIJI, Bb9, and others…</t>
@@ -359,11 +339,6 @@
     <t>win10-6-06.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Web Mail page will be open. You may read HIRODAI Mails here. Since the university sends messages to your HIRODAI Mail, check the mail box frequently. &lt;span class="check"&gt;check-10&lt;/span&gt;
-You can use Outlook app to receive and send your HIRODAI Mails on your smartphone. We recommend it for daily use, as it is easy to use and it also have push notification function.
-&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
-  </si>
-  <si>
     <t>win10-6-07.svg</t>
   </si>
   <si>
@@ -390,10 +365,6 @@
   </si>
   <si>
     <t>win10-6-10.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here, you can register courses or view your grades. Notifications from your courses or school will be listed in &amp;quot;Message&amp;quot;.&lt;span class="check"&gt;check-11&lt;/span&gt;
-  </t>
   </si>
   <si>
     <t>win10-6-11.svg</t>
@@ -479,11 +450,6 @@
   </si>
   <si>
     <t>win10-6-21.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the easiest way to download the files on the Bb9 course page? Right-click the file name and choose &amp;quot;Save target as&amp;quot; in the displayed menu.
-Save the text files for chapter 1 and chapter 6. &lt;span class="check"&gt;check-12&lt;/span&gt;
-  </t>
   </si>
   <si>
     <t>win10-6-22.svg</t>
@@ -937,25 +903,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Chose &amp;quot;Microsoft IME&amp;quot; keyboard layout, and click &amp;quot;yes&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Click &amp;quot;Skip&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Here, Windows recommend you to connect network. But we will connect the PC to network aftertime, not now. So, Choose &amp;quot;Skip for now&amp;quot; at left below.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Click &amp;quot;No&amp;quot;.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Click &amp;quot;Accept&amp;quot; to accept Windows 10 License Agreement.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -969,22 +916,6 @@
   </si>
   <si>
     <t>Confirm your password.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows recommend to create security questions for the account, to prepare for the situation that you may forget password.
-But this is not so good solution to keep your PC secure. We recommend you to input &lt;strong&gt;meeningless&lt;/strong&gt; answers here. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>When Windows asks &amp;quot;Make Cortana your personal assistant?&amp;quot;, click &amp;quot;Decline&amp;quot; for now. You can change the configuration later.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows asks you &amp;quot; Choose privacy settings for your device&amp;quot;. We recommend &amp;quot;Yes&amp;quot; to help improve our speech serveces, data to improve location services, and &amp;quot;No&amp;quot; to others.
-Of course, you can change the configuration later.
-Click &amp;quot;Accept&amp;quot; and wait a few minutes.
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1019,22 +950,103 @@
   </si>
   <si>
     <t xml:space="preserve">Choose your language to use in your PC. You may choose &amp;quot;English&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Click the microphone icon at lef below to make your PC keep silence.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose using area. We recommend you to choose &amp;quot;Japan&amp;quot; to display proper timezone.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">It will take a long time to setup using your face to sign in, so click &amp;quot;Skip for now&amp;quot; here.
-You can set to use your face to sign in later.
+Click &amp;quot;Yes&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the microphone icon at lef below to keep your PC silence.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose using region. We recommend you to &lt;strong&gt;choose &amp;quot;Japan&amp;quot; to use proper timezone,&lt;/strong&gt; and Click &amp;quot;Yes&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you will use Microsoft Surface that has been bought in Hirohima Univ. Co-op, we recommend you to &lt;strong&gt;chose &amp;quot;Japanese&amp;quot; keyboard layout,&lt;/strong&gt; and click &amp;quot;yes&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click &amp;quot;Skip&amp;quot;, if you do not want to add a second leyboard layout.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Here, Windows recommend you to connect network. But we will connect the PC to network aftertime, not now. So, Choose &amp;quot;I don&amp;apos;t have internet&amp;quot; at left below.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click &amp;quot;Continue with limited setup&amp;quot; at left below.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows recommend you to connect network again after rebooting the PC.  Choose again &amp;quot;I don&amp;apos;t have internet&amp;quot; at left below.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Using your face to sign in is very useful, but it will take a long time to setup. So click &amp;quot;Skip for now&amp;quot; at left below.
+Later, you can set to use your face to sign in.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>When Windows asks &amp;quot;Get help from your digital assistant&amp;quot; or &amp;quot;Set Cortana to personal assistant&amp;quot;, click &amp;quot;Decline&amp;quot; for now. You can change the configuration later.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows asks you &amp;quot; Choose privacy settings for your device&amp;quot;. We recommend &amp;quot;Yes&amp;quot; to &amp;quot;help improve our speech serveces&amp;quot; and &amp;quot;data to improve location services&amp;quot;, and &amp;quot;No&amp;quot; to others.
+Of course, you can change the configuration later.
+Click &amp;quot;Accept&amp;quot; and wait a few minutes.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows recommend to create security questions for the account, to use when you forget the password.
+But this is not so good solution to keep your PC secure. We recommend you to input &lt;strong&gt;meeningless&lt;/strong&gt; answers here. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;quot;Windows Update&amp;quot; window appears. Windows OS and Microsoft Defender will be updated automatically and periodically. 
+You will know update status of your system. &lt;span class="check"&gt;check-4&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+Now turn on Automatic Updates in Windows Update. Click &amp;quot;Advanced options&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You can see three advanced scans. Choose &amp;quot;Full scan&amp;quot; and click &amp;quot;Scan now&amp;quot; button to run a full scan.&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+But it will take a long time. Do not run a full scan during this workshop. But do it at the earliest opportunity after this workshop and fill out the checklist.
+Click X on the upper right corner of the window to close it.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;quot;Threats&amp;quot; in Defender indicate computer viruses, spyware, or other malware. And &amp;quot;threat definition&amp;quot; is the file that contains the rule to distinguish those &amp;quot;threats&amp;quot; from other programs.
+The information on &amp;quot;threat definition&amp;quot; is displayed on the middle of the window.&lt;span class="check"&gt;check-5,6&lt;/span&gt;
+In order to update &amp;quot;threat definition&amp;quot;, click &amp;quot;Protection updates&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Mail page will be open. You may read HIRODAI Mails here. Since the university sends messages to your HIRODAI Mail, check the mail box frequently. &lt;span class="check"&gt;check-9&lt;/span&gt;
+You can use Outlook app to receive and send your HIRODAI Mails on your smartphone. We recommend it for daily use, as it is easy to use and it also have push notification function.
+&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Here, you can register courses or view your grades. Notifications from your courses or school will be listed in &amp;quot;Message&amp;quot;.&lt;span class="check"&gt;check-10&lt;/span&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the easiest way to download the files on the Bb9 course page? Right-click the file name and choose &amp;quot;Save target as&amp;quot; in the displayed menu.
+Save the text files for chapter 1 and chapter 6. &lt;span class="check"&gt;check-11&lt;/span&gt;
   </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1466,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1474,7 +1486,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1488,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1506,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="B17" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -1526,7 +1538,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1534,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1550,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1558,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1567,12 +1579,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>7</v>
@@ -1586,21 +1598,21 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>7</v>
@@ -1609,12 +1621,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1622,7 +1634,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>7</v>
@@ -1636,49 +1648,40 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s" ph="1">
-        <v>5</v>
-      </c>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s" ph="1">
-        <v>5</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" t="s" ph="1">
-        <v>7</v>
+        <v>214</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>11</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1686,60 +1689,66 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s" ph="1">
+        <v>5</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
+      </c>
+      <c r="C17" t="s" ph="1">
+        <v>7</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s" ph="1">
-        <v>5</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" t="s" ph="1">
+        <v>204</v>
+      </c>
+      <c r="D19" t="s" ph="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" t="s" ph="1">
         <v>7</v>
       </c>
-      <c r="D19" t="s" ph="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="D20" t="s" ph="1">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s" ph="1">
         <v>5</v>
       </c>
@@ -1750,35 +1759,57 @@
         <v>7</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="65" ph="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s" ph="1">
-        <v>5</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" t="s" ph="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C22" t="s" ph="1">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s" ph="1">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s" ph="1">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>146</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="65" ph="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" t="s" ph="1">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s" ph="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" t="s" ph="1">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s" ph="1">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1793,7 +1824,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1809,7 +1840,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1833,7 +1864,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -1869,7 +1900,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1897,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1917,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1958,12 +1989,12 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1971,7 +2002,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1985,7 +2016,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -2013,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2055,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2089,7 +2120,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2102,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2143,7 +2174,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2151,7 +2182,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2212,13 +2243,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2226,18 +2257,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2245,13 +2276,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2259,13 +2290,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2273,13 +2304,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2287,13 +2318,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2301,13 +2332,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2315,13 +2346,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2335,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2352,7 +2383,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2376,7 +2407,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -2384,7 +2415,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2403,13 +2434,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2422,37 +2453,37 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2460,13 +2491,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2485,7 +2516,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2493,21 +2524,21 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2515,13 +2546,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2529,13 +2560,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2543,13 +2574,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2557,13 +2588,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2571,13 +2602,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2591,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2608,7 +2639,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2616,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2632,7 +2663,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -2640,7 +2671,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2651,7 +2682,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2673,13 +2704,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2687,18 +2718,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2720,13 +2751,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2734,13 +2765,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2748,13 +2779,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2762,13 +2793,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2776,13 +2807,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2790,13 +2821,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2804,13 +2835,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2818,13 +2849,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2832,18 +2863,18 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2865,13 +2896,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2879,13 +2910,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2893,18 +2924,18 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2926,13 +2957,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2940,13 +2971,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2954,13 +2985,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2968,13 +2999,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2982,13 +3013,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -2996,13 +3027,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3010,13 +3041,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3024,13 +3055,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3038,13 +3069,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3052,13 +3083,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3066,18 +3097,18 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3085,7 +3116,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3099,13 +3130,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3113,13 +3144,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3127,21 +3158,21 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3149,13 +3180,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3169,7 +3200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3186,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3202,7 +3233,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3210,7 +3241,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3221,7 +3252,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="260" x14ac:dyDescent="0.2">
@@ -3229,7 +3260,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3240,7 +3271,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3248,7 +3279,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492BB874-0D20-4FD0-91C7-9457E58F37FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BB9ABB-5137-469A-B21A-9AB54870750D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29295" yWindow="2070" windowWidth="17925" windowHeight="12450" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38895" yWindow="3000" windowWidth="17925" windowHeight="12450" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -590,10 +590,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-0-13a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2020 Win10en chap.4</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -638,9 +634,6 @@
 . It&amp;apos;s Japanese only. Please check Google translation menu at the bottom of right column.
   </t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-0-13a.jpg</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2020 Win10en conclusion</t>
@@ -1048,6 +1041,14 @@
     <t xml:space="preserve">What is the easiest way to download the files on the Bb9 course page? Right-click the file name and choose &amp;quot;Save target as&amp;quot; in the displayed menu.
 Save the text files for chapter 1 and chapter 6. &lt;span class="check"&gt;check-11&lt;/span&gt;
   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-0-13e.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-0-13e.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1500,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1520,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A15" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -1538,7 +1539,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1546,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1570,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1584,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>7</v>
@@ -1598,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>7</v>
@@ -1612,7 +1613,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>7</v>
@@ -1623,7 +1624,7 @@
     </row>
     <row r="10" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s" ph="1">
         <v>131</v>
@@ -1634,7 +1635,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>7</v>
@@ -1648,7 +1649,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>7</v>
@@ -1659,7 +1660,7 @@
     </row>
     <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D13" t="s" ph="1">
         <v>133</v>
@@ -1667,7 +1668,7 @@
     </row>
     <row r="14" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>7</v>
@@ -1678,7 +1679,7 @@
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D15" t="s" ph="1">
         <v>133</v>
@@ -1689,7 +1690,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>7</v>
@@ -1703,7 +1704,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>7</v>
@@ -1717,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>7</v>
@@ -1728,7 +1729,7 @@
     </row>
     <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D19" t="s" ph="1">
         <v>135</v>
@@ -1739,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>7</v>
@@ -1753,7 +1754,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>7</v>
@@ -1764,7 +1765,7 @@
     </row>
     <row r="22" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D22" t="s" ph="1">
         <v>137</v>
@@ -1775,7 +1776,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>7</v>
@@ -1789,7 +1790,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>7</v>
@@ -1803,13 +1804,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>140</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1841,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1864,7 +1865,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -1994,7 +1995,7 @@
     </row>
     <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2002,7 +2003,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2016,7 +2017,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -2044,7 +2045,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2120,7 +2121,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2175,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2182,7 +2183,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2243,13 +2244,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2276,13 +2277,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2304,7 +2305,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2332,13 +2333,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2346,13 +2347,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2383,7 +2384,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2407,7 +2408,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -2415,7 +2416,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2434,13 +2435,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2453,37 +2454,37 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2491,13 +2492,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2516,7 +2517,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2524,21 +2525,21 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2546,13 +2547,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2560,13 +2561,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2574,13 +2575,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2588,13 +2589,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2602,13 +2603,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2622,8 +2623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2663,7 +2664,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -2779,13 +2780,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2793,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2835,7 +2836,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2910,7 +2911,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3027,7 +3028,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3097,7 +3098,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3130,13 +3131,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3169,10 +3170,10 @@
     </row>
     <row r="45" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>150</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3233,7 +3234,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3260,7 +3261,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3279,7 +3280,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BB9ABB-5137-469A-B21A-9AB54870750D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711BE221-BB7E-49BD-B4AC-963B2691BFB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38895" yWindow="3000" windowWidth="17925" windowHeight="12450" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42495" yWindow="405" windowWidth="13425" windowHeight="10575" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="223">
   <si>
     <t>header1</t>
   </si>
@@ -420,41 +420,6 @@
     <t>win10-6-17.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">In order to check if you can access your learning materials on Bb9, let&amp;apos;s use &amp;quot;Introduction to University Education&amp;quot; course.
-If you are transfer, you don&amp;apos;t have that course. So, use &amp;quot;Information Security and Education&amp;quot; course instead it.
-When you take &amp;quot;Introduction to University Education&amp;quot;, as the mention above, you are expected to download the course text PDFs from Bb9 course beforehand. Here, you will learn how to download course materials from Bb9.
-Click &amp;quot;Introduction to University Education&amp;quot; in the &amp;quot;Course List&amp;quot;.
-  </t>
-  </si>
-  <si>
-    <t>win10-6-18.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click &amp;quot;Course Materials&amp;quot; in the menu on the left side of the page. Then the course contents of this course will be displayed in the right. There are many folders and each folder attributes to each class. Click &amp;quot;Chapter 1&amp;quot; to open it.
-  </t>
-  </si>
-  <si>
-    <t>win10-6-19.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are three PDFs in the folder. Click &amp;quot;[Chapter 1] What you learn at Hiroshima University? (School/Program)&amp;quot; to see the content.
-  </t>
-  </si>
-  <si>
-    <t>win10-6-20.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Look at the picture in the right, you can read what PDF contains. However, sometimes you cannot. It depends on the software which you use to read PDFs.
-Your visited page history in this course is displayed above the course contents. When you have finished, click &amp;quot;Chapter 1&amp;quot; in your visited page history to return to that page.
-  </t>
-  </si>
-  <si>
-    <t>win10-6-21.svg</t>
-  </si>
-  <si>
-    <t>win10-6-22.svg</t>
-  </si>
-  <si>
     <t>&lt;h2&gt;&lt;a name="omake"&gt;&lt;/a&gt;Others&lt;/h2&gt;</t>
   </si>
   <si>
@@ -671,19 +636,6 @@
   <si>
     <t>In recent versions of Windows 10, Microsoft Teams run automatically when you sign in your PC. Teams is a comminication tool provided by Microsoft. You can use Teams with your HIRODAI mailaddress and password. Or, you can dismiss Teams from your PC setting (Settings -&gt; Apps -&gt; Startup)
 You can find more information on &lt;a href="https://www.media.hiroshima-u.ac.jp/services/communication/teams/"&gt;&amp;quot;Microsoft Teams&amp;quot;&lt;/a&gt;.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">This is &amp;quot;myBlackboard&amp;quot; page. There is &amp;quot;Course List&amp;quot; in the middle of the page. Courses, which you can access, are listed there. Some courses in the list are related to the courses you registered. But others are not.
-Several courses should be introduced here.
-&lt;dl&gt;&lt;dt&gt;Introduction to University Education&lt;/dt&gt;
-&lt;dd&gt;This course is required. In this course, you will learn what you need to know to study in Hiroshima University. And you are expected to download course text PDFs and answer a test on a weekly basis.&lt;/dd&gt;
-&lt;dt&gt;The survey of laptop computer ownership 2020&lt;/dt&gt;
-&lt;dd&gt;You need to submit a checklist which declares that your PC is capable of your study life in Hiroshima University. You can submit the checklist in this course. Access to this course after finishing this lecture.&lt;/dd&gt;
-&lt;dt&gt;Information Security &amp;amp; Compliance 2020&lt;/dt&gt;
-&lt;dd&gt;In this course, you will learn how to use computer or network safely in Hiroshima University. All members in the university should take this course. You need to take a lecture in a classroom and learn more in this Bb9 course. If you cannot pass &amp;quot;Verification Test2020&amp;quot; and finish &amp;quot;account confirmation&amp;quot; by the end of June, your &amp;quot;IMC account&amp;quot; will be locked and you will not be able to read emails sent to your &amp;quot;HIRODAI mail address&amp;quot;. &lt;/dd&gt;
- &lt;/dl&gt;
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1038,17 +990,57 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">What is the easiest way to download the files on the Bb9 course page? Right-click the file name and choose &amp;quot;Save target as&amp;quot; in the displayed menu.
-Save the text files for chapter 1 and chapter 6. &lt;span class="check"&gt;check-11&lt;/span&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-0-13e.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>win10-0-13e.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This is &amp;quot;myBlackboard&amp;quot; page. There is &amp;quot;Course List&amp;quot; in the middle of the page. Courses, which you can access, are listed there. Some courses in the list are related to the courses you registered. But others are not.
+Several courses should be introduced here.
+&lt;dl&gt;
+&lt;dt&gt;Laptop checklist 2020&lt;/dt&gt;
+&lt;dd&gt;You need to submit a checklist which declares that your PC is capable of your study life in Hiroshima University. You can submit the checklist in this course. Access to this course after finishing this lecture.&lt;/dd&gt;&lt;dt&gt;Introduction to University Education&lt;/dt&gt;
+&lt;dd&gt;This course is required. In this course, you will learn what you need to know to study in Hiroshima University. And you are expected to download course text PDFs and answer a test on a weekly basis.&lt;/dd&gt;
+&lt;p class="spl"&gt;* Because of COVID-19, this course will be performed not as usual. Please check your &amp;quot;My MOMIJI&amp;quot;.&lt;/p&gt;
+ &lt;/dl&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You are expected to download the course text PDFs from Bb9 course beforehand. Here, you will learn how to download course materials from Bb9.
+Click &amp;quot;Laptop checklist 2020&amp;quot; in the &amp;quot;Course List&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Then the course contents of this course will be displayed in the right. Now click the second content &amp;quot;Checklist worksheet&amp;quot; and open it.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Look at the picture in the right, you can read what PDF contains. However, sometimes you cannot. It depends on the software which you use to read PDFs.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the easiest way to download the files on the Bb9 course page? Right-click the contents  and choose &amp;quot;Save as&amp;quot; in the displayed menu.
+&lt;span class="check"&gt;check-11&lt;/span&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-32.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-31.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;If you have finished to set/check your PC with Chapter 1 to &lt;it&gt;here&lt;/it&gt; of this startup instruction, let&amp;apos;s open the Bb9 course &amp;quot;Laptop checklist 2020&amp;quot;, and submit the checklist!&lt;/strong&gt; </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1479,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1487,7 +1479,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1501,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1539,7 +1531,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1547,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1563,7 +1555,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1571,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1585,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>7</v>
@@ -1599,13 +1591,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1613,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>7</v>
@@ -1624,10 +1616,10 @@
     </row>
     <row r="10" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1635,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>7</v>
@@ -1649,40 +1641,40 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1690,13 +1682,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1704,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>7</v>
@@ -1718,7 +1710,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>7</v>
@@ -1729,10 +1721,10 @@
     </row>
     <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1740,13 +1732,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
@@ -1754,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>7</v>
@@ -1765,10 +1757,10 @@
     </row>
     <row r="22" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1776,13 +1768,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="65" ph="1" x14ac:dyDescent="0.2">
@@ -1790,13 +1782,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1804,13 +1796,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1841,7 +1833,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1865,7 +1857,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -1901,7 +1893,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1929,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1990,12 +1982,12 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2003,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2017,7 +2009,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -2045,7 +2037,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2087,7 +2079,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2121,7 +2113,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2175,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2183,7 +2175,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2244,13 +2236,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2277,13 +2269,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2305,7 +2297,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2333,13 +2325,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2347,13 +2339,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2360,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2384,7 +2376,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2408,7 +2400,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -2416,7 +2408,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2435,13 +2427,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2454,37 +2446,37 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D13" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2492,13 +2484,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2517,7 +2509,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2525,21 +2517,21 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2547,13 +2539,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2561,13 +2553,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2575,13 +2567,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2589,13 +2581,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2603,13 +2595,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2623,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2664,7 +2656,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -2780,13 +2772,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2794,7 +2786,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2836,7 +2828,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2911,7 +2903,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3023,12 +3015,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="234" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="195" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3037,32 +3029,26 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>216</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
-      <c r="D35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3070,13 +3056,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3084,32 +3070,23 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3117,7 +3094,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3131,13 +3108,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3145,13 +3122,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3159,21 +3136,21 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3181,13 +3158,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3218,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3234,7 +3211,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3242,7 +3219,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3253,7 +3230,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="260" x14ac:dyDescent="0.2">
@@ -3261,7 +3238,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3272,7 +3249,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3280,7 +3257,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711BE221-BB7E-49BD-B4AC-963B2691BFB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6982CEB4-9848-470E-BE98-B31D6699C487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42495" yWindow="405" windowWidth="13425" windowHeight="10575" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36495" yWindow="645" windowWidth="13425" windowHeight="10575" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -1036,11 +1036,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-6-31.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;strong&gt;If you have finished to set/check your PC with Chapter 1 to &lt;it&gt;here&lt;/it&gt; of this startup instruction, let&amp;apos;s open the Bb9 course &amp;quot;Laptop checklist 2020&amp;quot;, and submit the checklist!&lt;/strong&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-31.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2615,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3062,7 +3062,7 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3081,7 +3081,7 @@
     </row>
     <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6982CEB4-9848-470E-BE98-B31D6699C487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154123C4-46C0-4786-8177-70E89F75FD20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36495" yWindow="645" windowWidth="13425" windowHeight="10575" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36495" yWindow="645" windowWidth="13425" windowHeight="10575" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t/>
   </si>
   <si>
-    <t>fresta</t>
-  </si>
-  <si>
     <t>chartn</t>
   </si>
   <si>
@@ -1041,6 +1038,10 @@
   </si>
   <si>
     <t>win10-6-31.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fresta_en</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1439,7 +1440,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1471,7 +1472,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1479,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1493,7 +1494,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1513,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="106" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="B1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -1528,10 +1529,10 @@
   <sheetData>
     <row r="1" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s" ph="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1539,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1547,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1555,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1563,7 +1564,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1577,13 +1578,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s" ph="1">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s" ph="1">
         <v>7</v>
-      </c>
-      <c r="D7" t="s" ph="1">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1591,13 +1592,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1605,21 +1606,21 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1627,13 +1628,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1641,40 +1642,40 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1682,13 +1683,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1696,13 +1697,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1710,21 +1711,21 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1732,13 +1733,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C20" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
@@ -1746,21 +1747,21 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1768,13 +1769,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="65" ph="1" x14ac:dyDescent="0.2">
@@ -1782,13 +1783,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C24" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1796,13 +1797,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C25" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1816,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1830,10 +1831,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1841,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1849,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1857,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -1865,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1879,13 +1880,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
@@ -1893,13 +1894,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -1907,13 +1908,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -1921,13 +1922,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1941,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1955,10 +1956,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1966,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1974,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1982,12 +1983,12 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1995,13 +1996,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2009,13 +2010,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2023,13 +2024,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2037,13 +2038,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2051,13 +2052,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2065,13 +2066,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2079,21 +2080,21 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2107,13 +2108,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2126,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2140,10 +2141,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2151,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2159,7 +2160,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2167,7 +2168,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2175,7 +2176,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2186,7 +2187,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2194,13 +2195,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2208,13 +2209,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2222,13 +2223,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2236,13 +2237,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2250,18 +2251,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2269,13 +2270,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2283,13 +2284,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2297,13 +2298,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2311,13 +2312,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2325,13 +2326,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2339,13 +2340,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2359,8 +2360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2373,10 +2374,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2384,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2392,7 +2393,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2400,7 +2401,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -2408,7 +2409,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2419,7 +2420,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="156" x14ac:dyDescent="0.2">
@@ -2427,18 +2428,18 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2446,37 +2447,37 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2484,13 +2485,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2498,18 +2499,18 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2517,21 +2518,21 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2539,13 +2540,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2553,13 +2554,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2567,13 +2568,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2581,13 +2582,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2595,13 +2596,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2615,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2629,10 +2630,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2640,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2648,7 +2649,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2656,7 +2657,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -2664,7 +2665,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2675,7 +2676,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2697,13 +2698,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2711,18 +2712,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2744,13 +2745,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2758,13 +2759,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2772,13 +2773,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2786,13 +2787,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2800,13 +2801,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>74</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2814,13 +2815,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
         <v>76</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2828,13 +2829,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2842,13 +2843,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>80</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2856,18 +2857,18 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2889,13 +2890,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>85</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2903,13 +2904,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2917,18 +2918,18 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>88</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2950,13 +2951,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>91</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2964,13 +2965,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>93</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2978,13 +2979,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>95</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2992,13 +2993,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>97</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3006,13 +3007,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>99</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="195" x14ac:dyDescent="0.2">
@@ -3020,13 +3021,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3034,7 +3035,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3045,7 +3046,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3056,13 +3057,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3070,23 +3071,23 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>219</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3094,7 +3095,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3108,13 +3109,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3122,13 +3123,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
         <v>104</v>
-      </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3136,21 +3137,21 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
         <v>106</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3158,13 +3159,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
         <v>108</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3178,8 +3179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3195,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3203,7 +3204,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3211,7 +3212,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3219,7 +3220,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3230,7 +3231,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="260" x14ac:dyDescent="0.2">
@@ -3238,7 +3239,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3249,7 +3250,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3257,7 +3258,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/名称未設定/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154123C4-46C0-4786-8177-70E89F75FD20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB89706-0FD0-854F-8A3F-1A4CFAFCF122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36495" yWindow="645" windowWidth="13425" windowHeight="10575" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34800" yWindow="780" windowWidth="22580" windowHeight="27680" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -22,22 +22,12 @@
     <sheet name="ch5" sheetId="7" r:id="rId7"/>
     <sheet name="ch6" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="225">
   <si>
     <t>header1</t>
   </si>
@@ -55,6 +45,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>fresta</t>
   </si>
   <si>
     <t>chartn</t>
@@ -339,10 +332,6 @@
     <t>win10-6-07.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Let us move to OneDrive, online storage service in Office365. Click the upper left corner of the window, and the list of applications in Office365 will be shown. Click &amp;quot;OneDrive&amp;quot; in the list.
-  </t>
-  </si>
-  <si>
     <t>win10-6-08.svg</t>
   </si>
   <si>
@@ -840,28 +829,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Here is how to make initial setting of your PC, when you are going to turn on your PC for the first time. If you have finished your PC&amp;apos;s initial setting, go next chapter.
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Click &amp;quot;Accept&amp;quot; to accept Windows 10 License Agreement.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Input user name to use the PC.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Input a super memorable password. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Confirm your password.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>When Windows asks &amp;quot;Do more aross devices with activity history&amp;quot;, click &amp;quot;No&amp;quot; for now. You can change the configuration later.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -897,42 +865,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Click the microphone icon at lef below to keep your PC silence.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose using region. We recommend you to &lt;strong&gt;choose &amp;quot;Japan&amp;quot; to use proper timezone,&lt;/strong&gt; and Click &amp;quot;Yes&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">If you will use Microsoft Surface that has been bought in Hirohima Univ. Co-op, we recommend you to &lt;strong&gt;chose &amp;quot;Japanese&amp;quot; keyboard layout,&lt;/strong&gt; and click &amp;quot;yes&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Click &amp;quot;Skip&amp;quot;, if you do not want to add a second leyboard layout.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Here, Windows recommend you to connect network. But we will connect the PC to network aftertime, not now. So, Choose &amp;quot;I don&amp;apos;t have internet&amp;quot; at left below.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Click &amp;quot;Continue with limited setup&amp;quot; at left below.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows recommend you to connect network again after rebooting the PC.  Choose again &amp;quot;I don&amp;apos;t have internet&amp;quot; at left below.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Using your face to sign in is very useful, but it will take a long time to setup. So click &amp;quot;Skip for now&amp;quot; at left below.
-Later, you can set to use your face to sign in.
   </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -948,11 +881,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Windows recommend to create security questions for the account, to use when you forget the password.
-But this is not so good solution to keep your PC secure. We recommend you to input &lt;strong&gt;meeningless&lt;/strong&gt; answers here. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">&amp;quot;Windows Update&amp;quot; window appears. Windows OS and Microsoft Defender will be updated automatically and periodically. 
 You will know update status of your system. &lt;span class="check"&gt;check-4&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
@@ -973,12 +901,6 @@
 The information on &amp;quot;threat definition&amp;quot; is displayed on the middle of the window.&lt;span class="check"&gt;check-5,6&lt;/span&gt;
 In order to update &amp;quot;threat definition&amp;quot;, click &amp;quot;Protection updates&amp;quot;.
   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Mail page will be open. You may read HIRODAI Mails here. Since the university sends messages to your HIRODAI Mail, check the mail box frequently. &lt;span class="check"&gt;check-9&lt;/span&gt;
-You can use Outlook app to receive and send your HIRODAI Mails on your smartphone. We recommend it for daily use, as it is easy to use and it also have push notification function.
-&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1041,7 +963,88 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fresta_en</t>
+    <t xml:space="preserve">Click the microphone icon on the bottom left corner of the screen to mute your PC.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Choose &amp;quot;Japan&amp;quot; to set the time zone,&lt;/strong&gt; and Click &amp;quot;Yes&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click &amp;quot;Skip&amp;quot;, if you do not want to add a second keyboard layout.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Here, you are asked to connect your PC to network. But you do not need to do it now. So, Choose &amp;quot;I don&amp;apos;t have internet&amp;quot; in the bottom left corner of the screen.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click &amp;quot;Continue with limited setup&amp;quot; in the bottom left corner of the screen.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You are asked to connect your PC to network again after rebooting your PC.  Choose &amp;quot;I don&amp;apos;t have internet&amp;quot; again.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click &amp;quot;Continue with limited setup&amp;quot; in the bottom left corner of the screen.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Input user name to use your PC.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Create your password. The good password is easy for you to remember but  difficult for others to guess.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Type your password again.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recogniti</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You are asked to create three security questions for your account. You will see them when you forget your password but need to sign in to your PC.
+But this feature is not always the best way to prevent unauthorized access to your PC. We recommend you to create questions and &lt;strong&gt;meeningless&lt;/strong&gt; answers for them. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Face recognition is very useful, but it will take you a long time to set up this function. So click &amp;quot;Skip for now&amp;quot;.
+You can set up to use face recognition later.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>When you see &amp;quot;Do more across devices with activity history&amp;quot;, click &amp;quot;No&amp;quot; for now. You can change the configuration later.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像が違いますよ。</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Mail page will be opened. You may read HIRODAI Mails here. Since the university sends messages to your HIRODAI Mail, check the mail box frequently. &lt;span class="check"&gt;check-9&lt;/span&gt;
+You can use Outlook app to receive and send your HIRODAI Mails on your smartphone. We recommend it for daily use, as it is easy to use and it also have push notification function.
+&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Let us move to OneDrive, online storage service in Office365. Click the icon in the upper left corner of the window, and the list of applications in Office365 will be shown. Click &amp;quot;OneDrive&amp;quot; in the list.
+  </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1049,7 +1052,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1440,18 +1443,18 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="60">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1514,28 +1517,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A8" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1" phonetic="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1" phonetic="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1" phonetic="1"/>
-    <col min="5" max="16384" width="8.81640625" phonetic="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" phonetic="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1" phonetic="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1" phonetic="1"/>
+    <col min="5" max="16384" width="8.83203125" phonetic="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ph="1">
       <c r="A1" t="s" ph="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ph="1">
       <c r="A2" t="s" ph="1">
         <v>0</v>
       </c>
@@ -1543,15 +1546,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ph="1">
       <c r="A3" t="s" ph="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ph="1">
       <c r="A4" t="s" ph="1">
         <v>4</v>
       </c>
@@ -1559,12 +1562,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ph="1">
       <c r="A6" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1573,237 +1576,237 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="45" ph="1">
       <c r="A7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s" ph="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s" ph="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" ph="1">
+      <c r="A8" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" t="s" ph="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s" ph="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" t="s" ph="1">
-        <v>6</v>
       </c>
       <c r="D8" t="s" ph="1">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="30" ph="1">
       <c r="A9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s" ph="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" ph="1">
       <c r="B10" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s" ph="1">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="30" ph="1">
       <c r="A11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C11" t="s" ph="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" ph="1">
       <c r="A12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s" ph="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s" ph="1">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ph="1">
       <c r="B13" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D13" t="s" ph="1">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="45" ph="1">
       <c r="B14" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s" ph="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s" ph="1">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="30" ph="1">
       <c r="B15" s="1" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D15" t="s" ph="1">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ph="1">
       <c r="A16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s" ph="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s" ph="1">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ph="1">
       <c r="A17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="C17" t="s" ph="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ph="1">
       <c r="A18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s" ph="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ph="1">
       <c r="B19" s="1" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s" ph="1">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="60" ph="1">
       <c r="A20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C20" t="s" ph="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s" ph="1">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="30" ph="1">
       <c r="A21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s" ph="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" ph="1">
       <c r="B22" s="1" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="D22" t="s" ph="1">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="30" ph="1">
       <c r="A23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s" ph="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s" ph="1">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="65" ph="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="75" ph="1">
       <c r="A24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C24" t="s" ph="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s" ph="1">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ph="1">
       <c r="A25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s" ph="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1817,43 +1820,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1861,12 +1864,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="120">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1875,21 +1878,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="90">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="195">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1897,27 +1900,27 @@
         <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="150">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1943,42 +1946,42 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1986,12 +1989,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="30">
       <c r="B6" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="60">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2002,10 +2005,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="150">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2013,27 +2016,27 @@
         <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="105">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2044,38 +2047,38 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="90">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="90">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2086,15 +2089,15 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="75">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2103,15 +2106,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="182" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="210">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
         <v>148</v>
@@ -2127,43 +2130,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="30">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2171,7 +2174,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="120">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2185,59 +2188,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15">
       <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="90">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2246,26 +2249,26 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="45">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
       <c r="B13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2279,49 +2282,49 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="30">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="105">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="75">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="90">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2335,12 +2338,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="120">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2360,43 +2363,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="135">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2418,12 +2421,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15">
       <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="156" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="165">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2431,18 +2434,18 @@
         <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15">
       <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="30">
       <c r="B11" s="1" t="s">
         <v>165</v>
       </c>
@@ -2464,7 +2467,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15">
       <c r="B12" s="1" t="s">
         <v>168</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15">
       <c r="B13" s="1" t="s">
         <v>169</v>
       </c>
@@ -2480,7 +2483,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2494,26 +2497,26 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="75">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2527,7 +2530,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="60">
       <c r="B18" s="1" t="s">
         <v>179</v>
       </c>
@@ -2535,7 +2538,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2563,7 +2566,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="45">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2591,7 +2594,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="60">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -2614,45 +2617,45 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2660,12 +2663,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="225">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2674,12 +2677,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15">
       <c r="B7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2693,40 +2696,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="60">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
       <c r="B11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2740,35 +2743,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2781,8 +2784,11 @@
       <c r="D15" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2793,57 +2799,57 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="90">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2852,7 +2858,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="60">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2866,12 +2872,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15">
       <c r="B22" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -2885,7 +2891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="45">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2899,12 +2905,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="60">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2913,7 +2919,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="30">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2927,12 +2933,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15">
       <c r="B27" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2946,7 +2952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="60">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2960,7 +2966,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="30">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2974,7 +2980,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="60">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2988,7 +2994,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="30">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -3002,7 +3008,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="30">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -3016,12 +3022,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="195" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="210">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3030,67 +3036,67 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="60">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="45">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="45">
       <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="75">
       <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30">
       <c r="B39" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
       <c r="B40" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="30">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -3104,7 +3110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="120">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -3112,13 +3118,13 @@
         <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="45">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -3126,13 +3132,13 @@
         <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="135">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -3140,21 +3146,21 @@
         <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="75">
       <c r="B45" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="105">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -3162,7 +3168,7 @@
         <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
         <v>108</v>
@@ -3179,19 +3185,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3199,15 +3205,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3215,7 +3221,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3229,17 +3235,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15">
       <c r="B6" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="260" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="300">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3248,12 +3254,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15">
       <c r="B8" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="90">
       <c r="A9" t="s">
         <v>5</v>
       </c>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/名称未設定/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB89706-0FD0-854F-8A3F-1A4CFAFCF122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417A6B7C-BB81-493E-A469-0591DAD13FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34800" yWindow="780" windowWidth="22580" windowHeight="27680" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41295" yWindow="885" windowWidth="13425" windowHeight="10575" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="226">
   <si>
     <t>header1</t>
   </si>
@@ -565,10 +565,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-6-28.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Input your &amp;quot;HIRODAI mail&amp;quot; in the box and click &amp;quot;Next&amp;quot;, 
   </t>
     <phoneticPr fontId="1"/>
@@ -795,12 +791,6 @@
  &lt;/li&gt;
 &lt;/ul&gt;
  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">You are going to prepare your PC for your study life at Hiroshima University during this lecture. Here is the list of what you are going to do at this workshop.
-&lt;ol&gt; &lt;/ol&gt;
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1027,16 +1017,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画像が違いますよ。</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>チガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Web Mail page will be opened. You may read HIRODAI Mails here. Since the university sends messages to your HIRODAI Mail, check the mail box frequently. &lt;span class="check"&gt;check-9&lt;/span&gt;
 You can use Outlook app to receive and send your HIRODAI Mails on your smartphone. We recommend it for daily use, as it is easy to use and it also have push notification function.
 &lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
@@ -1045,6 +1025,24 @@
   <si>
     <t xml:space="preserve">Let us move to OneDrive, online storage service in Office365. Click the icon in the upper left corner of the window, and the list of applications in Office365 will be shown. Click &amp;quot;OneDrive&amp;quot; in the list.
   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-36.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-34.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You are going to prepare your PC for your study life at Hiroshima University during this lecture. Here is the list of what you are going to do at this workshop.
+&lt;ol&gt; &lt;/ol&gt;
+* Some screenshots in this text are displayed in Japanese. Sorry for inconvenience. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-41.svg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1052,7 +1050,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1443,18 +1441,18 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1462,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1470,7 +1468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1478,7 +1476,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75">
+    <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1492,12 +1490,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60">
+    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1521,32 +1519,32 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1" phonetic="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1" phonetic="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1" phonetic="1"/>
-    <col min="5" max="16384" width="8.83203125" phonetic="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1" phonetic="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1" phonetic="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1" phonetic="1"/>
+    <col min="5" max="16384" width="8.81640625" phonetic="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ph="1">
+    <row r="1" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s" ph="1">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ph="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s" ph="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ph="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s" ph="1">
         <v>2</v>
       </c>
@@ -1554,7 +1552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ph="1">
+    <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s" ph="1">
         <v>4</v>
       </c>
@@ -1562,12 +1560,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ph="1">
+    <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1576,12 +1574,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" ph="1">
+    <row r="7" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>7</v>
@@ -1590,12 +1588,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" ph="1">
+    <row r="8" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>7</v>
@@ -1604,12 +1602,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" ph="1">
+    <row r="9" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>7</v>
@@ -1618,20 +1616,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" ph="1">
+    <row r="10" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s" ph="1">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" ph="1">
+    <row r="11" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>7</v>
@@ -1640,12 +1638,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" ph="1">
+    <row r="12" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>7</v>
@@ -1654,17 +1652,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ph="1">
+    <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D13" t="s" ph="1">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" ph="1">
+    <row r="14" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>7</v>
@@ -1673,20 +1671,20 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" ph="1">
+    <row r="15" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D15" t="s" ph="1">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ph="1">
+    <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>7</v>
@@ -1695,12 +1693,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ph="1">
+    <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>7</v>
@@ -1709,12 +1707,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ph="1">
+    <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>7</v>
@@ -1723,20 +1721,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ph="1">
+    <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D19" t="s" ph="1">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" ph="1">
+    <row r="20" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>7</v>
@@ -1745,12 +1743,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" ph="1">
+    <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>7</v>
@@ -1759,20 +1757,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" ph="1">
+    <row r="22" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D22" t="s" ph="1">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" ph="1">
+    <row r="23" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>7</v>
@@ -1781,12 +1779,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="75" ph="1">
+    <row r="24" spans="1:4" ht="65" ph="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>7</v>
@@ -1795,18 +1793,18 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ph="1">
+    <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1824,23 +1822,23 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1848,7 +1846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1856,15 +1854,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="120">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1878,7 +1876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="90">
+    <row r="7" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1892,7 +1890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="195">
+    <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +1904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75">
+    <row r="9" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1920,7 +1918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="150">
+    <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1945,19 +1943,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1965,7 +1963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +1971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1981,7 +1979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1989,17 +1987,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2008,12 +2006,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="150">
+    <row r="8" spans="1:4" ht="143" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -2022,7 +2020,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75">
+    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2036,12 +2034,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="105">
+    <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2050,7 +2048,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60">
+    <row r="11" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2064,7 +2062,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="90">
+    <row r="12" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2078,7 +2076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="90">
+    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2092,7 +2090,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="75">
+    <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2106,7 +2104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="210">
+    <row r="15" spans="1:4" ht="182" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2117,7 +2115,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2134,15 +2132,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2150,7 +2148,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2158,7 +2156,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2166,20 +2164,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="120">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2188,12 +2186,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
+    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2207,7 +2205,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30">
+    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2221,7 +2219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30">
+    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2235,21 +2233,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="90">
+    <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2263,12 +2261,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60">
+    <row r="14" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2279,10 +2277,10 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2296,12 +2294,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="105">
+    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2310,7 +2308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="75">
+    <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2324,7 +2322,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="90">
+    <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2335,21 +2333,21 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="120">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2367,23 +2365,23 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2391,7 +2389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2399,7 +2397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2407,12 +2405,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="135">
+    <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2421,83 +2419,83 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="165">
+    <row r="8" spans="1:4" ht="156" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60">
+    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" t="s">
         <v>160</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30">
-      <c r="B11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="B13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="75">
+    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2511,81 +2509,81 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60">
-      <c r="B18" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="30">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="45">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2594,18 +2592,18 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60">
+    <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2617,21 +2615,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2639,7 +2637,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2647,7 +2645,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2655,7 +2653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2663,7 +2661,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="225">
+    <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2677,12 +2675,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2696,7 +2694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="60">
+    <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2710,7 +2708,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60">
+    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2724,12 +2722,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2743,7 +2741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30">
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2757,7 +2755,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30">
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2771,29 +2769,26 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30">
+    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2802,7 +2797,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30">
+    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2816,7 +2811,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30">
+    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2830,12 +2825,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="90">
+    <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2844,12 +2839,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45">
+    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2858,7 +2853,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60">
+    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2872,12 +2867,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -2891,7 +2886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45">
+    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2905,12 +2900,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="60">
+    <row r="25" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2919,7 +2914,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30">
+    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2933,12 +2928,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2952,7 +2947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="60">
+    <row r="29" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2966,7 +2961,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30">
+    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2980,7 +2975,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60">
+    <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2994,7 +2989,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30">
+    <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -3008,7 +3003,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30">
+    <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -3022,12 +3017,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="210">
+    <row r="34" spans="1:4" ht="195" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3036,67 +3031,73 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="60">
+    <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="45">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="45">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>203</v>
       </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="75">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="30">
-      <c r="B39" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30">
+    <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -3110,21 +3111,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="120">
+    <row r="42" spans="1:4" ht="143" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="135">
+    <row r="44" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -3152,15 +3153,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="75">
+    <row r="45" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="105">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -3189,15 +3190,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3213,15 +3214,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3235,17 +3236,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="300">
+    <row r="7" spans="1:4" ht="260" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3254,17 +3255,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="90">
+    <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417A6B7C-BB81-493E-A469-0591DAD13FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E9B9DF-8A1B-4A80-9DFB-F29B301172AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41295" yWindow="885" windowWidth="13425" windowHeight="10575" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29970" yWindow="2535" windowWidth="13425" windowHeight="10575" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="227">
   <si>
     <t>header1</t>
   </si>
@@ -1043,6 +1043,10 @@
   </si>
   <si>
     <t>win10-6-41.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-35.svg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2618,7 +2622,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3090,6 +3094,9 @@
     <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>204</v>
+      </c>
+      <c r="D39" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E9B9DF-8A1B-4A80-9DFB-F29B301172AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254D9D5B-1835-48F8-9406-D765DD3DDD57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="2535" windowWidth="13425" windowHeight="10575" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27330" yWindow="2490" windowWidth="13425" windowHeight="10575" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -393,9 +393,6 @@
   </t>
   </si>
   <si>
-    <t>win10-6-15.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">For your first login, this page will be shown. Click &amp;quot;Close&amp;quot;.
   </t>
   </si>
@@ -634,10 +631,6 @@
   </si>
   <si>
     <t>Initial setting of your PC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If you are going to turn on your PC for the first time, follow this chapter to see your Desktop in your PC.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -820,10 +813,6 @@
   </si>
   <si>
     <t>Click &amp;quot;Accept&amp;quot; to accept Windows 10 License Agreement.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Microsoft Teams will run automatically. Click x at left up in the window to close the application for now.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1047,6 +1036,18 @@
   </si>
   <si>
     <t>win10-6-35.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you turn on your PC for the first time, follow this chapter to see your Desktop in your PC.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Teams will run automatically. Click x at right up in the window to close the application for now.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-15e.svg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1477,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1485,7 +1486,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1499,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1519,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="B15" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -1537,7 +1538,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1545,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1561,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1569,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1583,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>7</v>
@@ -1597,13 +1598,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1611,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>7</v>
@@ -1622,10 +1623,10 @@
     </row>
     <row r="10" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1633,7 +1634,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>7</v>
@@ -1647,40 +1648,40 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1688,13 +1689,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1702,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>7</v>
@@ -1716,7 +1717,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>7</v>
@@ -1727,10 +1728,10 @@
     </row>
     <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
@@ -1738,13 +1739,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1752,7 +1753,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>7</v>
@@ -1763,10 +1764,10 @@
     </row>
     <row r="22" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1774,13 +1775,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="65" ph="1" x14ac:dyDescent="0.2">
@@ -1788,13 +1789,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1802,13 +1803,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>7</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1822,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1839,7 +1840,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1863,7 +1864,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -1899,7 +1900,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1927,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1947,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1988,12 +1989,12 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2001,7 +2002,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2015,7 +2016,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -2043,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2085,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2119,7 +2120,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2132,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2173,7 +2174,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2181,7 +2182,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2242,13 +2243,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2275,13 +2276,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2303,7 +2304,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2331,13 +2332,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2345,13 +2346,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2365,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2382,7 +2383,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2406,7 +2407,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -2414,7 +2415,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2433,13 +2434,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2452,37 +2453,37 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2490,13 +2491,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2515,7 +2516,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2523,21 +2524,21 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2545,13 +2546,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2559,13 +2560,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2573,13 +2574,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2587,13 +2588,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2601,13 +2602,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2621,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2662,7 +2663,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -2778,13 +2779,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2792,7 +2793,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2834,7 +2835,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2848,7 +2849,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2909,7 +2910,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3004,7 +3005,7 @@
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3012,13 +3013,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>98</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="195" x14ac:dyDescent="0.2">
@@ -3026,13 +3027,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3040,13 +3041,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3054,13 +3055,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3068,13 +3069,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3082,26 +3083,26 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D39" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3109,7 +3110,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3123,13 +3124,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3137,13 +3138,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3151,21 +3152,21 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3173,13 +3174,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3210,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3226,7 +3227,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3234,7 +3235,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3245,7 +3246,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="260" x14ac:dyDescent="0.2">
@@ -3253,7 +3254,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3264,7 +3265,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3272,7 +3273,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254D9D5B-1835-48F8-9406-D765DD3DDD57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE68AC6-6318-47CB-9D91-710C78EC4760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27330" yWindow="2490" windowWidth="13425" windowHeight="10575" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>template</t>
-  </si>
-  <si>
-    <t>index</t>
   </si>
   <si>
     <t>title</t>
@@ -1048,6 +1045,10 @@
   </si>
   <si>
     <t>win10-6-15e.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index_en</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1445,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1470,43 +1471,43 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1535,10 +1536,10 @@
   <sheetData>
     <row r="1" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s" ph="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1546,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1554,262 +1555,262 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s" ph="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s" ph="1">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s" ph="1">
         <v>7</v>
-      </c>
-      <c r="D7" t="s" ph="1">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="65" ph="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C24" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C25" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1837,10 +1838,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1848,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1856,85 +1857,85 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1962,10 +1963,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1973,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1981,146 +1982,146 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="143" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="182" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2147,10 +2148,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2158,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2166,193 +2167,193 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2380,10 +2381,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2391,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2399,216 +2400,216 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="156" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2622,7 +2623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+    <sheetView topLeftCell="C31" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -2636,10 +2637,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2647,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2655,532 +2656,532 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>74</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
         <v>76</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>84</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>87</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>90</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>92</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>94</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
         <v>97</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="195" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
         <v>199</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="143" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
         <v>102</v>
-      </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
         <v>104</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
         <v>106</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3219,67 +3220,67 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="260" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE68AC6-6318-47CB-9D91-710C78EC4760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B17735D-A313-4CF2-A8BF-CA8A1A6C5F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>fresta</t>
   </si>
   <si>
     <t>chartn</t>
@@ -1049,6 +1046,10 @@
   </si>
   <si>
     <t>index_en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fresta_en</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1446,7 +1447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1471,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1479,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1487,7 +1488,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1501,7 +1502,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1521,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -1536,10 +1537,10 @@
   <sheetData>
     <row r="1" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s" ph="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1547,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1555,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1563,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1571,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -1585,13 +1586,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s" ph="1">
         <v>6</v>
-      </c>
-      <c r="D7" t="s" ph="1">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1599,13 +1600,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s" ph="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1613,21 +1614,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s" ph="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1635,13 +1636,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s" ph="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1649,40 +1650,40 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C12" t="s" ph="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s" ph="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1690,13 +1691,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s" ph="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1704,13 +1705,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s" ph="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1718,21 +1719,21 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s" ph="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
@@ -1740,13 +1741,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C20" t="s" ph="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1754,21 +1755,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C21" t="s" ph="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
@@ -1776,13 +1777,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C23" t="s" ph="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="65" ph="1" x14ac:dyDescent="0.2">
@@ -1790,13 +1791,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C24" t="s" ph="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1804,13 +1805,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C25" t="s" ph="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1824,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1838,10 +1839,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1849,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1857,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1865,7 +1866,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -1873,7 +1874,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1887,13 +1888,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
@@ -1901,13 +1902,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -1915,13 +1916,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -1929,13 +1930,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +1951,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1963,10 +1964,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1974,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1982,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1990,12 +1991,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2003,13 +2004,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2017,13 +2018,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2031,13 +2032,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2045,13 +2046,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2059,13 +2060,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2073,13 +2074,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2087,21 +2088,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2115,13 +2116,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2134,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2148,10 +2149,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2159,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2167,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2175,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2183,7 +2184,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2194,7 +2195,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2202,13 +2203,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2216,13 +2217,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2230,13 +2231,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2244,13 +2245,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2258,18 +2259,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2277,13 +2278,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2291,13 +2292,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2305,13 +2306,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2319,13 +2320,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2333,13 +2334,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2347,13 +2348,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2367,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2381,10 +2382,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2392,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2400,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2408,7 +2409,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -2416,7 +2417,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2427,7 +2428,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="156" x14ac:dyDescent="0.2">
@@ -2435,18 +2436,18 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2454,37 +2455,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2492,13 +2493,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2506,18 +2507,18 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2525,21 +2526,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2547,13 +2548,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2561,13 +2562,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2575,13 +2576,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2589,13 +2590,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2603,13 +2604,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2623,8 +2624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2637,10 +2638,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2648,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2656,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2664,7 +2665,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -2672,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2683,7 +2684,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2705,13 +2706,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2719,18 +2720,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2752,13 +2753,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2766,13 +2767,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2780,13 +2781,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2794,13 +2795,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2808,13 +2809,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>73</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2822,13 +2823,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
         <v>75</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>76</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2836,13 +2837,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2850,13 +2851,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2864,18 +2865,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>80</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2897,13 +2898,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2911,13 +2912,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2925,18 +2926,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2958,13 +2959,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>89</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2972,13 +2973,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>91</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2986,13 +2987,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>93</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3000,13 +3001,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3014,13 +3015,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
         <v>96</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="195" x14ac:dyDescent="0.2">
@@ -3028,13 +3029,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3042,13 +3043,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3056,13 +3057,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3070,13 +3071,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3084,26 +3085,26 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
         <v>198</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3111,7 +3112,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -3125,13 +3126,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3139,13 +3140,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
         <v>101</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3153,21 +3154,21 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
         <v>103</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3175,13 +3176,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
         <v>105</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3212,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3220,7 +3221,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3228,7 +3229,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3236,7 +3237,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3247,7 +3248,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="260" x14ac:dyDescent="0.2">
@@ -3255,7 +3256,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3266,7 +3267,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3274,7 +3275,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B17735D-A313-4CF2-A8BF-CA8A1A6C5F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA61021-94BD-49A1-9FF1-DD6BB7CBD017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -762,13 +762,6 @@
 Now you can use Microsoft Office applications!&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">If you see a prompt for sign in and set Office(see right figure), you need to activate Office on your PC.
-Click &amp;quot;Sign in&amp;quot;,
-&lt;p class="spl"&gt;* If you can use Excel without seeing any prompt to sign in,  go on next chapter.&lt;/p&gt;
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1050,6 +1043,13 @@
   </si>
   <si>
     <t>fresta_en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you see a prompt for sign in and set Office(see the screenshot), you need to activate Office on your PC.
+Click &amp;quot;Sign in&amp;quot;,
+&lt;p class="spl"&gt;* If you can use Excel without seeing any prompt to sign in,  go on next chapter.&lt;/p&gt;
+  </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1472,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1502,7 +1502,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1522,7 +1522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1540,7 +1540,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1556,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1572,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -1586,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
@@ -1600,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -1614,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="10" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s" ph="1">
         <v>118</v>
@@ -1636,7 +1636,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
@@ -1650,7 +1650,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D13" t="s" ph="1">
         <v>120</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="14" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="15" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" t="s" ph="1">
         <v>120</v>
@@ -1691,7 +1691,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
@@ -1705,7 +1705,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
@@ -1719,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D19" t="s" ph="1">
         <v>122</v>
@@ -1741,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
@@ -1755,7 +1755,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="22" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D22" t="s" ph="1">
         <v>124</v>
@@ -1777,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
@@ -1791,7 +1791,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
@@ -1805,13 +1805,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1858,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1983,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2046,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2168,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2245,7 +2245,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -2306,7 +2306,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2348,7 +2348,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2368,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2401,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2442,7 +2442,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2461,7 +2461,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2526,7 +2526,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="18" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="D18" t="s">
         <v>169</v>
@@ -2590,7 +2590,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -2657,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2787,7 +2787,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2837,7 +2837,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2851,7 +2851,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -2912,7 +2912,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -3007,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3029,7 +3029,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -3043,13 +3043,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3057,13 +3057,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3071,13 +3071,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3085,21 +3085,21 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
         <v>197</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3168,7 +3168,7 @@
         <v>143</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3221,7 +3221,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3256,7 +3256,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3275,7 +3275,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA61021-94BD-49A1-9FF1-DD6BB7CBD017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CB4601-4F6E-4559-9339-267BF5A7F491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="229">
   <si>
     <t>header1</t>
   </si>
@@ -45,24 +45,6 @@
   </si>
   <si>
     <t>chartn</t>
-  </si>
-  <si>
-    <t>win10-0-01.svg</t>
-  </si>
-  <si>
-    <t>win10-0-03.svg</t>
-  </si>
-  <si>
-    <t>win10-0-04.svg</t>
-  </si>
-  <si>
-    <t>win10-0-07.svg</t>
-  </si>
-  <si>
-    <t>win10-0-08.svg</t>
-  </si>
-  <si>
-    <t>win10-0-10.svg</t>
   </si>
   <si>
     <t>description</t>
@@ -445,18 +427,6 @@
     <t>&lt;h3&gt;F3S workshop&lt;/h3&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h3&gt;Windows10&lt;/h3&gt;
-Apr. 2020&lt;br&gt;
- Information Media Center, Hiroshima University&lt;br&gt;
- Hiroshima Univesity Coop shop 
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Win10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2020 Win10en chap.2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -488,30 +458,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2020 Win10 chap.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-0-02a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-0-21.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-0-06a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-0-22.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-0-05a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-0-23.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -525,10 +479,6 @@
   </si>
   <si>
     <t>win10-0-11a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-0-12.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -831,19 +781,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">If you will use Microsoft Surface that has been bought in Hirohima Univ. Co-op, we recommend you to &lt;strong&gt;chose &amp;quot;Japanese&amp;quot; keyboard layout,&lt;/strong&gt; and click &amp;quot;yes&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>When Windows asks &amp;quot;Get help from your digital assistant&amp;quot; or &amp;quot;Set Cortana to personal assistant&amp;quot;, click &amp;quot;Decline&amp;quot; for now. You can change the configuration later.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows asks you &amp;quot; Choose privacy settings for your device&amp;quot;. We recommend &amp;quot;Yes&amp;quot; to &amp;quot;help improve our speech serveces&amp;quot; and &amp;quot;data to improve location services&amp;quot;, and &amp;quot;No&amp;quot; to others.
-Of course, you can change the configuration later.
-Click &amp;quot;Accept&amp;quot; and wait a few minutes.
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -975,10 +913,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>recogniti</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">You are asked to create three security questions for your account. You will see them when you forget your password but need to sign in to your PC.
 But this feature is not always the best way to prevent unauthorized access to your PC. We recommend you to create questions and &lt;strong&gt;meeningless&lt;/strong&gt; answers for them. </t>
     <phoneticPr fontId="1"/>
@@ -1051,6 +985,74 @@
 &lt;p class="spl"&gt;* If you can use Excel without seeing any prompt to sign in,  go on next chapter.&lt;/p&gt;
   </t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;Windows10&lt;/h3&gt;
+Mar. 2021&lt;br&gt;
+ Information Media Center, Hiroshima University&lt;br&gt;
+ Hiroshima Univesity Coop shop 
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10 chap.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-select-language.png</t>
+  </si>
+  <si>
+    <t>ch0-select-region.png</t>
+  </si>
+  <si>
+    <t>ch0-select-keymap0.png</t>
+  </si>
+  <si>
+    <t>Select the keymap fitting to the model of your PC. The most PCs sold in Japanese market has a localized keymap which is incompatible with popular US keymap.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-select-keymap-more.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you want to try other keymap, add another one. You can have both of US and Japanese map.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-select-keymap-2.png</t>
+  </si>
+  <si>
+    <t>ch0-refuse-wifi-now.png</t>
+  </si>
+  <si>
+    <t>ch0-refuse-wifi-now2.png</t>
+  </si>
+  <si>
+    <t>ch0-license.png</t>
+  </si>
+  <si>
+    <t>ch0-set-first-accountname.png</t>
+  </si>
+  <si>
+    <t>ch0-set-first-account-password.png</t>
+  </si>
+  <si>
+    <t>ch0-skip-faceid.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows asks you &amp;quot; Choose privacy settings for your device&amp;quot;. We recommend &amp;quot;Yes&amp;quot; to &amp;quot;help improve our speech services&amp;quot; and &amp;quot;data to improve location services&amp;quot;, and &amp;quot;No&amp;quot; to others.
+Of course, you can change the configuration later.
+Click &amp;quot;Accept&amp;quot; and wait a few minutes.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-restrict-privacy.png</t>
   </si>
 </sst>
 </file>
@@ -1451,12 +1453,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1472,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1480,15 +1482,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1497,12 +1499,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1520,27 +1522,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1" phonetic="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1" phonetic="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1" phonetic="1"/>
-    <col min="5" max="16384" width="8.81640625" phonetic="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" phonetic="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1" phonetic="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1" phonetic="1"/>
+    <col min="5" max="16384" width="8.77734375" phonetic="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s" ph="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1548,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1556,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1564,16 +1566,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
       </c>
@@ -1581,123 +1580,120 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s" ph="1">
-        <v>4</v>
-      </c>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s" ph="1">
+        <v>4</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
+      </c>
+      <c r="C13" t="s" ph="1">
+        <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" t="s" ph="1">
+        <v>189</v>
+      </c>
+      <c r="D14" t="s" ph="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="D14" t="s" ph="1">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="D15" t="s" ph="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s" ph="1">
-        <v>4</v>
-      </c>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" t="s" ph="1">
-        <v>5</v>
+        <v>191</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1705,13 +1701,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>9</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1719,99 +1715,113 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>10</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s" ph="1">
+        <v>4</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
+      </c>
+      <c r="C19" t="s" ph="1">
+        <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="52" ph="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s" ph="1">
-        <v>4</v>
-      </c>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C20" t="s" ph="1">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s" ph="1">
+        <v>4</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>213</v>
+        <v>196</v>
+      </c>
+      <c r="C22" t="s" ph="1">
+        <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="26" ph="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s" ph="1">
-        <v>4</v>
-      </c>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" t="s" ph="1">
-        <v>5</v>
+        <v>197</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="65" ph="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="66" ph="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>190</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s" ph="1">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s" ph="1">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1829,20 +1839,20 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1850,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1858,7 +1868,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1866,15 +1876,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1883,60 +1893,60 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1954,20 +1964,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1975,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1983,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1991,138 +2001,138 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="182" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2139,20 +2149,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2160,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2168,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2176,15 +2186,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2195,166 +2205,166 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2368,24 +2378,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2393,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2401,7 +2411,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2409,15 +2419,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2428,133 +2438,133 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="156" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2562,13 +2572,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2576,41 +2586,41 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2628,20 +2638,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2649,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2657,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2665,15 +2675,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2684,7 +2694,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2701,37 +2711,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2748,135 +2758,135 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>67</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="19" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>72</v>
       </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2893,51 +2903,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2954,165 +2964,165 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
         <v>90</v>
       </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="195" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D39" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -3121,68 +3131,68 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3200,12 +3210,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -3213,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3221,7 +3231,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3229,7 +3239,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3237,7 +3247,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3248,15 +3258,15 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="260" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="264" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3267,15 +3277,15 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CB4601-4F6E-4559-9339-267BF5A7F491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1851263-4237-4942-BC86-123D2824C756}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="226">
   <si>
     <t>header1</t>
   </si>
@@ -459,10 +459,6 @@
   </si>
   <si>
     <t>win10-0-02a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-0-22.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -887,20 +883,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Click &amp;quot;Continue with limited setup&amp;quot; in the bottom left corner of the screen.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">You are asked to connect your PC to network again after rebooting your PC.  Choose &amp;quot;I don&amp;apos;t have internet&amp;quot; again.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Click &amp;quot;Continue with limited setup&amp;quot; in the bottom left corner of the screen.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Input user name to use your PC.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1053,6 +1035,10 @@
   </si>
   <si>
     <t>ch0-restrict-privacy.png</t>
+  </si>
+  <si>
+    <t>Click &amp;quot;Continue with limited setup&amp;quot; in the bottom left corner of the screen. You would be asked again same question in later.</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1474,7 +1460,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1482,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1490,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1504,7 +1490,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1522,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -1542,7 +1528,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1550,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1558,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1566,7 +1552,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1585,13 +1571,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1599,7 +1585,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -1613,21 +1599,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1635,24 +1621,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1660,40 +1646,49 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s" ph="1">
+        <v>4</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s" ph="1">
+        <v>4</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="C16" t="s" ph="1">
+        <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>109</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1701,60 +1696,54 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s" ph="1">
-        <v>4</v>
-      </c>
       <c r="B18" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" t="s" ph="1">
-        <v>5</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s" ph="1">
+        <v>4</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="C20" t="s" ph="1">
+        <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s" ph="1">
-        <v>4</v>
-      </c>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C21" t="s" ph="1">
-        <v>5</v>
+        <v>193</v>
       </c>
       <c r="D21" t="s" ph="1">
         <v>111</v>
@@ -1765,63 +1754,41 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="66" ph="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s" ph="1">
+        <v>4</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>197</v>
+        <v>223</v>
+      </c>
+      <c r="C23" t="s" ph="1">
+        <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="66" ph="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s" ph="1">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C25" t="s" ph="1">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s" ph="1">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s" ph="1">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" t="s" ph="1">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s" ph="1">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1852,7 +1819,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1868,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1876,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -1993,7 +1960,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2006,7 +1973,7 @@
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2014,7 +1981,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2028,7 +1995,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2056,7 +2023,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2132,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2178,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2186,7 +2153,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2194,7 +2161,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2255,13 +2222,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2288,13 +2255,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2316,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2344,13 +2311,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2358,13 +2325,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2362,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2411,7 +2378,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2419,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2427,7 +2394,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2446,13 +2413,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2465,37 +2432,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2503,13 +2470,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2528,7 +2495,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2536,21 +2503,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2558,13 +2525,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2572,13 +2539,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2586,13 +2553,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2600,13 +2567,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2614,13 +2581,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2667,7 +2634,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2675,7 +2642,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -2791,13 +2758,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2805,7 +2772,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2847,7 +2814,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2861,7 +2828,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -2922,7 +2889,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -3017,7 +2984,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3039,7 +3006,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -3053,13 +3020,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3067,13 +3034,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3081,13 +3048,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3095,21 +3062,21 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
         <v>181</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D39" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3136,13 +3103,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3175,10 +3142,10 @@
     </row>
     <row r="45" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3231,7 +3198,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3239,7 +3206,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3266,7 +3233,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3285,7 +3252,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1851263-4237-4942-BC86-123D2824C756}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6850C98-E8D0-4AA3-91C3-F21A2A33D7C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,10 +462,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-0-23.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-0-24.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -883,14 +879,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Input user name to use your PC.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Create your password. The good password is easy for you to remember but  difficult for others to guess.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Type your password again.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1038,6 +1026,17 @@
   </si>
   <si>
     <t>Click &amp;quot;Continue with limited setup&amp;quot; in the bottom left corner of the screen. You would be asked again same question in later.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-confirm-passwd.png</t>
+  </si>
+  <si>
+    <t>Define user name to use your PC. We recommend to limit the characters to Latin alphabet (without diacritical mark), digits, hyphen and underscore ("_"), without any space, to prevent the trouble caused by the loss of the appropriate keyboard to input the special characters.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Create your password. The good password is easy for you to remember but  difficult for others to guess. Using the characters which you cannot input through bare US keymap is not recommended.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1460,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1468,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1476,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1490,7 +1489,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1511,7 +1510,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -1528,7 +1527,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1536,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1544,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1552,7 +1551,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1571,13 +1570,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1585,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -1599,21 +1598,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1621,24 +1620,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1646,21 +1645,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1668,49 +1667,49 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>109</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
@@ -1718,13 +1717,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1732,21 +1731,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1754,13 +1753,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="66" ph="1" x14ac:dyDescent="0.2">
@@ -1768,13 +1767,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1782,13 +1781,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1818,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1835,7 +1834,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1843,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -1960,7 +1959,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1973,7 +1972,7 @@
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -1981,7 +1980,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1995,7 +1994,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2023,7 +2022,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2099,7 +2098,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2145,7 +2144,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2153,7 +2152,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2161,7 +2160,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2222,13 +2221,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2255,13 +2254,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2283,7 +2282,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2311,13 +2310,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2325,13 +2324,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2362,7 +2361,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2378,7 +2377,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2386,7 +2385,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2394,7 +2393,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2413,13 +2412,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2432,37 +2431,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2470,13 +2469,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2495,7 +2494,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2503,21 +2502,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2525,13 +2524,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2539,13 +2538,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2553,13 +2552,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2567,13 +2566,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2581,13 +2580,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2634,7 +2633,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2642,7 +2641,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -2758,13 +2757,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2772,7 +2771,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2814,7 +2813,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2828,7 +2827,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -2889,7 +2888,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -2984,7 +2983,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3006,7 +3005,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -3020,13 +3019,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3034,13 +3033,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3048,13 +3047,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3062,21 +3061,21 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
         <v>180</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3103,13 +3102,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3142,10 +3141,10 @@
     </row>
     <row r="45" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3198,7 +3197,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3206,7 +3205,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3233,7 +3232,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3252,7 +3251,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6850C98-E8D0-4AA3-91C3-F21A2A33D7C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20098D43-0014-4EFB-926C-A0FD6D926F02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,10 +462,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-0-24.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-0-25.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1038,6 +1034,9 @@
   <si>
     <t>Create your password. The good password is easy for you to remember but  difficult for others to guess. Using the characters which you cannot input through bare US keymap is not recommended.</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-secret-question.png</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1475,7 +1474,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1489,7 +1488,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1509,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -1527,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1535,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1543,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1551,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1570,13 +1569,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1584,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -1598,21 +1597,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1620,24 +1619,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1645,21 +1644,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1667,13 +1666,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1681,13 +1680,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1695,21 +1694,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
@@ -1717,13 +1716,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>109</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1731,21 +1730,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1753,13 +1752,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="66" ph="1" x14ac:dyDescent="0.2">
@@ -1767,13 +1766,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1781,13 +1780,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +1817,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1834,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1842,7 +1841,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -1959,7 +1958,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1972,7 +1971,7 @@
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -1980,7 +1979,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1994,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2022,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2098,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2144,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2152,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2160,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2221,13 +2220,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2254,13 +2253,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2282,7 +2281,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2310,13 +2309,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2324,13 +2323,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2361,7 +2360,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2377,7 +2376,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2385,7 +2384,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2393,7 +2392,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2412,13 +2411,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2431,37 +2430,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2469,13 +2468,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2494,7 +2493,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2502,21 +2501,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2524,13 +2523,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2538,13 +2537,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2552,13 +2551,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2566,13 +2565,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2580,13 +2579,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2633,7 +2632,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2641,7 +2640,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -2757,13 +2756,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2771,7 +2770,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2813,7 +2812,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2827,7 +2826,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -2888,7 +2887,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -2983,7 +2982,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3005,7 +3004,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -3019,13 +3018,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3033,13 +3032,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3047,13 +3046,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3061,21 +3060,21 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
         <v>179</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3102,13 +3101,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3141,10 +3140,10 @@
     </row>
     <row r="45" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3197,7 +3196,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3205,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3232,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3251,7 +3250,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20098D43-0014-4EFB-926C-A0FD6D926F02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB4CE80-842C-4AA9-AAC7-0BB3615269A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -663,10 +663,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-5-22.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-5-13a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -689,10 +685,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Input HIRODAI password and click &amp;quot;Sign in&amp;quot;.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Click &amp;quot;Yes&amp;quot;.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1037,6 +1029,13 @@
   </si>
   <si>
     <t>ch0-secret-question.png</t>
+  </si>
+  <si>
+    <t>ch4-signin-only-this-application.png</t>
+  </si>
+  <si>
+    <t>You don't have to permit the administration of your PC to the organization, proceed by "No, sign in to this app only".</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1458,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1466,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1474,7 +1473,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1488,7 +1487,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1508,7 +1507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1526,7 +1525,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1542,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1550,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1569,13 +1568,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1583,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -1597,21 +1596,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1619,24 +1618,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1644,21 +1643,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1666,13 +1665,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1680,13 +1679,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1694,21 +1693,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
@@ -1716,13 +1715,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1730,18 +1729,18 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D21" t="s" ph="1">
         <v>109</v>
@@ -1752,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
@@ -1766,13 +1765,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1780,13 +1779,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1833,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1958,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2021,7 +2020,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2143,7 +2142,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2220,7 +2219,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -2281,7 +2280,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2323,7 +2322,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2343,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2376,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2417,7 +2416,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2436,7 +2435,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2468,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2501,21 +2500,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2523,7 +2522,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2537,7 +2536,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -2551,13 +2550,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2565,7 +2564,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -2579,13 +2578,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2632,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2762,7 +2761,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2812,7 +2811,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2826,7 +2825,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -2887,7 +2886,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -2982,7 +2981,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3004,7 +3003,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -3018,13 +3017,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3032,13 +3031,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3046,13 +3045,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3060,21 +3059,21 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3143,7 +3142,7 @@
         <v>127</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3196,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3231,7 +3230,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3250,7 +3249,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB4CE80-842C-4AA9-AAC7-0BB3615269A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6643F993-9774-46D8-827F-7BB3A642D308}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,14 +537,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-5-14a.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-5-15a.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>In recent versions of Windows 10, Microsoft Teams run automatically when you sign in your PC. Teams is a comminication tool provided by Microsoft. You can use Teams with your HIRODAI mailaddress and password. Or, you can dismiss Teams from your PC setting (Settings -&gt; Apps -&gt; Startup)
 You can find more information on &lt;a href="https://www.media.hiroshima-u.ac.jp/services/communication/teams/"&gt;&amp;quot;Microsoft Teams&amp;quot;&lt;/a&gt;.</t>
     <phoneticPr fontId="1"/>
@@ -676,11 +668,6 @@
   </si>
   <si>
     <t>win10-5-23.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Input HIRODAI mailaddress（b20xxxxx@hiroshima-u.ac.jp）and click &amp;quot;Next&amp;quot;.
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1036,6 +1023,17 @@
   <si>
     <t>You don't have to permit the administration of your PC to the organization, proceed by "No, sign in to this app only".</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Input HIRODAI mailaddress（b21xxxxx@hiroshima-u.ac.jp）and click &amp;quot;Next&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch4-excel-signin.png</t>
+  </si>
+  <si>
+    <t>ch4-excel-signin-password.png</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1465,7 +1463,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1473,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1487,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1525,7 +1523,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1533,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1541,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1549,7 +1547,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1568,13 +1566,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1582,7 +1580,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -1596,21 +1594,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1618,24 +1616,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1643,21 +1641,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1665,13 +1663,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1679,13 +1677,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1693,21 +1691,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
@@ -1715,13 +1713,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1729,18 +1727,18 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D21" t="s" ph="1">
         <v>109</v>
@@ -1751,7 +1749,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
@@ -1765,13 +1763,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1779,13 +1777,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1816,7 +1814,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1832,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1840,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -1957,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1970,7 +1968,7 @@
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -1978,7 +1976,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1992,7 +1990,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2020,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2096,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2140,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2150,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2158,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2219,7 +2217,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -2280,7 +2278,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2322,7 +2320,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2343,7 +2341,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2359,7 +2357,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2375,7 +2373,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2391,7 +2389,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2410,13 +2408,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2429,37 +2427,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2467,13 +2465,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2492,7 +2490,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2500,21 +2498,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2522,13 +2520,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2536,13 +2534,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2550,13 +2548,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2564,7 +2562,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -2578,13 +2576,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2631,7 +2629,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2761,7 +2759,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2811,7 +2809,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2825,7 +2823,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -2886,7 +2884,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -2981,7 +2979,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3003,7 +3001,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -3017,13 +3015,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3031,13 +3029,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3045,13 +3043,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3059,21 +3057,21 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3139,10 +3137,10 @@
     </row>
     <row r="45" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3195,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3230,7 +3228,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3249,7 +3247,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6643F993-9774-46D8-827F-7BB3A642D308}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710066E6-FBA2-4ABF-82E5-19F9DDC0C2F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -53,21 +53,6 @@
     <t>Know your PC's spec</t>
   </si>
   <si>
-    <t xml:space="preserve">First of all, you will learn how to know your PC&amp;apos;s &amp;quot;spec&amp;quot;. Sometimes the word &amp;quot;spec&amp;quot; indicates some features which tell you the capability of your PC. Here, find these specs in the list below;
-&lt;ol&gt;&lt;li&gt; OS version &lt;/li&gt;
-&lt;li&gt; Main memory capacity &lt;/li&gt;
-&lt;li&gt; HDD/SDD capacity &lt;/li&gt;
-&lt;li&gt; Battery run time &lt;/li&gt;
-&lt;/ol&gt;
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check OS version of your PC, first. Right-click the Start button on the lower left of your desktop.
-&lt;p class="spl"&gt;* &amp;quot;Right-click&amp;quot; means to press right-hand button on a computer mouse. Then, how to accomplish right-click in the case of Surface without a mouse? Tap the lower right corner of the touch pad. Or tap the screen little longer. Or press the side button of the pen and tap the screen.&lt;/p&gt;
-When Start menu appears, find &amp;quot;System&amp;quot; in the menu and click it.
-   </t>
-  </si>
-  <si>
     <t>win10-1-01.svg</t>
   </si>
   <si>
@@ -427,10 +412,6 @@
     <t>&lt;h3&gt;F3S workshop&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>FRESTA-TEXT-2020 Win10en chap.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Look carefully at &amp;quot;About&amp;quot; page.
 &amp;quot;Edition&amp;quot; entry under &amp;quot;Windows Specifications&amp;quot; tells you what kind of Windows your PC is running. In this case, your PC is running &amp;quot;Windows 10 Pro&amp;quot;. And &amp;quot;Version&amp;quot; entry gives you the detailed version number of your Windows10.&lt;span class="check"&gt;check-1&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
@@ -470,10 +451,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2020 Win10en chap.4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">You will learn when your Defender is updated and how to update Defender. Defender is kept updated by Windows Update. But when the information about emergency vulnerabilities is issued, it is better for us to update Defender.
 Click &amp;quot;Windows Security&amp;quot; listed in the left. Then click &amp;quot;Open Windows Security&amp;quot;.
   </t>
@@ -488,10 +465,6 @@
   </si>
   <si>
     <t>win10-5-17.svg</t>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Win10en chap.5</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">Input your &amp;quot;HIRODAI mail&amp;quot; in the box and click &amp;quot;Next&amp;quot;, 
@@ -512,10 +485,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2020 Win10en conclusion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Input your &amp;quot;HIRODAI password&amp;quot; in the lower box. And click &amp;quot;Sign in&amp;quot;, blue button.
   </t>
     <phoneticPr fontId="1"/>
@@ -543,14 +512,6 @@
   </si>
   <si>
     <t>win10-4-10e.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Win10en chap.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Win10en chap.1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -788,24 +749,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">This is &amp;quot;myBlackboard&amp;quot; page. There is &amp;quot;Course List&amp;quot; in the middle of the page. Courses, which you can access, are listed there. Some courses in the list are related to the courses you registered. But others are not.
-Several courses should be introduced here.
-&lt;dl&gt;
-&lt;dt&gt;Laptop checklist 2020&lt;/dt&gt;
-&lt;dd&gt;You need to submit a checklist which declares that your PC is capable of your study life in Hiroshima University. You can submit the checklist in this course. Access to this course after finishing this lecture.&lt;/dd&gt;&lt;dt&gt;Introduction to University Education&lt;/dt&gt;
-&lt;dd&gt;This course is required. In this course, you will learn what you need to know to study in Hiroshima University. And you are expected to download course text PDFs and answer a test on a weekly basis.&lt;/dd&gt;
-&lt;p class="spl"&gt;* Because of COVID-19, this course will be performed not as usual. Please check your &amp;quot;My MOMIJI&amp;quot;.&lt;/p&gt;
- &lt;/dl&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">You are expected to download the course text PDFs from Bb9 course beforehand. Here, you will learn how to download course materials from Bb9.
-Click &amp;quot;Laptop checklist 2020&amp;quot; in the &amp;quot;Course List&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Then the course contents of this course will be displayed in the right. Now click the second content &amp;quot;Checklist worksheet&amp;quot; and open it.
   </t>
     <phoneticPr fontId="1"/>
@@ -823,10 +766,6 @@
   </si>
   <si>
     <t>win10-6-32.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;If you have finished to set/check your PC with Chapter 1 to &lt;it&gt;here&lt;/it&gt; of this startup instruction, let&amp;apos;s open the Bb9 course &amp;quot;Laptop checklist 2020&amp;quot;, and submit the checklist!&lt;/strong&gt; </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1034,6 +973,69 @@
   </si>
   <si>
     <t>ch4-excel-signin-password.png</t>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10en chap.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">First of all, you will learn how to know your PC&amp;apos;s &amp;quot;spec&amp;quot;. Sometimes the word &amp;quot;spec&amp;quot; indicates some features which tell you the capability of your PC. Here, find these specs in the list below;
+&lt;ol&gt;&lt;li&gt; OS version &lt;/li&gt;
+&lt;li&gt; Main memory capacity &lt;/li&gt;
+&lt;li&gt; HDD/SSD capacity &lt;/li&gt;
+&lt;li&gt; Battery run time &lt;/li&gt;
+&lt;/ol&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Check OS version of your PC, first. Right-click the Start button on the lower left of your desktop.
+&lt;p class="spl"&gt;* &amp;quot;Right-click&amp;quot; means to press right-hand button on a computer mouse. Then, how to accomplish right-click in the case of Surface without a mouse? Tap the lower right corner of the touch pad. Or tap the screen little longer. Or press the side button of the pen and tap the screen.&lt;/p&gt;
+When Start menu appears, find &amp;quot;System&amp;quot; in the menu and click it.
+   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10en chap.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10en chap.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10en chap.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10en chap.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10en conclusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;If you have finished to set/check your PC with Chapter 1 to &lt;it&gt;here&lt;/it&gt; of this startup instruction, let&amp;apos;s open the Bb9 course &amp;quot;Laptop checklist 2021&amp;quot;, and submit the checklist!&lt;/strong&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This is &amp;quot;myBlackboard&amp;quot; page. There is &amp;quot;Course List&amp;quot; in the middle of the page. Courses, which you can access, are listed there. Some courses in the list are related to the courses you registered. But others are not.
+Several courses should be introduced here.
+&lt;dl&gt;
+&lt;dt&gt;Laptop checklist 2021&lt;/dt&gt;
+&lt;dd&gt;You need to submit a checklist which declares that your PC is capable of your study life in Hiroshima University. You can submit the checklist in this course. Access to this course after finishing this lecture.&lt;/dd&gt;&lt;dt&gt;Introduction to University Education (the screenshot is older one, but you would find new one)&lt;/dt&gt;
+&lt;dd&gt;This course is required. In this course, you will learn what you need to know to study in Hiroshima University. And you are expected to download course text PDFs and answer a test on a weekly basis.&lt;/dd&gt;
+&lt;p class="spl"&gt;* Because of COVID-19, this course will be performed not as usual. Please check your &amp;quot;My MOMIJI&amp;quot;.&lt;/p&gt;
+ &lt;/dl&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You are expected to download the course text PDFs from Bb9 course beforehand. Here, you will learn how to download course materials from Bb9.
+Click &amp;quot;Laptop checklist 2021&amp;quot; in the &amp;quot;Course List&amp;quot; (screenshot is older one, but you would find new one).
+  </t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1455,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1463,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1471,7 +1473,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1485,7 +1487,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1523,7 +1525,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1539,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1547,13 +1549,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s" ph="1">
         <v>4</v>
       </c>
+      <c r="B6" s="1" ph="1"/>
       <c r="C6" t="s" ph="1">
         <v>4</v>
       </c>
@@ -1566,13 +1569,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1580,13 +1583,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1594,21 +1597,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1616,24 +1619,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1641,21 +1644,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1663,13 +1666,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1677,13 +1680,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1691,21 +1694,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
@@ -1713,13 +1716,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1727,21 +1730,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1749,13 +1752,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="66" ph="1" x14ac:dyDescent="0.2">
@@ -1763,13 +1766,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1777,13 +1780,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1796,1377 +1799,6 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D39" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" t="s" ph="1">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -3182,10 +1814,1381 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" t="s" ph="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3193,7 +3196,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3201,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3209,7 +3212,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3220,7 +3223,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -3228,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3239,7 +3242,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -3247,7 +3250,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710066E6-FBA2-4ABF-82E5-19F9DDC0C2F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD04EAD-38A7-4F5E-A1F6-0138310DD531}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD04EAD-38A7-4F5E-A1F6-0138310DD531}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E293C89B-3222-42A0-81E2-B0FD80D9B18A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,23 +217,6 @@
     <t>Log in to the online services provided in Hiroshima University</t>
   </si>
   <si>
-    <t xml:space="preserve">Let us log in to the online services provided by university, such as MOMIJI, Office365, or Bb9.
-You need a browser to use these services. Microsoft Edge has already been in Windows10. Then double-click its icon to open it.
-&lt;ul&gt;&lt;li&gt;&lt;a href="#momiji"&gt;MOMIJI: Student Portal&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#mail"&gt;Office365: Web mail service and online storage&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#mymomiji"&gt;My MOMIJI: Class enrollment, bulletin board etc.&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#bb9"&gt;Bb9: Virtual learning environment&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#omake"&gt;Others&lt;/a&gt;
-&lt;/li&gt;
-&lt;ul&gt; &lt;/ul&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="momiji"&gt;&lt;/a&gt;MOMIJI: Student portal&lt;/h2&gt; </t>
   </si>
   <si>
@@ -322,9 +305,6 @@
   </si>
   <si>
     <t>win10-6-12.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="bb9"&gt;&lt;/a&gt;Bb9: Virtual learning environment&lt;/h2&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">Let us go back to MOMIJI top page again. This time, click &amp;quot;Bb9&amp;quot; banner.
@@ -1035,6 +1015,28 @@
     <t xml:space="preserve">You are expected to download the course text PDFs from Bb9 course beforehand. Here, you will learn how to download course materials from Bb9.
 Click &amp;quot;Laptop checklist 2021&amp;quot; in the &amp;quot;Course List&amp;quot; (screenshot is older one, but you would find new one).
   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Let us log in to the online services provided by university, such as MOMIJI, Office365, or Bb9.
+You need a browser to use these services. Microsoft Edge has already been in Windows10. Then double-click its icon to open it.
+&lt;ul&gt;&lt;li&gt;&lt;a href="#momiji"&gt;MOMIJI: Student Portal&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mail"&gt;Office365: Web mail service and online storage&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mymomiji"&gt;My MOMIJI: Class enrollment, bulletin board etc.&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#bb9"&gt;Bb9: Learning management system&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#omake"&gt;Others&lt;/a&gt;
+&lt;/li&gt;
+&lt;ul&gt; &lt;/ul&gt;
+&lt;/ul&gt;
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="bb9"&gt;&lt;/a&gt;Bb9: Learning management system&lt;/h2&gt; </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1457,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1465,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1473,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1487,7 +1489,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1525,7 +1527,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1533,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1541,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1549,7 +1551,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1569,13 +1571,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1583,13 +1585,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1597,21 +1599,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1619,24 +1621,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1644,21 +1646,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1666,13 +1668,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1680,13 +1682,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1694,21 +1696,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
@@ -1716,13 +1718,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1730,21 +1732,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1752,13 +1754,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="66" ph="1" x14ac:dyDescent="0.2">
@@ -1766,13 +1768,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1780,13 +1782,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1817,7 +1819,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1833,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1841,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -1849,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1863,7 +1865,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1877,7 +1879,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1905,7 +1907,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -1958,7 +1960,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1966,12 +1968,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -1979,7 +1981,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1993,7 +1995,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2021,7 +2023,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2063,7 +2065,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -2097,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2143,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2151,7 +2153,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2159,7 +2161,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2220,13 +2222,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2253,13 +2255,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2281,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2309,13 +2311,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2323,13 +2325,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2360,7 +2362,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2376,7 +2378,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2384,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2392,7 +2394,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2411,13 +2413,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2430,37 +2432,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2468,13 +2470,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2493,7 +2495,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2501,21 +2503,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2523,13 +2525,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2537,13 +2539,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2551,13 +2553,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2565,13 +2567,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2579,13 +2581,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2599,8 +2601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2632,7 +2634,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2640,7 +2642,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -2648,7 +2650,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2659,7 +2661,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2681,13 +2683,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2695,18 +2697,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2728,13 +2730,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2742,13 +2744,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2756,13 +2758,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2770,13 +2772,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2784,13 +2786,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2798,13 +2800,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -2812,13 +2814,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2826,13 +2828,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2840,18 +2842,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2873,13 +2875,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2887,13 +2889,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2901,18 +2903,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>77</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2934,13 +2936,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2948,13 +2950,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2962,13 +2964,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2976,13 +2978,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2990,13 +2992,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -3004,13 +3006,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3018,13 +3020,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3032,13 +3034,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3046,13 +3048,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3060,26 +3062,26 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3087,7 +3089,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -3101,13 +3103,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3115,13 +3117,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3129,21 +3131,21 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3151,13 +3153,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3188,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3196,7 +3198,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3204,7 +3206,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3212,7 +3214,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3223,7 +3225,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -3231,7 +3233,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3242,7 +3244,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -3250,7 +3252,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E293C89B-3222-42A0-81E2-B0FD80D9B18A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383B74AF-6689-4F3F-9A95-2ED8D658C0F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="223">
   <si>
     <t>header1</t>
   </si>
@@ -261,16 +261,6 @@
   </si>
   <si>
     <t>win10-6-27.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For your first time login, you will be asked to choose language and time zone. You may choose UTC+9 as time zone.
-  </t>
-  </si>
-  <si>
-    <t>chart flame</t>
-  </si>
-  <si>
-    <t>win10-6-06.svg</t>
   </si>
   <si>
     <t>win10-6-07.svg</t>
@@ -1459,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1475,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1489,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1527,7 +1517,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1535,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1543,7 +1533,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1551,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1571,13 +1561,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1585,13 +1575,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1599,21 +1589,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1621,24 +1611,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1646,21 +1636,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1668,13 +1658,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1682,13 +1672,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1696,21 +1686,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
@@ -1718,13 +1708,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1732,21 +1722,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1754,13 +1744,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="66" ph="1" x14ac:dyDescent="0.2">
@@ -1768,13 +1758,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1782,13 +1772,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1809,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1835,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1843,7 +1833,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -1851,7 +1841,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1865,7 +1855,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1879,7 +1869,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1907,7 +1897,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -1960,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1968,12 +1958,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -1981,7 +1971,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1995,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2023,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2065,7 +2055,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -2099,7 +2089,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2145,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2153,7 +2143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2161,7 +2151,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2222,13 +2212,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2255,13 +2245,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2283,7 +2273,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2311,13 +2301,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2325,13 +2315,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2362,7 +2352,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2378,7 +2368,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2386,7 +2376,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2394,7 +2384,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2413,13 +2403,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2432,37 +2422,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2470,13 +2460,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2495,7 +2485,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2503,21 +2493,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2525,13 +2515,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2539,13 +2529,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2553,13 +2543,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2567,13 +2557,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2581,13 +2571,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2599,10 +2589,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2634,7 +2624,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2642,7 +2632,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -2650,7 +2640,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2758,13 +2748,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2772,7 +2762,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2795,238 +2785,238 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>65</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>66</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
         <v>172</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3034,132 +3024,118 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
         <v>159</v>
       </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
       <c r="B40" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="D43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s" ph="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
         <v>92</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" t="s" ph="1">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3190,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3198,7 +3174,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3206,7 +3182,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3214,7 +3190,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3225,7 +3201,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -3233,7 +3209,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3244,7 +3220,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -3252,7 +3228,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383B74AF-6689-4F3F-9A95-2ED8D658C0F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0B826F-46F9-4629-BEBA-12A7AD2293FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,9 +253,6 @@
     <t>win10-6-04.svg</t>
   </si>
   <si>
-    <t>win10-6-05.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Office 365 applications are listed. Click &amp;quot;Outlook&amp;quot;.
   </t>
   </si>
@@ -451,11 +448,6 @@
 At that time you need to pay printing fee with MYple, Co-op&amp;apos;s electronic money put on student ID card. It costs you 4 JPY per sheet in monochrome print, and 13 JPY in color print. So you need to charge your student ID card in advance.
 You can find more information on &lt;a href="https://www.media.hiroshima-u.ac.jp/services/print/webprint"&gt;IMC web site&lt;/a&gt;
 . It&amp;apos;s Japanese only. Please check Google translation menu at the bottom of right column.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Input your &amp;quot;HIRODAI password&amp;quot; in the lower box. And click &amp;quot;Sign in&amp;quot;, blue button.
   </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1027,6 +1019,15 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="bb9"&gt;&lt;/a&gt;Bb9: Learning management system&lt;/h2&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-signin-password.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Input your &amp;quot;HIRODAI password&amp;quot;. And click &amp;quot;Sign in&amp;quot;, blue button.
+  </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1449,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1457,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1465,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1479,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1517,7 +1518,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1525,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1533,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1541,7 +1542,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1561,13 +1562,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1575,13 +1576,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1589,21 +1590,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1611,24 +1612,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1636,21 +1637,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1658,13 +1659,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1672,13 +1673,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1686,21 +1687,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
@@ -1708,13 +1709,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1722,21 +1723,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1744,13 +1745,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="66" ph="1" x14ac:dyDescent="0.2">
@@ -1758,13 +1759,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1772,13 +1773,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1809,7 +1810,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1825,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1833,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -1841,7 +1842,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1855,7 +1856,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1869,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1897,7 +1898,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -1950,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1958,12 +1959,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -1971,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1985,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2013,7 +2014,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2055,7 +2056,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -2089,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2135,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2143,7 +2144,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2151,7 +2152,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2212,13 +2213,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2245,13 +2246,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2273,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2301,13 +2302,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2315,13 +2316,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2352,7 +2353,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2368,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2376,7 +2377,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2384,7 +2385,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2403,13 +2404,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2422,37 +2423,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2460,13 +2461,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2485,7 +2486,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2493,21 +2494,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2515,13 +2516,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2529,13 +2530,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2543,13 +2544,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2557,13 +2558,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2571,13 +2572,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2592,7 +2593,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2624,7 +2625,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2632,7 +2633,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -2640,7 +2641,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2748,13 +2749,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2762,13 +2763,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2776,13 +2777,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -2790,13 +2791,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2804,13 +2805,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2818,18 +2819,18 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>67</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2851,13 +2852,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2865,13 +2866,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2879,18 +2880,18 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
         <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2912,13 +2913,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
         <v>75</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2926,13 +2927,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>77</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2940,13 +2941,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>79</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2954,13 +2955,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2968,13 +2969,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>82</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -2982,13 +2983,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2996,13 +2997,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3010,13 +3011,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3024,13 +3025,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3038,26 +3039,26 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3065,7 +3066,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -3079,13 +3080,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3093,13 +3094,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3107,21 +3108,21 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3129,13 +3130,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3166,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3174,7 +3175,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3182,7 +3183,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3190,7 +3191,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3201,7 +3202,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -3209,7 +3210,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3220,7 +3221,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -3228,7 +3229,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0B826F-46F9-4629-BEBA-12A7AD2293FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518208DC-F024-448F-9799-7D03F5885CCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -798,10 +798,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-6-41.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-6-35.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1029,6 +1025,9 @@
     <t xml:space="preserve">Input your &amp;quot;HIRODAI password&amp;quot;. And click &amp;quot;Sign in&amp;quot;, blue button.
   </t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-hirodai-login.png</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1458,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1466,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1518,7 +1517,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1534,7 +1533,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1542,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1568,7 +1567,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1596,15 +1595,15 @@
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1618,18 +1617,18 @@
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1643,15 +1642,15 @@
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1665,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1673,13 +1672,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1687,13 +1686,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1701,7 +1700,7 @@
         <v>163</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
@@ -1715,7 +1714,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1729,7 +1728,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1759,13 +1758,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1773,7 +1772,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
@@ -1826,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1834,7 +1833,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -1842,7 +1841,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1856,7 +1855,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1951,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1959,7 +1958,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2136,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2144,7 +2143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2369,7 +2368,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2377,7 +2376,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2505,7 +2504,7 @@
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D18" t="s">
         <v>135</v>
@@ -2516,13 +2515,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>205</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2536,7 +2535,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2544,13 +2543,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2592,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2625,7 +2624,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2633,7 +2632,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -2641,7 +2640,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2755,7 +2754,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2763,13 +2762,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2891,7 +2890,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2961,7 +2960,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2983,7 +2982,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -2997,7 +2996,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -3050,10 +3049,10 @@
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -3175,7 +3174,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3183,7 +3182,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518208DC-F024-448F-9799-7D03F5885CCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EB1FFD-028B-457C-A106-B309D0952132}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,13 +246,6 @@
     <t>win10-6-03.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Click &amp;quot;Office 365 portal&amp;quot; (Office365ポータル).
-  </t>
-  </si>
-  <si>
-    <t>win10-6-04.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Office 365 applications are listed. Click &amp;quot;Outlook&amp;quot;.
   </t>
   </si>
@@ -1028,6 +1021,13 @@
   </si>
   <si>
     <t>ch5-hirodai-login.png</t>
+  </si>
+  <si>
+    <t>office365-portal.png</t>
+  </si>
+  <si>
+    <t>Click the link to portal.office.com.</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1449,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1457,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1465,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1479,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1517,7 +1517,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1533,7 +1533,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1541,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1561,13 +1561,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1575,13 +1575,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1589,21 +1589,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1611,24 +1611,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1636,21 +1636,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1658,13 +1658,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1672,13 +1672,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1686,21 +1686,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
@@ -1708,13 +1708,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1722,21 +1722,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1744,13 +1744,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="66" ph="1" x14ac:dyDescent="0.2">
@@ -1758,13 +1758,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1772,13 +1772,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1809,7 +1809,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1825,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1833,7 +1833,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -1841,7 +1841,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1855,7 +1855,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1869,7 +1869,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1897,7 +1897,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -1950,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1958,12 +1958,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -1971,7 +1971,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1985,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2013,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2055,7 +2055,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -2089,7 +2089,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2135,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2143,7 +2143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2151,7 +2151,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2212,13 +2212,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2245,13 +2245,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2273,7 +2273,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2301,13 +2301,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2315,13 +2315,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2352,7 +2352,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2368,7 +2368,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2376,7 +2376,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2384,7 +2384,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2403,13 +2403,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2422,37 +2422,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2460,13 +2460,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2485,7 +2485,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2493,21 +2493,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2515,13 +2515,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2529,13 +2529,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2543,13 +2543,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2557,13 +2557,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2571,13 +2571,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2591,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2624,7 +2624,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2632,7 +2632,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -2640,7 +2640,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2729,18 +2729,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2748,13 +2748,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2762,13 +2762,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2776,13 +2776,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -2790,13 +2790,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2804,13 +2804,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2818,18 +2818,18 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2851,13 +2851,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2865,13 +2865,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2879,18 +2879,18 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2912,13 +2912,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2926,13 +2926,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2940,13 +2940,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2954,13 +2954,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2968,13 +2968,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -2982,13 +2982,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2996,13 +2996,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3010,13 +3010,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3024,13 +3024,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3038,26 +3038,26 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3065,7 +3065,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -3079,13 +3079,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3093,13 +3093,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3107,21 +3107,21 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3129,13 +3129,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3174,7 +3174,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3182,7 +3182,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3190,7 +3190,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -3209,7 +3209,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -3228,7 +3228,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EB1FFD-028B-457C-A106-B309D0952132}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADCC3A7-747C-41DB-8AB6-AB0EB3E59598}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="221">
   <si>
     <t>header1</t>
   </si>
@@ -287,11 +287,6 @@
     <t>win10-6-12.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Let us go back to MOMIJI top page again. This time, click &amp;quot;Bb9&amp;quot; banner.
-Bb9 is the name of learning management system in Hiroshima University. You may view course materials, answer tests, or submit assignments on Bb9.
-  </t>
-  </si>
-  <si>
     <t>win10-6-13.svg</t>
   </si>
   <si>
@@ -329,14 +324,6 @@
   <si>
     <t xml:space="preserve">Contents in this section will not be introduced in this lecture. You can read them later.
  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile app
-You can use Bb9 mobiles apps. Search &amp;quot;Blackboard&amp;quot; on iOS App Store or Android Google play.
-  </t>
-  </si>
-  <si>
-    <t>bb9-app.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">OneDrive
@@ -1027,6 +1014,12 @@
   </si>
   <si>
     <t>Click the link to portal.office.com.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Let us go back to MOMIJI top page again. This time, click &amp;quot;Bb9&amp;quot; banner.
+Bb9 is the name of learning management system in Hiroshima University. You may view course materials, answer tests, or submit assignments on Bb9.
+(The application to use Bb9 from the mobile device is now being prepared for the release after late April)  </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1449,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1457,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1465,7 +1458,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1479,7 +1472,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1517,7 +1510,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1525,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1533,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1541,7 +1534,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1561,13 +1554,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1575,13 +1568,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1589,21 +1582,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1611,24 +1604,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1636,21 +1629,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1658,13 +1651,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1672,13 +1665,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1686,21 +1679,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
@@ -1708,13 +1701,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1722,21 +1715,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1744,13 +1737,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="66" ph="1" x14ac:dyDescent="0.2">
@@ -1758,13 +1751,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1772,13 +1765,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1809,7 +1802,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1825,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1833,7 +1826,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -1841,7 +1834,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1855,7 +1848,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1869,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1897,7 +1890,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -1950,7 +1943,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1958,12 +1951,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -1971,7 +1964,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1985,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2013,7 +2006,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2055,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -2089,7 +2082,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2135,7 +2128,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2143,7 +2136,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2151,7 +2144,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2212,13 +2205,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2245,13 +2238,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2273,7 +2266,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2301,13 +2294,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2315,13 +2308,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2352,7 +2345,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2368,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2376,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2384,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2403,13 +2396,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2422,37 +2415,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2460,13 +2453,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2485,7 +2478,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2493,21 +2486,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2515,13 +2508,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2529,13 +2522,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2543,13 +2536,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2557,13 +2550,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2571,13 +2564,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2589,10 +2582,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2624,7 +2617,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2632,7 +2625,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -2640,7 +2633,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2734,13 +2727,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2748,13 +2741,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2762,13 +2755,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2790,7 +2783,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -2804,7 +2797,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2865,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -2890,7 +2883,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2912,13 +2905,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
         <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2926,13 +2919,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2940,13 +2933,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2954,13 +2947,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2968,13 +2961,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>79</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -2982,13 +2975,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2996,13 +2989,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3010,13 +3003,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3024,13 +3017,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
         <v>153</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3038,26 +3031,26 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3065,7 +3058,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -3079,63 +3072,49 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" t="s" ph="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
         <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" t="s" ph="1">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3166,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3174,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3182,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3190,7 +3169,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3201,7 +3180,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -3209,7 +3188,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3220,7 +3199,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -3228,7 +3207,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADCC3A7-747C-41DB-8AB6-AB0EB3E59598}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE716D-4A31-432C-BA38-5AC01BE7E218}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2584,7 +2584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE716D-4A31-432C-BA38-5AC01BE7E218}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0132AAC4-BAB4-4708-A4C2-0B4309948798}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -462,11 +462,6 @@
   </si>
   <si>
     <t xml:space="preserve">Know your PC&amp;apos;s basic spec, such as type of CPU, type of your Windows10, storage capacity of your PC. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>In this chaper, we explain how to connect your PC to HINET Wi-Fi (Wi-Fi network in Hiroshima Univ,).
-If you can connect your PC to Internet already, you may use it now and go on next chapter.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1020,6 +1015,11 @@
     <t xml:space="preserve">Let us go back to MOMIJI top page again. This time, click &amp;quot;Bb9&amp;quot; banner.
 Bb9 is the name of learning management system in Hiroshima University. You may view course materials, answer tests, or submit assignments on Bb9.
 (The application to use Bb9 from the mobile device is now being prepared for the release after late April)  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In this chaper, we explain how to connect your PC to HINET Wi-Fi (Wi-Fi network in Hiroshima Univ,).
+If you can connect your PC to Internet already, you may use it now and go on next chapter. The procesure in below should be operated after April 2nd, the day all related services are enabled.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1442,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1450,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1458,7 +1458,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1472,7 +1472,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1510,7 +1510,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1526,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1534,7 +1534,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1554,13 +1554,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1568,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -1582,21 +1582,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1604,24 +1604,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1629,21 +1629,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1651,13 +1651,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1665,13 +1665,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1679,21 +1679,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
@@ -1701,13 +1701,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1715,18 +1715,18 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D21" t="s" ph="1">
         <v>95</v>
@@ -1737,7 +1737,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
@@ -1751,13 +1751,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1765,13 +1765,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1826,7 +1826,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -1834,7 +1834,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1848,7 +1848,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1910,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1943,7 +1943,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1951,12 +1951,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -1964,7 +1964,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1978,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2006,7 +2006,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2128,7 +2128,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2136,7 +2136,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2144,7 +2144,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2205,7 +2205,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -2266,7 +2266,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2308,7 +2308,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2345,7 +2345,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2361,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2369,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2377,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2396,13 +2396,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2415,37 +2415,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2453,13 +2453,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2478,7 +2478,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2486,21 +2486,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2508,13 +2508,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>199</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2522,13 +2522,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2536,13 +2536,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2550,7 +2550,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -2564,13 +2564,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2584,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B28" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2617,7 +2617,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2625,7 +2625,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -2633,7 +2633,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2727,13 +2727,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2747,7 +2747,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2755,13 +2755,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2783,7 +2783,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -2797,7 +2797,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2858,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2905,7 +2905,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -2953,7 +2953,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2975,7 +2975,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -2989,13 +2989,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3003,13 +3003,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3017,13 +3017,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3031,21 +3031,21 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
         <v>151</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -3100,7 +3100,7 @@
         <v>107</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3153,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3161,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3188,7 +3188,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3207,7 +3207,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_04\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0132AAC4-BAB4-4708-A4C2-0B4309948798}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E45384-9BB8-4EF5-8536-B266EE1B6091}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -618,28 +618,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">If you are in trouble when you use your PC, don&amp;apos;t hesitate to make a inquiry to IMC.
-&lt;dl&gt;&lt;dt&gt;At IMC: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&amp;ast; Startup workshop (Apr.4-8, for detail, see below URL)&lt;/dd&gt;
-&lt;dd&gt;&lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;&lt;/dd&gt;
-&lt;dd&gt;&amp;ast; Special QA Support (Apr.4 12:30-15:30, Apr.5 9:00-17:00)&lt;/dd&gt;
-&lt;dd&gt;IMC main building&lt;/dd&gt;
-&lt;dd&gt;&amp;ast; Support Desks (9:00-16:30 Weekday)&lt;/dd&gt;
-&lt;dd&gt;IMC main building, IMC east branch in East Library, IMC service desk in West Library and Central Library, IMC Kasumi branch&lt;/dd&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;Access map&lt;/a&gt;&lt;/dd&gt;
-&lt;dt&gt;Online: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
-&lt;/dd&gt;
-&lt;dt&gt;Mail: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;
-&lt;/dd&gt; &lt;/dl&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Choose your language to use in your PC. You may choose &amp;quot;English&amp;quot;.
 Click &amp;quot;Yes&amp;quot;.
   </t>
@@ -1020,6 +998,28 @@
   <si>
     <t>In this chaper, we explain how to connect your PC to HINET Wi-Fi (Wi-Fi network in Hiroshima Univ,).
 If you can connect your PC to Internet already, you may use it now and go on next chapter. The procesure in below should be operated after April 2nd, the day all related services are enabled.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are in trouble when you use your PC, don&amp;apos;t hesitate to make a inquiry to IMC.
+&lt;dl&gt;&lt;dt&gt;At IMC: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&amp;ast; Startup workshop (Apr.5-7, for detail, see below URL)&lt;/dd&gt;
+&lt;dd&gt;&lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;&lt;/dd&gt;
+&lt;dd&gt;&amp;ast; Special QA Support (Apr.5-7 9:00-17:00)&lt;/dd&gt;
+&lt;dd&gt;IMC main building&lt;/dd&gt;
+&lt;dd&gt;&amp;ast; Support Desks (9:00-16:30 Weekday)&lt;/dd&gt;
+&lt;dd&gt;IMC main building, IMC east branch in East Library, IMC service desk in West Library and Central Library, IMC Kasumi branch&lt;/dd&gt;
+&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;Access map&lt;/a&gt;&lt;/dd&gt;
+&lt;dt&gt;Online: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
+&lt;/dd&gt;
+&lt;dt&gt;Mail: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;
+&lt;/dd&gt; &lt;/dl&gt;
+ </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1442,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1450,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1458,7 +1458,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1472,7 +1472,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1510,7 +1510,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1526,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1534,7 +1534,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1554,13 +1554,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1568,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -1582,21 +1582,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1604,24 +1604,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1629,21 +1629,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1657,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1665,13 +1665,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1679,21 +1679,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
@@ -1701,13 +1701,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1715,18 +1715,18 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D21" t="s" ph="1">
         <v>95</v>
@@ -1737,7 +1737,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
@@ -1751,13 +1751,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1765,13 +1765,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1826,7 +1826,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -1834,7 +1834,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1848,7 +1848,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1910,7 +1910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1943,7 +1943,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1951,12 +1951,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2128,7 +2128,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2136,7 +2136,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2205,7 +2205,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -2266,7 +2266,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2308,7 +2308,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2361,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2369,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2497,7 +2497,7 @@
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
         <v>129</v>
@@ -2508,13 +2508,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>198</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2528,7 +2528,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2536,13 +2536,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2617,7 +2617,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2625,7 +2625,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -2633,7 +2633,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2727,13 +2727,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2747,7 +2747,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2755,13 +2755,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2783,7 +2783,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -2797,7 +2797,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2858,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2905,7 +2905,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -2953,7 +2953,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2975,7 +2975,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -2989,13 +2989,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3003,13 +3003,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3017,13 +3017,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3031,21 +3031,21 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
         <v>150</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -3100,7 +3100,7 @@
         <v>107</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3128,8 +3128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3153,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3161,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3188,7 +3188,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_04\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E45384-9BB8-4EF5-8536-B266EE1B6091}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E479151-A472-4CB0-AAF7-C7ED08DEE80D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1004,13 +1004,8 @@
     <t xml:space="preserve">If you are in trouble when you use your PC, don&amp;apos;t hesitate to make a inquiry to IMC.
 &lt;dl&gt;&lt;dt&gt;At IMC: &lt;/dt&gt;
 &lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&amp;ast; Startup workshop (Apr.5-7, for detail, see below URL)&lt;/dd&gt;
-&lt;dd&gt;&lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;&lt;/dd&gt;
-&lt;dd&gt;&amp;ast; Special QA Support (Apr.5-7 9:00-17:00)&lt;/dd&gt;
-&lt;dd&gt;IMC main building&lt;/dd&gt;
-&lt;dd&gt;&amp;ast; Support Desks (9:00-16:30 Weekday)&lt;/dd&gt;
-&lt;dd&gt;IMC main building, IMC east branch in East Library, IMC service desk in West Library and Central Library, IMC Kasumi branch&lt;/dd&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;Access map&lt;/a&gt;&lt;/dd&gt;
+&lt;dd&gt;&amp;ast; Startup workshop (for detail, see below URL)&lt;/dd&gt;
+&lt;dd&gt;&lt;a href="https://www.hiroshima-u.ac.jp/about/initiatives/jyoho_ka/hikkei_pc"&gt;https://www.hiroshima-u.ac.jp/about/initiatives/jyoho_ka/hikkei_pc&lt;/a&gt;&lt;/dd&gt;
 &lt;dt&gt;Online: &lt;/dt&gt;
 &lt;dt&gt; &lt;/dt&gt;
 &lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
@@ -3183,7 +3178,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="264" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="198" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_04\fresta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E479151-A472-4CB0-AAF7-C7ED08DEE80D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{1E479151-A472-4CB0-AAF7-C7ED08DEE80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E75A4FA4-27EF-49CC-B7B9-E03B1F97E37C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8992" yWindow="1200" windowWidth="16216" windowHeight="13590" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="ch0" sheetId="9" r:id="rId2"/>
     <sheet name="ch1" sheetId="3" r:id="rId3"/>
-    <sheet name="ch2" sheetId="5" r:id="rId4"/>
-    <sheet name="ch3" sheetId="6" r:id="rId5"/>
-    <sheet name="ch4" sheetId="4" r:id="rId6"/>
+    <sheet name="ch2" sheetId="10" r:id="rId4"/>
+    <sheet name="ch3" sheetId="4" r:id="rId5"/>
+    <sheet name="ch4" sheetId="11" r:id="rId6"/>
     <sheet name="ch5" sheetId="7" r:id="rId7"/>
-    <sheet name="ch6" sheetId="8" r:id="rId8"/>
+    <sheet name="ch6" sheetId="5" r:id="rId8"/>
+    <sheet name="ch7" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="240">
   <si>
     <t>header1</t>
   </si>
@@ -356,9 +357,6 @@
     <t>&lt;h3&gt;Helpdesk&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>&lt;h3&gt;F3S workshop&lt;/h3&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Look carefully at &amp;quot;About&amp;quot; page.
 &amp;quot;Edition&amp;quot; entry under &amp;quot;Windows Specifications&amp;quot; tells you what kind of Windows your PC is running. In this case, your PC is running &amp;quot;Windows 10 Pro&amp;quot;. And &amp;quot;Version&amp;quot; entry gives you the detailed version number of your Windows10.&lt;span class="check"&gt;check-1&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
@@ -580,15 +578,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">For your better PC life, IMC holds F3S, First Three Steps, Workshops. 
-In the workshop, you may get some useful knowledge or technique to use your PC. Join us if you are interested in the themes. 
-&lt;ul&gt;&lt;li&gt;&lt;a href="https://f3s.riise.hiroshima-u.ac.jp"&gt;https://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
- &lt;/li&gt;
-&lt;/ul&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Now you can see the list of Wi-Fi AP (access points) which your PC can detect. Choose Wi-Fi AP named like &amp;quot;HU-CUPxx&amp;quot;. Here, each x represents a number. The two-digit number is different from the area in the campus. For examples, you will find &amp;quot;HU-CUP30&amp;quot; near School of Integrated Arts and Sciences, &amp;quot;HU-CUP40&amp;quot; in Kasumi campus, or &amp;quot;HU-CUP50&amp;quot; in Higashisneda campus.
 &lt;p class="spl"&gt;&amp;ast; If your PC could not detect Wi-Fi AP named &amp;quot;HU-CUPxx&amp;quot; in classroom, it possiblly does not meet system requirement, it should support 5GHz Wi-Fi. Please contact IMC staff.&lt;/p&gt;
   </t>
@@ -606,11 +595,6 @@
     <t xml:space="preserve">The window says, &amp;quot;We&amp;apos;ll be done in just a moment.&amp;quot; Wait &lt;it&gt;a few&lt;/it&gt; minutes.
 Click &amp;quot;Finish&amp;quot;.
   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Run &amp;quot;Excel&amp;quot; in your PC.
-&lt;p class="spl"&gt; * If you cannot run &amp;quot;Excel&amp;quot; for now, you have to download Office to your PC. Please contact helpdesk. See chapter 6. &lt;/p&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -755,10 +739,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>If you turn on your PC for the first time, follow this chapter to see your Desktop in your PC.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Microsoft Teams will run automatically. Click x at right up in the window to close the application for now.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -779,22 +759,6 @@
 Click &amp;quot;Sign in&amp;quot;,
 &lt;p class="spl"&gt;* If you can use Excel without seeing any prompt to sign in,  go on next chapter.&lt;/p&gt;
   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Windows10&lt;/h3&gt;
-Mar. 2021&lt;br&gt;
- Information Media Center, Hiroshima University&lt;br&gt;
- Hiroshima Univesity Coop shop 
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win10 chap.0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -875,19 +839,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Input HIRODAI mailaddress（b21xxxxx@hiroshima-u.ac.jp）and click &amp;quot;Next&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ch4-excel-signin.png</t>
   </si>
   <si>
     <t>ch4-excel-signin-password.png</t>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win10en chap.1</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">First of all, you will learn how to know your PC&amp;apos;s &amp;quot;spec&amp;quot;. Sometimes the word &amp;quot;spec&amp;quot; indicates some features which tell you the capability of your PC. Here, find these specs in the list below;
@@ -904,30 +859,6 @@
 &lt;p class="spl"&gt;* &amp;quot;Right-click&amp;quot; means to press right-hand button on a computer mouse. Then, how to accomplish right-click in the case of Surface without a mouse? Tap the lower right corner of the touch pad. Or tap the screen little longer. Or press the side button of the pen and tap the screen.&lt;/p&gt;
 When Start menu appears, find &amp;quot;System&amp;quot; in the menu and click it.
    </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win10en chap.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win10en chap.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win10en chap.4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win10en chap.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win10en conclusion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;If you have finished to set/check your PC with Chapter 1 to &lt;it&gt;here&lt;/it&gt; of this startup instruction, let&amp;apos;s open the Bb9 course &amp;quot;Laptop checklist 2021&amp;quot;, and submit the checklist!&lt;/strong&gt; </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1015,6 +946,158 @@
 &lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;
 &lt;/dd&gt; &lt;/dl&gt;
  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;Windows10&lt;/h3&gt;
+Mar. 2022&lt;br&gt;
+ Information Media Center, Hiroshima University&lt;br&gt;
+ Hiroshima Univesity Coop shop 
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10 chap.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you turn on your PC for the first time, follow this chapter to see your Desktop in your PC.
+&lt;strong&gt;(*) If you have purchased your Windows PC from Hirodai COOP, please follow the initial setup instrucrion from the shop, and start this workshop from chapter 1.&lt;/strong&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10en chap.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10en chap.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The procedures described in this and later chapters require the Internetworking environment, please connect your computer to the network. If you don't have the network, please refer Chapter 6 and connect to Wi-Fi in Hiroshima University. The procesure in below should be operated after April 1st, the day all related services are enabled.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10en chap.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Input HIRODAI mailaddress（b22xxxxx@hiroshima-u.ac.jp）and click &amp;quot;Next&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fresta</t>
+  </si>
+  <si>
+    <t>moodle-login.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hirodaiID-login.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-top.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10en chap.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Let us login to the learning management system "HIRODAI moodle"
+ &lt;ul&gt;
+&lt;li&gt;&lt;a href="#moodle"&gt;login to "HIRODAI moodle"&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mfa"&gt;setup multi-factor authentication(MFA)&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;You need your HIRODAI ID(student ID) and HIRODAI Password to go on this chapter.&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>Follow the link to access "HIRODAI moodle".
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
+Click "Login by HIRODAI ID"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Input HIRODAI ID(your student number) to the "User Name" box, and input your HIRODAI password to the "Password" box.
+ (*) This login form may be skipped. This is a normal behavier, so please go on.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm that you can see a page similar to this pic.&lt;span class="check"&gt;check-8&lt;/span&gt;
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mfa"&gt;&lt;/a&gt;setup multi-factor authentication(MFA)&lt;/h2&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "How to setup MFA" in "HIRODAI moodle", and read the instruction in the course.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Follow the instruction to setup MFA of your IMC account.&lt;span class="check"&gt;check-9&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Follow the instruction to setup MFA of your HIRODAI ID.&lt;span class="check"&gt;check-10&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"HIRODAI moodle", and setup MFA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login to the LMS "HIRODAI moodle", and setup multi-factor authentication(MFA) of your IMC account and HIRODAI ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10en chap.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Run &amp;quot;Excel&amp;quot; in your PC.
+&lt;p class="spl"&gt; * If you cannot run &amp;quot;Excel&amp;quot; for now, you have to download Office to your PC. You can sign in to Office 365 on the Web, and install your Office desktop apps from the top page of your Office 365. See chapter 5. &lt;/p&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10en chap.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10en conclusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;If you have finished to set/check your PC with Chapter 1 to &lt;it&gt;here&lt;/it&gt; of this startup instruction, let&amp;apos;s open the HIRODAI moodle course &amp;quot;Laptop checklist 2022&amp;quot;, and submit the checklist!&lt;/strong&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Submit the Laptop checklist&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit the Laptop checklist: Helpdesk information </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Follor this link HIRODAI moodle to login by your HIRODAI ID.
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Submit the Laptop checklist.&lt;/strong&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1413,10 +1496,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -1424,7 +1507,7 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1432,28 +1515,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1462,12 +1545,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1487,52 +1570,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1" phonetic="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1" phonetic="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1" phonetic="1"/>
-    <col min="5" max="16384" width="8.77734375" phonetic="1"/>
+    <col min="5" max="16384" width="8.796875" phonetic="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="51" ph="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s" ph="1">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s" ph="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s" ph="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s" ph="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s" ph="1">
         <v>4</v>
       </c>
@@ -1544,229 +1627,229 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51" ph="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="66" ph="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="63.75" ph="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1781,10 +1864,10 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -1792,15 +1875,15 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1808,28 +1891,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1838,12 +1921,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1852,12 +1935,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1866,7 +1949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1880,12 +1963,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -1902,14 +1985,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4804C742-A9A0-451E-9571-F0E1882D4FEC}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -1917,184 +2000,237 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -2102,214 +2238,237 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="153" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
       <c r="D12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
         <v>98</v>
       </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>106</v>
+    </row>
+    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2320,14 +2479,169 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575F79BE-20B6-421E-8137-BA7093D36AA2}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -2335,44 +2649,44 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="204" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2381,268 +2695,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B28" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2656,7 +2714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2670,7 +2728,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2684,12 +2742,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2703,7 +2761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2717,49 +2775,49 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2773,12 +2831,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -2787,12 +2845,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2801,7 +2859,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2815,12 +2873,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2834,7 +2892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2848,12 +2906,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -2862,7 +2920,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2876,12 +2934,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2895,12 +2953,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -2909,7 +2967,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2923,7 +2981,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2937,7 +2995,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2948,10 +3006,10 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2965,12 +3023,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -2979,76 +3037,68 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
         <v>147</v>
       </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D38" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -3062,21 +3112,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -3090,15 +3140,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3120,14 +3170,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -3135,79 +3185,279 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="198" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="12" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>4</v>
       </c>
     </row>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{1E479151-A472-4CB0-AAF7-C7ED08DEE80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E75A4FA4-27EF-49CC-B7B9-E03B1F97E37C}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{1E479151-A472-4CB0-AAF7-C7ED08DEE80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A03F9507-E01B-4D25-9F9A-CA4D21DE644E}"/>
   <bookViews>
-    <workbookView xWindow="8992" yWindow="1200" windowWidth="16216" windowHeight="13590" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="1148" windowWidth="17205" windowHeight="14159" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="241">
   <si>
     <t>header1</t>
   </si>
@@ -991,9 +991,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fresta</t>
-  </si>
-  <si>
     <t>moodle-login.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1010,7 +1007,84 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Let us login to the learning management system "HIRODAI moodle"
+    <t>&lt;strong&gt;You need your HIRODAI ID(student ID) and HIRODAI Password to go on this chapter.&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>Follow the link to access "HIRODAI moodle".
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
+Click "Login by HIRODAI ID"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Input HIRODAI ID(your student number) to the "User Name" box, and input your HIRODAI password to the "Password" box.
+ (*) This login form may be skipped. This is a normal behavier, so please go on.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm that you can see a page similar to this pic.&lt;span class="check"&gt;check-8&lt;/span&gt;
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mfa"&gt;&lt;/a&gt;setup multi-factor authentication(MFA)&lt;/h2&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "How to setup MFA" in "HIRODAI moodle", and read the instruction in the course.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Follow the instruction to setup MFA of your IMC account.&lt;span class="check"&gt;check-9&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Follow the instruction to setup MFA of your HIRODAI ID.&lt;span class="check"&gt;check-10&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"HIRODAI moodle", and setup MFA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10en chap.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Run &amp;quot;Excel&amp;quot; in your PC.
+&lt;p class="spl"&gt; * If you cannot run &amp;quot;Excel&amp;quot; for now, you have to download Office to your PC. You can sign in to Office 365 on the Web, and install your Office desktop apps from the top page of your Office 365. See chapter 5. &lt;/p&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10en chap.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10en conclusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Submit the Laptop checklist&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit the Laptop checklist: Helpdesk information </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Follor this link HIRODAI moodle to login by your HIRODAI ID.
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Submit the Laptop checklist.&lt;/strong&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login to the LMS "HIRODAI moodle", and setup multi-factor authentication(MFA) of your IMC account and HIRODAI ID.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Let us login to the learning management system "HIRODAI moodle" and setup MFA.
  &lt;ul&gt;
 &lt;li&gt;&lt;a href="#moodle"&gt;login to "HIRODAI moodle"&lt;/a&gt;
 &lt;/li&gt;
@@ -1020,84 +1094,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;strong&gt;You need your HIRODAI ID(student ID) and HIRODAI Password to go on this chapter.&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>Follow the link to access "HIRODAI moodle".
-&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
-Click "Login by HIRODAI ID"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Input HIRODAI ID(your student number) to the "User Name" box, and input your HIRODAI password to the "Password" box.
- (*) This login form may be skipped. This is a normal behavier, so please go on.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirm that you can see a page similar to this pic.&lt;span class="check"&gt;check-8&lt;/span&gt;
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mfa"&gt;&lt;/a&gt;setup multi-factor authentication(MFA)&lt;/h2&gt; </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Click "How to setup MFA" in "HIRODAI moodle", and read the instruction in the course.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Follow the instruction to setup MFA of your IMC account.&lt;span class="check"&gt;check-9&lt;/span&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Follow the instruction to setup MFA of your HIRODAI ID.&lt;span class="check"&gt;check-10&lt;/span&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"HIRODAI moodle", and setup MFA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Login to the LMS "HIRODAI moodle", and setup multi-factor authentication(MFA) of your IMC account and HIRODAI ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Win10en chap.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Run &amp;quot;Excel&amp;quot; in your PC.
-&lt;p class="spl"&gt; * If you cannot run &amp;quot;Excel&amp;quot; for now, you have to download Office to your PC. You can sign in to Office 365 on the Web, and install your Office desktop apps from the top page of your Office 365. See chapter 5. &lt;/p&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Win10en chap.6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Win10en conclusion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;If you have finished to set/check your PC with Chapter 1 to &lt;it&gt;here&lt;/it&gt; of this startup instruction, let&amp;apos;s open the HIRODAI moodle course &amp;quot;Laptop checklist 2022&amp;quot;, and submit the checklist!&lt;/strong&gt; </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Submit the Laptop checklist&lt;/h2&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Submit the Laptop checklist: Helpdesk information </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Follor this link HIRODAI moodle to login by your HIRODAI ID.
-&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;strong&gt;Submit the Laptop checklist.&lt;/strong&gt;</t>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="moodle"&gt;&lt;/a&gt;login to "HIRODAI moodle"(MFA)&lt;/h2&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you have finished to set/check your PC with Chapter 1 to &lt;it&gt;here&lt;/it&gt; of this startup instruction, let&amp;apos;s open the HIRODAI moodle course &amp;quot;Laptop checklist 2022&amp;quot;, and submit the checklist.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Now you can finish this workshop by submitting the Laptop checklist from HIRODAI moodle!&lt;/strong&gt; Also, here is helpdesk information.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2226,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2384,7 +2389,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -2480,10 +2485,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575F79BE-20B6-421E-8137-BA7093D36AA2}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2499,7 +2504,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2507,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2515,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2523,7 +2528,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2534,7 +2539,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2550,59 +2555,53 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2610,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2621,9 +2620,20 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2637,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2678,7 +2688,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="204" x14ac:dyDescent="0.25">
@@ -3173,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3214,7 +3224,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -3356,10 +3366,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3375,7 +3385,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3399,65 +3409,70 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" t="s">
-        <v>162</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
+      </c>
+      <c r="D9" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
       <c r="B10" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>4</v>
       </c>
     </row>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{1E479151-A472-4CB0-AAF7-C7ED08DEE80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A03F9507-E01B-4D25-9F9A-CA4D21DE644E}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{1E479151-A472-4CB0-AAF7-C7ED08DEE80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB7D3227-8B57-41E0-823D-8F70996A32A3}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="1148" windowWidth="17205" windowHeight="14159" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="240">
   <si>
     <t>header1</t>
   </si>
@@ -732,10 +732,6 @@
     <t xml:space="preserve">You are going to prepare your PC for your study life at Hiroshima University during this lecture. Here is the list of what you are going to do at this workshop.
 &lt;ol&gt; &lt;/ol&gt;
 * Some screenshots in this text are displayed in Japanese. Sorry for inconvenience. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-35.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1525,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1533,7 +1529,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -1541,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1593,7 +1589,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1609,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1617,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1643,7 +1639,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1671,15 +1667,15 @@
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1693,18 +1689,18 @@
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
@@ -1718,15 +1714,15 @@
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1740,7 +1736,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
@@ -1748,13 +1744,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1762,13 +1758,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1776,7 +1772,7 @@
         <v>153</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="51" ph="1" x14ac:dyDescent="0.25">
@@ -1790,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1804,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1834,13 +1830,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1848,7 +1844,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
@@ -1901,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1909,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -1917,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1931,7 +1927,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2026,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2034,12 +2030,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -2232,7 +2228,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2264,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2272,7 +2268,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
@@ -2389,7 +2385,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -2400,7 +2396,7 @@
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
         <v>128</v>
@@ -2411,13 +2407,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2431,7 +2427,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2439,13 +2435,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -2504,7 +2500,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2512,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2520,7 +2516,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2528,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2539,7 +2535,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2555,20 +2551,20 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -2576,13 +2572,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2590,18 +2586,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2609,7 +2605,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2620,7 +2616,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -2631,7 +2627,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2680,7 +2676,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2688,7 +2684,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="204" x14ac:dyDescent="0.25">
@@ -2696,7 +2692,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2790,13 +2786,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2810,7 +2806,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2818,13 +2814,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2946,7 +2942,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2968,7 +2964,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -3016,7 +3012,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -3038,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -3052,7 +3048,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -3216,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3224,12 +3220,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -3369,7 +3365,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3385,7 +3381,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3401,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3409,38 +3405,35 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3467,7 +3460,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{1E479151-A472-4CB0-AAF7-C7ED08DEE80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB7D3227-8B57-41E0-823D-8F70996A32A3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41E91B7-DB44-4C5D-9BD2-94D3A1513547}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1148" windowWidth="17205" windowHeight="14159" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3516" yWindow="1152" windowWidth="17208" windowHeight="14160" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="ch5" sheetId="7" r:id="rId7"/>
     <sheet name="ch6" sheetId="5" r:id="rId8"/>
     <sheet name="ch7" sheetId="8" r:id="rId9"/>
+    <sheet name="ch8" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="254">
   <si>
     <t>header1</t>
   </si>
@@ -488,15 +489,6 @@
 &lt;/li&gt;
  &lt;/ul&gt;
  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;You need your HIRODAI ID(student ID) and HIRODAI Password to go on this chapter.&lt;/strong&gt;
-Again, you need to remember that there are two IDs to use information services provided by Hiroshima University. These IDs are based on student number.
-One of them is called HIRODAI ID, which looks same to student number. The other is &amp;quot;IMC account&amp;quot;, which looks little bit different from student number. The first letter of student number is capital, whereas that of &amp;quot;IMC account&amp;quot; is in lowercase.
-Both IDs share password. It is called &amp;quot;HIRODAI password&amp;quot;. You will know it when you get your ID card.
-Adding &amp;quot;@hiroshima-u.ac.jp&amp;quot; behind your &amp;quot;IMC account&amp;quot;, you will get your email address as a student in Hiroshima University. The email address is called &amp;quot;HIRODAI mail address&amp;quot;. Teachers or staffs in Hiroshima University may send emails to the email address. Check your email box frequently. You will learn how to check it in Chapter 5.
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1055,10 +1047,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2022 Win10en conclusion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h2&gt;Submit the Laptop checklist&lt;/h2&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1099,6 +1087,71 @@
   </si>
   <si>
     <t>&lt;strong&gt;Now you can finish this workshop by submitting the Laptop checklist from HIRODAI moodle!&lt;/strong&gt; Also, here is helpdesk information.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;You need your HIRODAI ID(student ID) and HIRODAI Password to go on this chapter.&lt;/strong&gt;
+Again, you need to remember that there are two IDs to use information services provided by Hiroshima University. These IDs are based on student number.
+One of them is called HIRODAI ID, which looks same to student number. The other is &amp;quot;IMC account&amp;quot;, which looks little bit different from student number. The first letter of student number is capital, whereas that of &amp;quot;IMC account&amp;quot; is in lowercase.
+Both IDs share password. It is called &amp;quot;HIRODAI password&amp;quot;. You will know it when you get your ID card.
+Adding &amp;quot;@hiroshima-u.ac.jp&amp;quot; behind your &amp;quot;IMC account&amp;quot;, you will get your email address as a student in Hiroshima University. The email address is called &amp;quot;HIRODAI mail address&amp;quot;. Teachers or staffs in Hiroshima University may send emails to the email address. Check your email box frequently. You will learn how to check it in the Appendix.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10en chap.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Appendix: How to install Office365 application.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win11en chap.8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If your PC does not have preinstalled Office365, you can download it from your Office365 web page.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please visit a web page &lt;a href="https://www.media.hiroshima-u.ac.jp/services/webmail-portal/" target="_blank" rel="noreferrer"&gt;https://www.media.hiroshima-u.ac.jp/services/webmail-portal/&lt;/a&gt; in the media center, there is a link (a waterblue button) to &lt;a href="https://portal.office.com/" target="_blank"&gt;https://portal.office.com/&lt;/a&gt;. Please visit.there.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-imc-office365-portal.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please enter your IMC account with "@hiroshima-u.ac.jp", and password.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-ms-signin2.png</t>
+  </si>
+  <si>
+    <t>Edge would ask for the permission to store your password, please choose "never". But you can cache your sign in status by "Yes" to "Stay signed in".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-ms-signin3.png</t>
+  </si>
+  <si>
+    <t>You can find "Install Office" button on the upper right. Please click it to expand its submenu, and check "Office 365 apps". You can download the network installer onto your PC.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-office365-download.png</t>
+  </si>
+  <si>
+    <t>When you start the installer, it would ask you to confirm your decition to change your computer. After checking that the verified publisher is Microsoft, please click "Yes" to proceed the installation.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-office365-install.png</t>
+  </si>
+  <si>
+    <t>The installation itself is finished, but it is not activated yet. Please back to the chaper "Activate your Office365 app."</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1500,7 +1553,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -1508,7 +1561,7 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1516,29 +1569,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -1546,12 +1599,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1564,6 +1617,111 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095373DC-8152-4AB8-B0FD-F0060F5FB81D}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1575,24 +1733,24 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1" phonetic="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1" phonetic="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1" phonetic="1"/>
-    <col min="5" max="16384" width="8.796875" phonetic="1"/>
+    <col min="5" max="16384" width="8.77734375" phonetic="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" ph="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s" ph="1">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s" ph="1">
         <v>0</v>
       </c>
@@ -1600,23 +1758,23 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s" ph="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s" ph="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s" ph="1">
         <v>4</v>
       </c>
@@ -1628,26 +1786,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -1656,167 +1814,167 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" t="s" ph="1">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" t="s" ph="1">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" t="s" ph="1">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D14" t="s" ph="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" t="s" ph="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s" ph="1">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D18" t="s" ph="1">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="51" ph="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s" ph="1">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D21" t="s" ph="1">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
@@ -1825,32 +1983,32 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="63.75" ph="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="66" ph="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1868,7 +2026,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -1876,7 +2034,7 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1884,7 +2042,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1892,42 +2050,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1936,7 +2094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1950,7 +2108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1964,7 +2122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1993,7 +2151,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -2001,7 +2159,7 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2009,7 +2167,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2017,33 +2175,33 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2052,12 +2210,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2071,7 +2229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2085,7 +2243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2099,12 +2257,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -2113,7 +2271,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2127,12 +2285,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2146,7 +2304,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2160,12 +2318,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -2174,7 +2332,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2188,7 +2346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2202,12 +2360,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -2231,7 +2389,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -2239,7 +2397,7 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2247,7 +2405,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2255,23 +2413,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2285,83 +2443,83 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="153" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
         <v>115</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2375,81 +2533,81 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -2458,18 +2616,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2487,7 +2645,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" customWidth="1"/>
@@ -2495,47 +2653,47 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2544,90 +2702,90 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="D10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2647,7 +2805,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -2655,7 +2813,7 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2663,7 +2821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2671,28 +2829,28 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="204" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2701,12 +2859,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2720,7 +2878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2734,7 +2892,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2748,12 +2906,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2767,7 +2925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2781,21 +2939,21 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2806,24 +2964,24 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2837,12 +2995,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -2851,12 +3009,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2865,7 +3023,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2879,12 +3037,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2898,7 +3056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2912,12 +3070,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -2926,7 +3084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2940,12 +3098,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2959,12 +3117,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -2973,7 +3131,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2987,7 +3145,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -3001,7 +3159,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -3012,10 +3170,10 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -3029,12 +3187,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -3043,68 +3201,68 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
         <v>146</v>
       </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -3118,7 +3276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -3132,7 +3290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -3146,15 +3304,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3183,7 +3341,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -3191,7 +3349,7 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3199,7 +3357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3207,28 +3365,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3242,7 +3400,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3256,7 +3414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -3270,12 +3428,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3284,7 +3442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -3298,7 +3456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -3312,7 +3470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -3326,7 +3484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -3340,7 +3498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3364,11 +3522,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -3376,15 +3534,15 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3392,51 +3550,51 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="D9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -3450,17 +3608,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="198" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41E91B7-DB44-4C5D-9BD2-94D3A1513547}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECA7C07-E184-4156-89B6-79E6F3F1DB24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3516" yWindow="1152" windowWidth="17208" windowHeight="14160" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1115,10 +1115,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Please visit a web page &lt;a href="https://www.media.hiroshima-u.ac.jp/services/webmail-portal/" target="_blank" rel="noreferrer"&gt;https://www.media.hiroshima-u.ac.jp/services/webmail-portal/&lt;/a&gt; in the media center, there is a link (a waterblue button) to &lt;a href="https://portal.office.com/" target="_blank"&gt;https://portal.office.com/&lt;/a&gt;. Please visit.there.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win11en-imc-office365-portal.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1152,6 +1148,10 @@
   </si>
   <si>
     <t>The installation itself is finished, but it is not activated yet. Please back to the chaper "Activate your Office365 app."</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please visit a web page &lt;a href="https://www.media.hiroshima-u.ac.jp/services/webmail-portal/" target="_blank" rel="noreferrer"&gt;https://www.media.hiroshima-u.ac.jp/services/webmail-portal/&lt;/a&gt; in the media center, there is a link (a waterblue button) to &lt;a href="https://portal.office.com/" target="_blank"&gt;https://portal.office.com/&lt;/a&gt;. Please visit there.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1624,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095373DC-8152-4AB8-B0FD-F0060F5FB81D}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1673,18 +1673,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" t="s">
         <v>243</v>
-      </c>
-      <c r="D6" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" t="s">
         <v>245</v>
-      </c>
-      <c r="D7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -1692,36 +1692,37 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" t="s">
         <v>247</v>
-      </c>
-      <c r="D8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" t="s">
         <v>249</v>
-      </c>
-      <c r="D9" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" t="s">
         <v>251</v>
-      </c>
-      <c r="D10" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECA7C07-E184-4156-89B6-79E6F3F1DB24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303C47D1-7A13-4708-995C-F605F665DAF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3516" yWindow="1152" windowWidth="17208" windowHeight="14160" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3516" yWindow="1152" windowWidth="17208" windowHeight="14160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="256">
   <si>
     <t>header1</t>
   </si>
@@ -1152,6 +1152,14 @@
   </si>
   <si>
     <t>Please visit a web page &lt;a href="https://www.media.hiroshima-u.ac.jp/services/webmail-portal/" target="_blank" rel="noreferrer"&gt;https://www.media.hiroshima-u.ac.jp/services/webmail-portal/&lt;/a&gt; in the media center, there is a link (a waterblue button) to &lt;a href="https://portal.office.com/" target="_blank"&gt;https://portal.office.com/&lt;/a&gt;. Please visit there.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In the first login to MyMOMIJI, you would be asked about the permission to use your statistic info gathered in Momiji, Moodle, etc by Hiroshima University (you don't have to permit). For detail, please refer the FAQ linked in the page.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mymomiji-1stlogin-en.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1624,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095373DC-8152-4AB8-B0FD-F0060F5FB81D}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2800,10 +2808,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="B24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3071,163 +3079,157 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
+    <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3235,95 +3237,109 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D43" t="s" ph="1">
+      <c r="D44" t="s" ph="1">
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>5</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3339,7 +3355,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303C47D1-7A13-4708-995C-F605F665DAF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{303C47D1-7A13-4708-995C-F605F665DAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9636E043-79DE-4E22-B81C-F7F07C16F9D7}"/>
   <bookViews>
-    <workbookView xWindow="3516" yWindow="1152" windowWidth="17208" windowHeight="14160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="-15225" windowWidth="18225" windowHeight="11220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="259">
   <si>
     <t>header1</t>
   </si>
@@ -213,9 +213,6 @@
     <t>win10-5-09.svg</t>
   </si>
   <si>
-    <t>Office365, MOMIJI, Bb9, and others…</t>
-  </si>
-  <si>
     <t>Log in to the online services provided in Hiroshima University</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
   </t>
   </si>
   <si>
-    <t>win10-6-02.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="mail"&gt;&lt;/a&gt;Office365: Web mail service and online storage&lt;/h2&gt; </t>
   </si>
   <si>
@@ -250,9 +244,6 @@
   <si>
     <t xml:space="preserve">Office 365 applications are listed. Click &amp;quot;Outlook&amp;quot;.
   </t>
-  </si>
-  <si>
-    <t>win10-6-27.svg</t>
   </si>
   <si>
     <t>win10-6-07.svg</t>
@@ -269,21 +260,7 @@
     <t>win10-6-09.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mymomiji"&gt;&lt;/a&gt;My MOMIJI: Class enrollment, bulletin board etc.&lt;/h2&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input your &amp;quot;HIRODAI ID&amp;quot; and &amp;quot;HIRODAI password&amp;quot; in each box and click &amp;quot;Login to My MOMIJI (Students)&amp;quot; button.
-  </t>
-  </si>
-  <si>
-    <t>win10-6-10.svg</t>
-  </si>
-  <si>
     <t>win10-6-11.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you have finished, click &amp;quot;Logout&amp;quot;.
-  </t>
   </si>
   <si>
     <t>win10-6-12.svg</t>
@@ -413,11 +390,6 @@
     <t>win10-5-17.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Input your &amp;quot;HIRODAI mail&amp;quot; in the box and click &amp;quot;Next&amp;quot;, 
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-6-24a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -478,24 +450,6 @@
   </si>
   <si>
     <t>Install Google Chrome and activate Microsoft Office.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy the installation files in numbered USB flash drive to your PC. Here, you will install Microsoft Office and Google Chrome on your PC.
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#chrome"&gt;Install Google Chrome&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#office"&gt;Activate Microsoft Office&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Let's download Google Chrome from official site
-&lt;a href="https://www.google.com/intl/en_us/chrome/"&gt;https://www.google.com/intl/en_us/chrome/&lt;/a&gt;
-and click &amp;quot;Download Chrome&amp;quot; in the site.
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -640,27 +594,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Then the course contents of this course will be displayed in the right. Now click the second content &amp;quot;Checklist worksheet&amp;quot; and open it.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Look at the picture in the right, you can read what PDF contains. However, sometimes you cannot. It depends on the software which you use to read PDFs.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the easiest way to download the files on the Bb9 course page? Right-click the contents  and choose &amp;quot;Save as&amp;quot; in the displayed menu.
-&lt;span class="check"&gt;check-11&lt;/span&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-6-32.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-31.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -710,14 +644,6 @@
   <si>
     <t xml:space="preserve">Let us move to OneDrive, online storage service in Office365. Click the icon in the upper left corner of the window, and the list of applications in Office365 will be shown. Click &amp;quot;OneDrive&amp;quot; in the list.
   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-36.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-34.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -847,24 +773,6 @@
 &lt;p class="spl"&gt;* &amp;quot;Right-click&amp;quot; means to press right-hand button on a computer mouse. Then, how to accomplish right-click in the case of Surface without a mouse? Tap the lower right corner of the touch pad. Or tap the screen little longer. Or press the side button of the pen and tap the screen.&lt;/p&gt;
 When Start menu appears, find &amp;quot;System&amp;quot; in the menu and click it.
    </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">This is &amp;quot;myBlackboard&amp;quot; page. There is &amp;quot;Course List&amp;quot; in the middle of the page. Courses, which you can access, are listed there. Some courses in the list are related to the courses you registered. But others are not.
-Several courses should be introduced here.
-&lt;dl&gt;
-&lt;dt&gt;Laptop checklist 2021&lt;/dt&gt;
-&lt;dd&gt;You need to submit a checklist which declares that your PC is capable of your study life in Hiroshima University. You can submit the checklist in this course. Access to this course after finishing this lecture.&lt;/dd&gt;&lt;dt&gt;Introduction to University Education (the screenshot is older one, but you would find new one)&lt;/dt&gt;
-&lt;dd&gt;This course is required. In this course, you will learn what you need to know to study in Hiroshima University. And you are expected to download course text PDFs and answer a test on a weekly basis.&lt;/dd&gt;
-&lt;p class="spl"&gt;* Because of COVID-19, this course will be performed not as usual. Please check your &amp;quot;My MOMIJI&amp;quot;.&lt;/p&gt;
- &lt;/dl&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">You are expected to download the course text PDFs from Bb9 course beforehand. Here, you will learn how to download course materials from Bb9.
-Click &amp;quot;Laptop checklist 2021&amp;quot; in the &amp;quot;Course List&amp;quot; (screenshot is older one, but you would find new one).
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -953,11 +861,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>If you turn on your PC for the first time, follow this chapter to see your Desktop in your PC.
-&lt;strong&gt;(*) If you have purchased your Windows PC from Hirodai COOP, please follow the initial setup instrucrion from the shop, and start this workshop from chapter 1.&lt;/strong&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2022 Win10en chap.1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -966,10 +869,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>The procedures described in this and later chapters require the Internetworking environment, please connect your computer to the network. If you don't have the network, please refer Chapter 6 and connect to Wi-Fi in Hiroshima University. The procesure in below should be operated after April 1st, the day all related services are enabled.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2022 Win10en chap.3</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -995,54 +894,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;strong&gt;You need your HIRODAI ID(student ID) and HIRODAI Password to go on this chapter.&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>Follow the link to access "HIRODAI moodle".
-&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
-Click "Login by HIRODAI ID"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Input HIRODAI ID(your student number) to the "User Name" box, and input your HIRODAI password to the "Password" box.
- (*) This login form may be skipped. This is a normal behavier, so please go on.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirm that you can see a page similar to this pic.&lt;span class="check"&gt;check-8&lt;/span&gt;
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="mfa"&gt;&lt;/a&gt;setup multi-factor authentication(MFA)&lt;/h2&gt; </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Click "How to setup MFA" in "HIRODAI moodle", and read the instruction in the course.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Follow the instruction to setup MFA of your IMC account.&lt;span class="check"&gt;check-9&lt;/span&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Follow the instruction to setup MFA of your HIRODAI ID.&lt;span class="check"&gt;check-10&lt;/span&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"HIRODAI moodle", and setup MFA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2022 Win10en chap.5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Run &amp;quot;Excel&amp;quot; in your PC.
-&lt;p class="spl"&gt; * If you cannot run &amp;quot;Excel&amp;quot; for now, you have to download Office to your PC. You can sign in to Office 365 on the Web, and install your Office desktop apps from the top page of your Office 365. See chapter 5. &lt;/p&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2022 Win10en chap.6</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1052,41 +911,6 @@
   </si>
   <si>
     <t xml:space="preserve">Submit the Laptop checklist: Helpdesk information </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Follor this link HIRODAI moodle to login by your HIRODAI ID.
-&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;strong&gt;Submit the Laptop checklist.&lt;/strong&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Login to the LMS "HIRODAI moodle", and setup multi-factor authentication(MFA) of your IMC account and HIRODAI ID.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Let us login to the learning management system "HIRODAI moodle" and setup MFA.
- &lt;ul&gt;
-&lt;li&gt;&lt;a href="#moodle"&gt;login to "HIRODAI moodle"&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#mfa"&gt;setup multi-factor authentication(MFA)&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="moodle"&gt;&lt;/a&gt;login to "HIRODAI moodle"(MFA)&lt;/h2&gt; </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If you have finished to set/check your PC with Chapter 1 to &lt;it&gt;here&lt;/it&gt; of this startup instruction, let&amp;apos;s open the HIRODAI moodle course &amp;quot;Laptop checklist 2022&amp;quot;, and submit the checklist.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;strong&gt;Now you can finish this workshop by submitting the Laptop checklist from HIRODAI moodle!&lt;/strong&gt; Also, here is helpdesk information.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1160,6 +984,192 @@
   </si>
   <si>
     <t>mymomiji-1stlogin-en.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;(*) If you have purchased your Windows PC at Hiroshima University Co-op, please follow the initial setup instrucrion from the shop, and start this workshop from chapter 1.&lt;/strong&gt;
+If you turn on your PC for the first time, follow this chapter to see your Desktop in your PC.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Office365, My MOMIJI, Bb9, and others…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;(*) If you have purchased your Windows PC at Hiroshima University Co-op, please follow the initial setup instrucrion from the shop, and start this workshop from chapter 1.&lt;/strong&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you turn on your PC for the first time, follow this chapter to see your Desktop in your PC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The procedures described in this and later chapters require the Internetworking environment, please connect your computer to the network. If you don't have the network, please refer Chapter 6 and connect to Wi-Fi in Hiroshima University. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(*) The procesure in below should be operated after April 1st, the day all related services are enabled.
+Copy the installation files in numbered USB flash drive to your PC. Here, you will install Microsoft Office and Google Chrome on your PC.
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#chrome"&gt;Install Google Chrome&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#office"&gt;Activate Microsoft Office&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's download Google Chrome from official site
+&lt;a href="https://www.google.com/intl/en_us/chrome/" target="_blank" rel="noreferrer"&gt;https://www.google.com/intl/en_us/chrome/&lt;/a&gt;
+and click &amp;quot;Download Chrome&amp;quot; in the site.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Run &amp;quot;Excel&amp;quot; in your PC.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* If you cannot run &amp;quot;Excel&amp;quot; for now, you have to download Office to your PC. You can sign in to Office 365 on the Web, and install your Office desktop apps from the top page of your Office 365. See chapter 5. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-download-from-portal-office365.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "MFA configuration" in "My Course tree", and read the instruction in the course.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm that you can see "Dashboard" similar to this pic.&lt;span class="check"&gt;check-8&lt;/span&gt;
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Follow the instruction "MFA settings for IMC accounts", and setup MFA of your IMC account.&lt;span class="check"&gt;check-9&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Follow the instruction "MFA settings for Hirodai ID", and setup MFA of your Hirodai ID.&lt;span class="check"&gt;check-10&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>"Hirodai moodle", and setup MFA</t>
+  </si>
+  <si>
+    <t>Login to the LMS "Hirodai moodle", and setup multi-factor authentication(MFA) of your IMC account and Hirodai ID.</t>
+  </si>
+  <si>
+    <t>Let us login to the learning management system "Hirodai moodle" and setup MFA.
+ &lt;ul&gt;
+&lt;li&gt;&lt;a href="#moodle"&gt;login to "Hirodai moodle"&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mfa"&gt;setup multi-factor authentication(MFA)&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;You need your Hirodai ID(student ID) and Hirodai Password to go on this chapter.&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="moodle"&gt;&lt;/a&gt;login to "Hirodai moodle"(MFA)&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t>Follow the link to access "Hirodai moodle".
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/" target="_blank" rel="noreferrer"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
+Click "Login by Hirodai ID"</t>
+  </si>
+  <si>
+    <t>Input Hirodai ID(your student number) to the "User Name" box, and input your Hirodai password to the "Password" box.
+ (*) This login form may be skipped. This is a normal behavier, so please go on.</t>
+  </si>
+  <si>
+    <t>HirodaiID-login.png</t>
+  </si>
+  <si>
+    <t>win11en-momiji-before-login0.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input your &amp;quot;HIRODAI mail address&amp;quot; in the box and click &amp;quot;Next&amp;quot;, 
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o365-outlook.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-momiji-before-login.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Input your &amp;quot;HIRODAI ID&amp;quot; and &amp;quot;HIRODAI password&amp;quot; in each box and click &amp;quot;Login&amp;quot; button.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Go to MOMIJI top page, and click the banner "Login to My MOMIJI".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">When you have finished, click &amp;quot;Logout&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mymomiji"&gt;&lt;/a&gt;My MOMIJI: Class enrollment, bulletin board etc.&lt;/h2&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Now you can finish this workshop by submitting the Laptop checklist from Hirodai moodle!&lt;/strong&gt; Also, here is helpdesk information.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you have finished to set/check your PC with Chapter 1 to &lt;it&gt;here&lt;/it&gt; of this startup instruction, let&amp;apos;s open the Hirodai moodle course &amp;quot;Laptop checklist 2022&amp;quot;, and submit the checklist.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Follow this link to login to Hirodai moodle by your HIRODAI ID.
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Submit the Laptop checklist from "Laptop checklist 2022".&lt;/strong&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the easiest way to download the files on the Bb9 course page? Right-click the contents  and choose &amp;quot;Save as&amp;quot; in the displayed menu.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This is &amp;quot;myBlackboard&amp;quot; page. There is &amp;quot;Course List&amp;quot; in the middle of the page. Courses, which you can access, are listed there. Some courses in the list are related to the courses you registered. But others are not.
+Several courses should be introduced here.
+&lt;dl&gt;
+&lt;dt&gt;Introduction to University Education (the screenshot is older one, but you would find new one)&lt;/dt&gt;
+&lt;dd&gt;This course is required. In this course, you will learn what you need to know to study in Hiroshima University. And you are expected to answer a test on a weekly basis.&lt;/dd&gt;
+ &lt;/dl&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Only in campus of Hiroshima University, you can login to Bb9 by below procedure. &lt;/strong&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>So, you can see the Bb9 course "Introduction to University Education".
+(*) Screenshot here is under construction.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Let us try to go to a Bb9 study course from My MOMIJI. 
+Click the course link "Introduction to University Education"("大学教育入門") in the time table.
+(*) Screenshot here is under construction.</t>
+    <rPh sb="118" eb="124">
+      <t>ダイガクキョウイクニュウモン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1558,10 +1568,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -1569,7 +1579,7 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1577,28 +1587,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1607,12 +1617,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1636,7 +1646,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" customWidth="1"/>
@@ -1644,87 +1654,87 @@
     <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="D6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="D9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1736,288 +1746,295 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1" phonetic="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1" phonetic="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1" phonetic="1"/>
-    <col min="5" max="16384" width="8.77734375" phonetic="1"/>
+    <col min="5" max="16384" width="8.796875" phonetic="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="63.75" ph="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s" ph="1">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s" ph="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s" ph="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s" ph="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s" ph="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" ph="1"/>
-      <c r="C6" t="s" ph="1">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s" ph="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>135</v>
+      <c r="B7" s="1" t="s" ph="1">
+        <v>222</v>
       </c>
       <c r="C7" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s" ph="1">
+        <v>4</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>135</v>
+      </c>
+      <c r="C10" t="s" ph="1">
+        <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s" ph="1">
-        <v>4</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" t="s" ph="1">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s" ph="1">
+        <v>4</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s" ph="1">
-        <v>4</v>
-      </c>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s" ph="1">
+        <v>4</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>137</v>
+      </c>
+      <c r="C14" t="s" ph="1">
+        <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s" ph="1">
-        <v>4</v>
-      </c>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" t="s" ph="1">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s" ph="1">
+        <v>4</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>152</v>
+        <v>168</v>
+      </c>
+      <c r="C18" t="s" ph="1">
+        <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s" ph="1">
-        <v>4</v>
-      </c>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" t="s" ph="1">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="51" ph="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s" ph="1">
+        <v>4</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
+      </c>
+      <c r="C21" t="s" ph="1">
+        <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s" ph="1">
-        <v>4</v>
-      </c>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" t="s" ph="1">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="66" ph="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="63.75" ph="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>141</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s" ph="1">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s" ph="1">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2052,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -2043,15 +2060,15 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2059,28 +2076,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2089,12 +2106,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2103,12 +2120,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2117,7 +2134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2131,12 +2148,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2157,10 +2174,10 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -2168,7 +2185,7 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2176,7 +2193,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2184,33 +2201,33 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2219,12 +2236,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2238,7 +2255,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2252,7 +2269,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2266,21 +2283,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2294,26 +2311,26 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2327,12 +2344,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -2341,7 +2358,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2355,32 +2372,32 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>97</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2392,13 +2409,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -2406,15 +2423,15 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2422,28 +2439,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2452,83 +2469,83 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="153" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2542,12 +2559,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2558,85 +2575,99 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>165</v>
+        <v>228</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2650,11 +2681,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575F79BE-20B6-421E-8137-BA7093D36AA2}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" customWidth="1"/>
@@ -2662,47 +2693,47 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2711,90 +2742,90 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2810,11 +2841,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="B24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -2822,470 +2853,446 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="204" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" t="s">
         <v>194</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>64</v>
       </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+    <row r="34" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
         <v>67</v>
       </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D24" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="41" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -3293,54 +3300,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3354,11 +3361,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -3366,7 +3373,7 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3374,7 +3381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3382,33 +3389,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3417,12 +3424,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3431,7 +3438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -3445,12 +3452,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3459,7 +3466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -3473,7 +3480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -3487,12 +3494,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3501,7 +3508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -3515,7 +3522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3526,7 +3533,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3540,10 +3547,10 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -3551,72 +3558,72 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -3625,17 +3632,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="198" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{303C47D1-7A13-4708-995C-F605F665DAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9636E043-79DE-4E22-B81C-F7F07C16F9D7}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{303C47D1-7A13-4708-995C-F605F665DAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2F2D73E-79D7-4D1A-A4CA-85C7F1416FD9}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="-15225" windowWidth="18225" windowHeight="11220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="16859" windowHeight="11144" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="257">
   <si>
     <t>header1</t>
   </si>
@@ -327,12 +327,6 @@
   </si>
   <si>
     <t>Conclusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;Helpdesk&lt;/h3&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Look carefully at &amp;quot;About&amp;quot; page.
@@ -1086,9 +1080,6 @@
  (*) This login form may be skipped. This is a normal behavier, so please go on.</t>
   </si>
   <si>
-    <t>HirodaiID-login.png</t>
-  </si>
-  <si>
     <t>win11en-momiji-before-login0.png</t>
   </si>
   <si>
@@ -1170,6 +1161,10 @@
     <rPh sb="118" eb="124">
       <t>ダイガクキョウイクニュウモン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Helpdesk&lt;/h2&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1592,7 +1587,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -1608,7 +1603,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1622,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1659,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1675,7 +1670,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1683,7 +1678,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -1691,18 +1686,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -1710,31 +1705,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +1761,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1774,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1782,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1790,12 +1785,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
@@ -1803,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>4</v>
@@ -1817,13 +1812,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1831,13 +1826,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1845,21 +1840,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1867,24 +1862,24 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
@@ -1892,21 +1887,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1914,13 +1909,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
@@ -1928,13 +1923,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1942,21 +1937,21 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="51" ph="1" x14ac:dyDescent="0.25">
@@ -1964,13 +1959,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1978,21 +1973,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -2000,13 +1995,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="63.75" ph="1" x14ac:dyDescent="0.25">
@@ -2014,13 +2009,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -2028,13 +2023,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2065,7 +2060,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2081,7 +2076,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2089,7 +2084,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -2097,7 +2092,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2111,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2125,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2153,7 +2148,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2206,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2214,12 +2209,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -2227,7 +2222,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2288,13 +2283,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -2321,13 +2316,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2349,7 +2344,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -2377,13 +2372,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -2391,13 +2386,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2428,7 +2423,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2444,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2452,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
@@ -2460,7 +2455,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2479,13 +2474,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2498,37 +2493,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2536,13 +2531,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -2561,7 +2556,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2569,13 +2564,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2583,21 +2578,21 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2605,13 +2600,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2619,13 +2614,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2633,13 +2628,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -2647,13 +2642,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -2661,13 +2656,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2682,7 +2677,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2698,7 +2693,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2706,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2714,7 +2709,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2722,7 +2717,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2733,7 +2728,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2749,34 +2744,34 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2784,18 +2779,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2803,7 +2798,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2814,7 +2809,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -2825,7 +2820,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2841,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2858,7 +2853,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2874,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2882,7 +2877,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="204" x14ac:dyDescent="0.25">
@@ -2890,7 +2885,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2943,7 +2938,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2984,13 +2979,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2998,13 +2993,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -3012,13 +3007,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -3032,7 +3027,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3040,7 +3035,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -3054,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -3079,7 +3074,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3101,29 +3096,29 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -3131,7 +3126,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -3142,7 +3137,7 @@
     </row>
     <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -3161,7 +3156,7 @@
     </row>
     <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -3169,7 +3164,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -3180,7 +3175,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3188,7 +3183,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -3202,7 +3197,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -3250,7 +3245,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
@@ -3258,7 +3253,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -3272,13 +3267,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3305,13 +3300,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
@@ -3330,10 +3325,10 @@
     </row>
     <row r="44" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -3361,8 +3356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3394,7 +3389,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3402,12 +3397,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -3415,7 +3410,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3429,7 +3424,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3457,7 +3452,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3499,7 +3494,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3533,7 +3528,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3546,8 +3541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3563,7 +3558,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3579,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3587,44 +3582,41 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -3634,7 +3626,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
@@ -3642,7 +3634,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{303C47D1-7A13-4708-995C-F605F665DAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2F2D73E-79D7-4D1A-A4CA-85C7F1416FD9}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{303C47D1-7A13-4708-995C-F605F665DAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5D78924-0AA7-4A04-8D31-02DC2F50EF8B}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="16859" windowHeight="11144" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5333" yWindow="945" windowWidth="18225" windowHeight="11873" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -973,10 +973,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>In the first login to MyMOMIJI, you would be asked about the permission to use your statistic info gathered in Momiji, Moodle, etc by Hiroshima University (you don't have to permit). For detail, please refer the FAQ linked in the page.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mymomiji-1stlogin-en.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1050,9 +1046,6 @@
     <t>Follow the instruction "MFA settings for Hirodai ID", and setup MFA of your Hirodai ID.&lt;span class="check"&gt;check-10&lt;/span&gt;</t>
   </si>
   <si>
-    <t>"Hirodai moodle", and setup MFA</t>
-  </si>
-  <si>
     <t>Login to the LMS "Hirodai moodle", and setup multi-factor authentication(MFA) of your IMC account and Hirodai ID.</t>
   </si>
   <si>
@@ -1118,16 +1111,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>If you have finished to set/check your PC with Chapter 1 to &lt;it&gt;here&lt;/it&gt; of this startup instruction, let&amp;apos;s open the Hirodai moodle course &amp;quot;Laptop checklist 2022&amp;quot;, and submit the checklist.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Follow this link to login to Hirodai moodle by your HIRODAI ID.
 &lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;strong&gt;Submit the Laptop checklist from "Laptop checklist 2022".&lt;/strong&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1165,6 +1150,22 @@
   </si>
   <si>
     <t>&lt;h2&gt;Helpdesk&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login to "Hirodai moodle", and setup MFA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In the first login to MyMOMIJI, you would be asked about the permission to use your statistic info gathered in Momiji, Hirodai moodle, etc by Hiroshima University (you don't have to permit). For detail, please refer the FAQ linked in the page.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Submit the Laptop checklist from &amp;quot;Laptop checklist&amp;quot; in &amp;quot;My Course tree&amp;quot;.&lt;/strong&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you have finished to set/check your PC with Chapter 1 to &lt;it&gt;here&lt;/it&gt; of this startup instruction, let&amp;apos;s open the Hirodai moodle course &amp;quot;Laptop checklist&amp;quot;, and submit the checklist.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1761,7 +1762,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1790,7 +1791,7 @@
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
@@ -1798,7 +1799,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>4</v>
@@ -2214,7 +2215,7 @@
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -2455,7 +2456,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2493,7 +2494,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2564,7 +2565,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -2578,13 +2579,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>226</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -2693,7 +2694,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2701,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2728,7 +2729,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2744,17 +2745,17 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D10" t="s">
         <v>191</v>
@@ -2765,7 +2766,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -2779,7 +2780,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -2798,7 +2799,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2809,7 +2810,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -2820,7 +2821,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2836,8 +2837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2853,7 +2854,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2938,7 +2939,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2993,7 +2994,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -3027,7 +3028,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3074,7 +3075,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3096,18 +3097,18 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D24" t="s">
         <v>192</v>
@@ -3115,10 +3116,10 @@
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" t="s">
         <v>216</v>
-      </c>
-      <c r="D25" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -3137,7 +3138,7 @@
     </row>
     <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -3156,7 +3157,7 @@
     </row>
     <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -3164,7 +3165,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -3183,7 +3184,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -3253,7 +3254,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -3267,7 +3268,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -3541,8 +3542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3587,7 +3588,7 @@
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3597,12 +3598,12 @@
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s">
         <v>191</v>
@@ -3610,7 +3611,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3626,7 +3627,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{303C47D1-7A13-4708-995C-F605F665DAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5D78924-0AA7-4A04-8D31-02DC2F50EF8B}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{303C47D1-7A13-4708-995C-F605F665DAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{528B2DDB-D70A-47A9-8428-C9DF491DE445}"/>
   <bookViews>
-    <workbookView xWindow="5333" yWindow="945" windowWidth="18225" windowHeight="11873" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="-15450" windowWidth="18225" windowHeight="11880" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -288,10 +288,6 @@
   </t>
   </si>
   <si>
-    <t xml:space="preserve">For your first login, this page will be shown. Click &amp;quot;Close&amp;quot;.
-  </t>
-  </si>
-  <si>
     <t>win10-6-16.svg</t>
   </si>
   <si>
@@ -511,13 +507,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Click &amp;quot;I agree&amp;quot;.
-Now you can use Microsoft Office applications!&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Now you can see the list of Wi-Fi AP (access points) which your PC can detect. Choose Wi-Fi AP named like &amp;quot;HU-CUPxx&amp;quot;. Here, each x represents a number. The two-digit number is different from the area in the campus. For examples, you will find &amp;quot;HU-CUP30&amp;quot; near School of Integrated Arts and Sciences, &amp;quot;HU-CUP40&amp;quot; in Kasumi campus, or &amp;quot;HU-CUP50&amp;quot; in Higashisneda campus.
 &lt;p class="spl"&gt;&amp;ast; If your PC could not detect Wi-Fi AP named &amp;quot;HU-CUPxx&amp;quot; in classroom, it possiblly does not meet system requirement, it should support 5GHz Wi-Fi. Please contact IMC staff.&lt;/p&gt;
   </t>
@@ -575,11 +564,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Here, you can register courses or view your grades. Notifications from your courses or school will be listed in &amp;quot;Message&amp;quot;.&lt;span class="check"&gt;check-10&lt;/span&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-0-13e.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -627,12 +611,6 @@
   </si>
   <si>
     <t>When you see &amp;quot;Do more across devices with activity history&amp;quot;, click &amp;quot;No&amp;quot; for now. You can change the configuration later.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Mail page will be opened. You may read HIRODAI Mails here. Since the university sends messages to your HIRODAI Mail, check the mail box frequently. &lt;span class="check"&gt;check-9&lt;/span&gt;
-You can use Outlook app to receive and send your HIRODAI Mails on your smartphone. We recommend it for daily use, as it is easy to use and it also have push notification function.
-&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -660,13 +638,6 @@
   </si>
   <si>
     <t>fresta_en</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">If you see a prompt for sign in and set Office(see the screenshot), you need to activate Office on your PC.
-Click &amp;quot;Sign in&amp;quot;,
-&lt;p class="spl"&gt;* If you can use Excel without seeing any prompt to sign in,  go on next chapter.&lt;/p&gt;
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -908,15 +879,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;You need your HIRODAI ID(student ID) and HIRODAI Password to go on this chapter.&lt;/strong&gt;
-Again, you need to remember that there are two IDs to use information services provided by Hiroshima University. These IDs are based on student number.
-One of them is called HIRODAI ID, which looks same to student number. The other is &amp;quot;IMC account&amp;quot;, which looks little bit different from student number. The first letter of student number is capital, whereas that of &amp;quot;IMC account&amp;quot; is in lowercase.
-Both IDs share password. It is called &amp;quot;HIRODAI password&amp;quot;. You will know it when you get your ID card.
-Adding &amp;quot;@hiroshima-u.ac.jp&amp;quot; behind your &amp;quot;IMC account&amp;quot;, you will get your email address as a student in Hiroshima University. The email address is called &amp;quot;HIRODAI mail address&amp;quot;. Teachers or staffs in Hiroshima University may send emails to the email address. Check your email box frequently. You will learn how to check it in the Appendix.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2022 Win10en chap.7</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -998,8 +960,162 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">Let's download Google Chrome from official site
+&lt;a href="https://www.google.com/intl/en_us/chrome/" target="_blank" rel="noreferrer"&gt;https://www.google.com/intl/en_us/chrome/&lt;/a&gt;
+and click &amp;quot;Download Chrome&amp;quot; in the site.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Run &amp;quot;Excel&amp;quot; in your PC.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* If you cannot run &amp;quot;Excel&amp;quot; for now, you have to download Office to your PC. You can sign in to Office 365 on the Web, and install your Office desktop apps from the top page of your Office 365. See chapter 5. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-download-from-portal-office365.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "MFA configuration" in "My Course tree", and read the instruction in the course.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm that you can see "Dashboard" similar to this pic.&lt;span class="check"&gt;check-8&lt;/span&gt;
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Follow the instruction "MFA settings for IMC accounts", and setup MFA of your IMC account.&lt;span class="check"&gt;check-9&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Follow the instruction "MFA settings for Hirodai ID", and setup MFA of your Hirodai ID.&lt;span class="check"&gt;check-10&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>Login to the LMS "Hirodai moodle", and setup multi-factor authentication(MFA) of your IMC account and Hirodai ID.</t>
+  </si>
+  <si>
+    <t>Let us login to the learning management system "Hirodai moodle" and setup MFA.
+ &lt;ul&gt;
+&lt;li&gt;&lt;a href="#moodle"&gt;login to "Hirodai moodle"&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mfa"&gt;setup multi-factor authentication(MFA)&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;You need your Hirodai ID(student ID) and Hirodai Password to go on this chapter.&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="moodle"&gt;&lt;/a&gt;login to "Hirodai moodle"(MFA)&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t>Follow the link to access "Hirodai moodle".
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/" target="_blank" rel="noreferrer"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
+Click "Login by Hirodai ID"</t>
+  </si>
+  <si>
+    <t>Input Hirodai ID(your student number) to the "User Name" box, and input your Hirodai password to the "Password" box.
+ (*) This login form may be skipped. This is a normal behavier, so please go on.</t>
+  </si>
+  <si>
+    <t>win11en-momiji-before-login0.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input your &amp;quot;HIRODAI mail address&amp;quot; in the box and click &amp;quot;Next&amp;quot;, 
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o365-outlook.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-momiji-before-login.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Input your &amp;quot;HIRODAI ID&amp;quot; and &amp;quot;HIRODAI password&amp;quot; in each box and click &amp;quot;Login&amp;quot; button.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Go to MOMIJI top page, and click the banner "Login to My MOMIJI".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">When you have finished, click &amp;quot;Logout&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mymomiji"&gt;&lt;/a&gt;My MOMIJI: Class enrollment, bulletin board etc.&lt;/h2&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Now you can finish this workshop by submitting the Laptop checklist from Hirodai moodle!&lt;/strong&gt; Also, here is helpdesk information.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Follow this link to login to Hirodai moodle by your HIRODAI ID.
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the easiest way to download the files on the Bb9 course page? Right-click the contents  and choose &amp;quot;Save as&amp;quot; in the displayed menu.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This is &amp;quot;myBlackboard&amp;quot; page. There is &amp;quot;Course List&amp;quot; in the middle of the page. Courses, which you can access, are listed there. Some courses in the list are related to the courses you registered. But others are not.
+Several courses should be introduced here.
+&lt;dl&gt;
+&lt;dt&gt;Introduction to University Education (the screenshot is older one, but you would find new one)&lt;/dt&gt;
+&lt;dd&gt;This course is required. In this course, you will learn what you need to know to study in Hiroshima University. And you are expected to answer a test on a weekly basis.&lt;/dd&gt;
+ &lt;/dl&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Only in campus of Hiroshima University, you can login to Bb9 by below procedure. &lt;/strong&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Let us try to go to a Bb9 study course from My MOMIJI. 
+Click the course link "Introduction to University Education"("大学教育入門") in the time table.
+(*) Screenshot here is under construction.</t>
+    <rPh sb="118" eb="124">
+      <t>ダイガクキョウイクニュウモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Helpdesk&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login to "Hirodai moodle", and setup MFA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In the first login to MyMOMIJI, you would be asked about the permission to use your statistic info gathered in Momiji, Hirodai moodle, etc by Hiroshima University (you don't have to permit). For detail, please refer the FAQ linked in the page.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Submit the Laptop checklist from &amp;quot;Laptop checklist&amp;quot; in &amp;quot;My Course tree&amp;quot;.&lt;/strong&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you have finished to set/check your PC with Chapter 1 to &lt;it&gt;here&lt;/it&gt; of this startup instruction, let&amp;apos;s open the Hirodai moodle course &amp;quot;Laptop checklist&amp;quot;, and submit the checklist.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">(*) The procesure in below should be operated after April 1st, the day all related services are enabled.
-Copy the installation files in numbered USB flash drive to your PC. Here, you will install Microsoft Office and Google Chrome on your PC.
+Here, you will install Google Chrome and activate Microsoft Office on your PC.
 &lt;ul&gt;
 &lt;li&gt;&lt;a href="#chrome"&gt;Install Google Chrome&lt;/a&gt;
 &lt;/li&gt;
@@ -1010,162 +1126,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Let's download Google Chrome from official site
-&lt;a href="https://www.google.com/intl/en_us/chrome/" target="_blank" rel="noreferrer"&gt;https://www.google.com/intl/en_us/chrome/&lt;/a&gt;
-and click &amp;quot;Download Chrome&amp;quot; in the site.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Run &amp;quot;Excel&amp;quot; in your PC.
+    <t xml:space="preserve">&lt;strong&gt;You need your HIRODAI ID(student ID) and HIRODAI Password to go on this chapter.&lt;/strong&gt;
+Again, you need to remember that there are two IDs to use information services provided by Hiroshima University. These IDs are based on student number.
+One of them is called HIRODAI ID, which looks same to student number. The other is &amp;quot;IMC account&amp;quot;, which looks little bit different from student number. The first letter of student number is capital, whereas that of &amp;quot;IMC account&amp;quot; is in lowercase.
+Both IDs share password. It is called &amp;quot;HIRODAI password&amp;quot;. You will know it when you get your ID card.
+Adding &amp;quot;@hiroshima-u.ac.jp&amp;quot; behind your &amp;quot;IMC account&amp;quot;, you will get your email address as a student in Hiroshima University. The email address is called &amp;quot;HIRODAI mail address&amp;quot;. Teachers or staffs in Hiroshima University may send emails to the email address. Check your email box frequently. You will learn how to check it in chapter 5.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">For your first login to Bb9, this page will be shown. Click &amp;quot;Close&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you see a prompt for sign in and set Office(see the screenshot), you need to activate Office on your PC.
+Click &amp;quot;Sign in&amp;quot;,
+&lt;p class="spl"&gt;* If you can use Excel without seeing any prompt to sign in,  skip to next chapter.&lt;/p&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>So, you can see the Bb9 course "Introduction to University Education".&lt;span class="check"&gt;check-14&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+(*) Screenshot here is under construction.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click &amp;quot;I agree&amp;quot;.
+Now you can use Microsoft Office applications!&lt;span class="check"&gt;check-12&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
 </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">* If you cannot run &amp;quot;Excel&amp;quot; for now, you have to download Office to your PC. You can sign in to Office 365 on the Web, and install your Office desktop apps from the top page of your Office 365. See chapter 5. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch5-download-from-portal-office365.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Click "MFA configuration" in "My Course tree", and read the instruction in the course.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirm that you can see "Dashboard" similar to this pic.&lt;span class="check"&gt;check-8&lt;/span&gt;
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Follow the instruction "MFA settings for IMC accounts", and setup MFA of your IMC account.&lt;span class="check"&gt;check-9&lt;/span&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Follow the instruction "MFA settings for Hirodai ID", and setup MFA of your Hirodai ID.&lt;span class="check"&gt;check-10&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>Login to the LMS "Hirodai moodle", and setup multi-factor authentication(MFA) of your IMC account and Hirodai ID.</t>
-  </si>
-  <si>
-    <t>Let us login to the learning management system "Hirodai moodle" and setup MFA.
- &lt;ul&gt;
-&lt;li&gt;&lt;a href="#moodle"&gt;login to "Hirodai moodle"&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#mfa"&gt;setup multi-factor authentication(MFA)&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;You need your Hirodai ID(student ID) and Hirodai Password to go on this chapter.&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="moodle"&gt;&lt;/a&gt;login to "Hirodai moodle"(MFA)&lt;/h2&gt; </t>
-  </si>
-  <si>
-    <t>Follow the link to access "Hirodai moodle".
-&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/" target="_blank" rel="noreferrer"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
-Click "Login by Hirodai ID"</t>
-  </si>
-  <si>
-    <t>Input Hirodai ID(your student number) to the "User Name" box, and input your Hirodai password to the "Password" box.
- (*) This login form may be skipped. This is a normal behavier, so please go on.</t>
-  </si>
-  <si>
-    <t>win11en-momiji-before-login0.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input your &amp;quot;HIRODAI mail address&amp;quot; in the box and click &amp;quot;Next&amp;quot;, 
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o365-outlook.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11en-momiji-before-login.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Input your &amp;quot;HIRODAI ID&amp;quot; and &amp;quot;HIRODAI password&amp;quot; in each box and click &amp;quot;Login&amp;quot; button.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Go to MOMIJI top page, and click the banner "Login to My MOMIJI".</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">When you have finished, click &amp;quot;Logout&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mymomiji"&gt;&lt;/a&gt;My MOMIJI: Class enrollment, bulletin board etc.&lt;/h2&gt; </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;strong&gt;Now you can finish this workshop by submitting the Laptop checklist from Hirodai moodle!&lt;/strong&gt; Also, here is helpdesk information.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Follow this link to login to Hirodai moodle by your HIRODAI ID.
-&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the easiest way to download the files on the Bb9 course page? Right-click the contents  and choose &amp;quot;Save as&amp;quot; in the displayed menu.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">This is &amp;quot;myBlackboard&amp;quot; page. There is &amp;quot;Course List&amp;quot; in the middle of the page. Courses, which you can access, are listed there. Some courses in the list are related to the courses you registered. But others are not.
-Several courses should be introduced here.
-&lt;dl&gt;
-&lt;dt&gt;Introduction to University Education (the screenshot is older one, but you would find new one)&lt;/dt&gt;
-&lt;dd&gt;This course is required. In this course, you will learn what you need to know to study in Hiroshima University. And you are expected to answer a test on a weekly basis.&lt;/dd&gt;
- &lt;/dl&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;strong&gt;Only in campus of Hiroshima University, you can login to Bb9 by below procedure. &lt;/strong&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>So, you can see the Bb9 course "Introduction to University Education".
-(*) Screenshot here is under construction.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Let us try to go to a Bb9 study course from My MOMIJI. 
-Click the course link "Introduction to University Education"("大学教育入門") in the time table.
-(*) Screenshot here is under construction.</t>
-    <rPh sb="118" eb="124">
-      <t>ダイガクキョウイクニュウモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Helpdesk&lt;/h2&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Login to "Hirodai moodle", and setup MFA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>In the first login to MyMOMIJI, you would be asked about the permission to use your statistic info gathered in Momiji, Hirodai moodle, etc by Hiroshima University (you don't have to permit). For detail, please refer the FAQ linked in the page.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;strong&gt;Submit the Laptop checklist from &amp;quot;Laptop checklist&amp;quot; in &amp;quot;My Course tree&amp;quot;.&lt;/strong&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If you have finished to set/check your PC with Chapter 1 to &lt;it&gt;here&lt;/it&gt; of this startup instruction, let&amp;apos;s open the Hirodai moodle course &amp;quot;Laptop checklist&amp;quot;, and submit the checklist.</t>
+    <t xml:space="preserve">Here, you can register courses or view your grades. Notifications from your courses or school will be listed in &amp;quot;Message&amp;quot;.&lt;span class="check"&gt;check-13&lt;/span&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Mail page will be opened. You may read HIRODAI Mails here. Since the university sends messages to your HIRODAI Mail, check the mail box frequently. &lt;span class="check"&gt;check-11&lt;/span&gt;
+You can use Outlook app to receive and send your HIRODAI Mails on your smartphone. We recommend it for daily use, as it is easy to use and it also have push notification function.
+&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1588,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1596,7 +1598,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -1604,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1618,7 +1620,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1663,7 +1665,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1671,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1679,7 +1681,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -1687,18 +1689,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -1706,31 +1708,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1762,7 +1764,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1770,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1778,7 +1780,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1786,12 +1788,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
@@ -1799,7 +1801,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>4</v>
@@ -1813,13 +1815,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1827,13 +1829,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1841,21 +1843,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1863,24 +1865,24 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
@@ -1888,21 +1890,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1910,13 +1912,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
@@ -1924,13 +1926,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1938,21 +1940,21 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="51" ph="1" x14ac:dyDescent="0.25">
@@ -1960,13 +1962,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1974,21 +1976,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1996,13 +1998,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="63.75" ph="1" x14ac:dyDescent="0.25">
@@ -2010,13 +2012,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -2024,13 +2026,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2061,7 +2063,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2077,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2085,7 +2087,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -2093,7 +2095,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2107,7 +2109,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2121,7 +2123,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2149,7 +2151,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2202,7 +2204,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2210,12 +2212,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -2223,7 +2225,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2284,13 +2286,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -2317,13 +2319,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2345,7 +2347,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -2373,13 +2375,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -2387,13 +2389,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2407,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2424,7 +2426,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2440,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2448,15 +2450,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2475,13 +2477,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2494,37 +2496,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2532,13 +2534,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -2557,7 +2559,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2565,13 +2567,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2579,21 +2581,21 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2601,13 +2603,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2615,13 +2617,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2629,13 +2631,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -2643,13 +2645,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -2657,13 +2659,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2678,7 +2680,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2694,7 +2696,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2702,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2710,7 +2712,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2718,7 +2720,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2729,7 +2731,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2745,20 +2747,20 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2766,13 +2768,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2780,18 +2782,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2799,7 +2801,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2810,7 +2812,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -2821,7 +2823,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2837,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="B27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2854,7 +2856,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2870,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2878,7 +2880,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="204" x14ac:dyDescent="0.25">
@@ -2886,7 +2888,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2939,7 +2941,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2980,13 +2982,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2994,13 +2996,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -3008,13 +3010,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -3028,7 +3030,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3036,7 +3038,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -3050,7 +3052,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -3075,7 +3077,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3097,29 +3099,29 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D24" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D25" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -3127,7 +3129,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -3138,7 +3140,7 @@
     </row>
     <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -3146,18 +3148,18 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
         <v>71</v>
       </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -3165,7 +3167,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -3176,7 +3178,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3184,7 +3186,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -3198,7 +3200,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -3246,7 +3248,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
@@ -3254,13 +3256,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -3268,18 +3270,18 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -3287,7 +3289,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -3301,13 +3303,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
@@ -3315,21 +3317,21 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -3337,13 +3339,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3357,7 +3359,192 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3374,7 +3561,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3382,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3390,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3398,220 +3585,35 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3627,7 +3629,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
@@ -3635,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{303C47D1-7A13-4708-995C-F605F665DAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{528B2DDB-D70A-47A9-8428-C9DF491DE445}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{303C47D1-7A13-4708-995C-F605F665DAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F6818D5-FEE6-421B-BCA9-56143F11DB26}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="-15450" windowWidth="18225" windowHeight="11880" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="-15450" windowWidth="18225" windowHeight="11880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="260">
   <si>
     <t>header1</t>
   </si>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t>win10-6-09.svg</t>
-  </si>
-  <si>
-    <t>win10-6-11.svg</t>
   </si>
   <si>
     <t>win10-6-12.svg</t>
@@ -1085,15 +1082,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Let us try to go to a Bb9 study course from My MOMIJI. 
-Click the course link "Introduction to University Education"("大学教育入門") in the time table.
-(*) Screenshot here is under construction.</t>
-    <rPh sb="118" eb="124">
-      <t>ダイガクキョウイクニュウモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h2&gt;Helpdesk&lt;/h2&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1168,6 +1156,32 @@
     <t xml:space="preserve">Web Mail page will be opened. You may read HIRODAI Mails here. Since the university sends messages to your HIRODAI Mail, check the mail box frequently. &lt;span class="check"&gt;check-11&lt;/span&gt;
 You can use Outlook app to receive and send your HIRODAI Mails on your smartphone. We recommend it for daily use, as it is easy to use and it also have push notification function.
 &lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-11a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mymomiji-topintro.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Let us try to go to a Bb9 study course from My MOMIJI. 
+Click the course link "Introduction to University Education"("大学教育入門") in the time table.
+</t>
+    <rPh sb="118" eb="124">
+      <t>ダイガクキョウイクニュウモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the link "to Bb9"("Bb9へ") .
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mymomiji-intro.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1590,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1598,7 +1612,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -1606,7 +1620,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1620,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1657,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1665,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1673,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,7 +1695,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -1689,18 +1703,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" t="s">
         <v>200</v>
-      </c>
-      <c r="D7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -1708,31 +1722,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" t="s">
         <v>202</v>
-      </c>
-      <c r="D8" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" t="s">
         <v>204</v>
-      </c>
-      <c r="D9" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" t="s">
         <v>206</v>
-      </c>
-      <c r="D10" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1764,7 +1778,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1772,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1780,7 +1794,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1788,12 +1802,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
@@ -1801,7 +1815,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>4</v>
@@ -1815,13 +1829,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1829,13 +1843,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1843,21 +1857,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1865,24 +1879,24 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
@@ -1890,21 +1904,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1912,13 +1926,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
@@ -1926,13 +1940,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1940,21 +1954,21 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="51" ph="1" x14ac:dyDescent="0.25">
@@ -1962,13 +1976,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1976,21 +1990,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
@@ -1998,13 +2012,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="63.75" ph="1" x14ac:dyDescent="0.25">
@@ -2012,13 +2026,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -2026,13 +2040,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2063,7 +2077,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2079,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2087,7 +2101,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -2095,7 +2109,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2109,7 +2123,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2123,7 +2137,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2151,7 +2165,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2204,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2212,12 +2226,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -2225,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2286,13 +2300,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -2319,13 +2333,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2347,7 +2361,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -2375,13 +2389,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -2389,13 +2403,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2426,7 +2440,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2442,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2450,7 +2464,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
@@ -2458,7 +2472,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2477,13 +2491,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2496,37 +2510,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2534,13 +2548,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -2559,7 +2573,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2567,13 +2581,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2581,21 +2595,21 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>218</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2603,13 +2617,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2617,13 +2631,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2631,13 +2645,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -2645,13 +2659,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -2659,13 +2673,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +2710,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2704,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2712,7 +2726,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2720,7 +2734,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2731,7 +2745,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2747,20 +2761,20 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2768,13 +2782,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2782,18 +2796,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2801,7 +2815,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2812,7 +2826,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -2823,7 +2837,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2837,10 +2851,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="B27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2856,7 +2870,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2872,7 +2886,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2880,7 +2894,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="204" x14ac:dyDescent="0.25">
@@ -2888,7 +2902,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2941,7 +2955,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2982,13 +2996,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2996,13 +3010,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -3010,13 +3024,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -3030,7 +3044,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3038,7 +3052,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -3052,7 +3066,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -3077,7 +3091,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3099,29 +3113,29 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -3129,143 +3143,140 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>255</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>243</v>
+        <v>257</v>
+      </c>
+      <c r="D27" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
       <c r="B28" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
+    <row r="35" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
         <v>66</v>
       </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
         <v>68</v>
       </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -3276,76 +3287,90 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="D43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" t="s" ph="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" t="s" ph="1">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
         <v>77</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3359,8 +3384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3392,7 +3417,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3400,12 +3425,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -3413,7 +3438,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3427,7 +3452,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3455,7 +3480,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3497,7 +3522,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3531,7 +3556,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3561,7 +3586,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3569,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3577,7 +3602,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3585,35 +3610,35 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3629,7 +3654,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
@@ -3637,7 +3662,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>

--- a/win10_en.xlsx
+++ b/win10_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{303C47D1-7A13-4708-995C-F605F665DAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F6818D5-FEE6-421B-BCA9-56143F11DB26}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{303C47D1-7A13-4708-995C-F605F665DAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A0EECBB-F4EF-4598-9864-5A27120746C9}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="-15450" windowWidth="18225" windowHeight="11880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6292" yWindow="570" windowWidth="18225" windowHeight="11873" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="261">
   <si>
     <t>header1</t>
   </si>
@@ -227,11 +227,6 @@
     <t>win10-6-01.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">MOMIJI top page will be displayed. You can get useful information there.
-You can see many banners on the right of the page. In this chapter, we will explain &amp;quot;Web Mail&amp;quot;, &amp;quot;My MOMIJI&amp;quot; and &amp;quot;Bb9&amp;quot;.
-  </t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="mail"&gt;&lt;/a&gt;Office365: Web mail service and online storage&lt;/h2&gt; </t>
   </si>
   <si>
@@ -263,32 +258,7 @@
     <t>win10-6-12.svg</t>
   </si>
   <si>
-    <t>win10-6-13.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click Bb9 banner again.
-  </t>
-  </si>
-  <si>
-    <t>win10-6-14.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bb9 login page will be displayed.
-Click the globe icon on the upper left corner of the window and choose &amp;quot;English&amp;quot; to change your language setting on Bb9. 
-  </t>
-  </si>
-  <si>
-    <t>win10-6-28.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When Bb9 login page in English is displayed, log in to Bb9 with your &amp;quot;HIRODAI ID&amp;quot; and &amp;quot;HIRODAI password&amp;quot;.
-  </t>
-  </si>
-  <si>
     <t>win10-6-16.svg</t>
-  </si>
-  <si>
-    <t>win10-6-17.svg</t>
   </si>
   <si>
     <t>&lt;h2&gt;&lt;a name="omake"&gt;&lt;/a&gt;Others&lt;/h2&gt;</t>
@@ -307,13 +277,6 @@
   </si>
   <si>
     <t>win10-6-25.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VPN
-When you view your grades on MOMIJI or print your works in IMC, you need to connect your PC to campus network. If you are off campus and want to use those services, you can connect your PC to campus network via VPN (Vertual Private Network). See IMC web page which shows how to connect to VPN.
-You can find more information on &lt;a href="https://www.media.hiroshima-u.ac.jp/services/hinet/vpngw"&gt;IMC web site&lt;/a&gt;
-. 
-  </t>
   </si>
   <si>
     <t>win10-6-26.svg</t>
@@ -626,10 +589,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-6-15e.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>index_en</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -738,7 +697,500 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Let us log in to the online services provided by university, such as MOMIJI, Office365, or Bb9.
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="bb9"&gt;&lt;/a&gt;Bb9: Learning management system&lt;/h2&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-signin-password.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Input your &amp;quot;HIRODAI password&amp;quot;. And click &amp;quot;Sign in&amp;quot;, blue button.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-hirodai-login.png</t>
+  </si>
+  <si>
+    <t>office365-portal.png</t>
+  </si>
+  <si>
+    <t>Click the link to portal.office.com.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In this chaper, we explain how to connect your PC to HINET Wi-Fi (Wi-Fi network in Hiroshima Univ,).
+If you can connect your PC to Internet already, you may use it now and go on next chapter. The procesure in below should be operated after April 2nd, the day all related services are enabled.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are in trouble when you use your PC, don&amp;apos;t hesitate to make a inquiry to IMC.
+&lt;dl&gt;&lt;dt&gt;At IMC: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&amp;ast; Startup workshop (for detail, see below URL)&lt;/dd&gt;
+&lt;dd&gt;&lt;a href="https://www.hiroshima-u.ac.jp/about/initiatives/jyoho_ka/hikkei_pc"&gt;https://www.hiroshima-u.ac.jp/about/initiatives/jyoho_ka/hikkei_pc&lt;/a&gt;&lt;/dd&gt;
+&lt;dt&gt;Online: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
+&lt;/dd&gt;
+&lt;dt&gt;Mail: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;
+&lt;/dd&gt; &lt;/dl&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;Windows10&lt;/h3&gt;
+Mar. 2022&lt;br&gt;
+ Information Media Center, Hiroshima University&lt;br&gt;
+ Hiroshima Univesity Coop shop 
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10 chap.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10en chap.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10en chap.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10en chap.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Input HIRODAI mailaddress（b22xxxxx@hiroshima-u.ac.jp）and click &amp;quot;Next&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-login.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hirodaiID-login.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10en chap.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mfa"&gt;&lt;/a&gt;setup multi-factor authentication(MFA)&lt;/h2&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10en chap.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10en chap.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Submit the Laptop checklist&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit the Laptop checklist: Helpdesk information </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win10en chap.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Appendix: How to install Office365 application.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win11en chap.8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If your PC does not have preinstalled Office365, you can download it from your Office365 web page.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-imc-office365-portal.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please enter your IMC account with "@hiroshima-u.ac.jp", and password.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-ms-signin2.png</t>
+  </si>
+  <si>
+    <t>Edge would ask for the permission to store your password, please choose "never". But you can cache your sign in status by "Yes" to "Stay signed in".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-ms-signin3.png</t>
+  </si>
+  <si>
+    <t>You can find "Install Office" button on the upper right. Please click it to expand its submenu, and check "Office 365 apps". You can download the network installer onto your PC.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-office365-download.png</t>
+  </si>
+  <si>
+    <t>When you start the installer, it would ask you to confirm your decition to change your computer. After checking that the verified publisher is Microsoft, please click "Yes" to proceed the installation.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-office365-install.png</t>
+  </si>
+  <si>
+    <t>The installation itself is finished, but it is not activated yet. Please back to the chaper "Activate your Office365 app."</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please visit a web page &lt;a href="https://www.media.hiroshima-u.ac.jp/services/webmail-portal/" target="_blank" rel="noreferrer"&gt;https://www.media.hiroshima-u.ac.jp/services/webmail-portal/&lt;/a&gt; in the media center, there is a link (a waterblue button) to &lt;a href="https://portal.office.com/" target="_blank"&gt;https://portal.office.com/&lt;/a&gt;. Please visit there.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mymomiji-1stlogin-en.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;(*) If you have purchased your Windows PC at Hiroshima University Co-op, please follow the initial setup instrucrion from the shop, and start this workshop from chapter 1.&lt;/strong&gt;
+If you turn on your PC for the first time, follow this chapter to see your Desktop in your PC.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Office365, My MOMIJI, Bb9, and others…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;(*) If you have purchased your Windows PC at Hiroshima University Co-op, please follow the initial setup instrucrion from the shop, and start this workshop from chapter 1.&lt;/strong&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you turn on your PC for the first time, follow this chapter to see your Desktop in your PC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The procedures described in this and later chapters require the Internetworking environment, please connect your computer to the network. If you don't have the network, please refer Chapter 6 and connect to Wi-Fi in Hiroshima University. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's download Google Chrome from official site
+&lt;a href="https://www.google.com/intl/en_us/chrome/" target="_blank" rel="noreferrer"&gt;https://www.google.com/intl/en_us/chrome/&lt;/a&gt;
+and click &amp;quot;Download Chrome&amp;quot; in the site.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Run &amp;quot;Excel&amp;quot; in your PC.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* If you cannot run &amp;quot;Excel&amp;quot; for now, you have to download Office to your PC. You can sign in to Office 365 on the Web, and install your Office desktop apps from the top page of your Office 365. See chapter 5. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-download-from-portal-office365.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm that you can see "Dashboard" similar to this pic.&lt;span class="check"&gt;check-8&lt;/span&gt;
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;You need your Hirodai ID(student ID) and Hirodai Password to go on this chapter.&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="moodle"&gt;&lt;/a&gt;login to "Hirodai moodle"(MFA)&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t>Input Hirodai ID(your student number) to the "User Name" box, and input your Hirodai password to the "Password" box.
+ (*) This login form may be skipped. This is a normal behavier, so please go on.</t>
+  </si>
+  <si>
+    <t>win11en-momiji-before-login0.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input your &amp;quot;HIRODAI mail address&amp;quot; in the box and click &amp;quot;Next&amp;quot;, 
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o365-outlook.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-momiji-before-login.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Input your &amp;quot;HIRODAI ID&amp;quot; and &amp;quot;HIRODAI password&amp;quot; in each box and click &amp;quot;Login&amp;quot; button.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Go to MOMIJI top page, and click the banner "Login to My MOMIJI".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">When you have finished, click &amp;quot;Logout&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mymomiji"&gt;&lt;/a&gt;My MOMIJI: Class enrollment, bulletin board etc.&lt;/h2&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Now you can finish this workshop by submitting the Laptop checklist from Hirodai moodle!&lt;/strong&gt; Also, here is helpdesk information.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Follow this link to login to Hirodai moodle by your HIRODAI ID.
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the easiest way to download the files on the Bb9 course page? Right-click the contents  and choose &amp;quot;Save as&amp;quot; in the displayed menu.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Helpdesk&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In the first login to MyMOMIJI, you would be asked about the permission to use your statistic info gathered in Momiji, Hirodai moodle, etc by Hiroshima University (you don't have to permit). For detail, please refer the FAQ linked in the page.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Submit the Laptop checklist from &amp;quot;Laptop checklist&amp;quot; in &amp;quot;My Course tree&amp;quot;.&lt;/strong&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you have finished to set/check your PC with Chapter 1 to &lt;it&gt;here&lt;/it&gt; of this startup instruction, let&amp;apos;s open the Hirodai moodle course &amp;quot;Laptop checklist&amp;quot;, and submit the checklist.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(*) The procesure in below should be operated after April 1st, the day all related services are enabled.
+Here, you will install Google Chrome and activate Microsoft Office on your PC.
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#chrome"&gt;Install Google Chrome&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#office"&gt;Activate Microsoft Office&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;You need your HIRODAI ID(student ID) and HIRODAI Password to go on this chapter.&lt;/strong&gt;
+Again, you need to remember that there are two IDs to use information services provided by Hiroshima University. These IDs are based on student number.
+One of them is called HIRODAI ID, which looks same to student number. The other is &amp;quot;IMC account&amp;quot;, which looks little bit different from student number. The first letter of student number is capital, whereas that of &amp;quot;IMC account&amp;quot; is in lowercase.
+Both IDs share password. It is called &amp;quot;HIRODAI password&amp;quot;. You will know it when you get your ID card.
+Adding &amp;quot;@hiroshima-u.ac.jp&amp;quot; behind your &amp;quot;IMC account&amp;quot;, you will get your email address as a student in Hiroshima University. The email address is called &amp;quot;HIRODAI mail address&amp;quot;. Teachers or staffs in Hiroshima University may send emails to the email address. Check your email box frequently. You will learn how to check it in chapter 5.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">For your first login to Bb9, this page will be shown. Click &amp;quot;Close&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you see a prompt for sign in and set Office(see the screenshot), you need to activate Office on your PC.
+Click &amp;quot;Sign in&amp;quot;,
+&lt;p class="spl"&gt;* If you can use Excel without seeing any prompt to sign in,  skip to next chapter.&lt;/p&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>So, you can see the Bb9 course "Introduction to University Education".&lt;span class="check"&gt;check-14&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+(*) Screenshot here is under construction.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click &amp;quot;I agree&amp;quot;.
+Now you can use Microsoft Office applications!&lt;span class="check"&gt;check-12&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Here, you can register courses or view your grades. Notifications from your courses or school will be listed in &amp;quot;Message&amp;quot;.&lt;span class="check"&gt;check-13&lt;/span&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Mail page will be opened. You may read HIRODAI Mails here. Since the university sends messages to your HIRODAI Mail, check the mail box frequently. &lt;span class="check"&gt;check-11&lt;/span&gt;
+You can use Outlook app to receive and send your HIRODAI Mails on your smartphone. We recommend it for daily use, as it is easy to use and it also have push notification function.
+&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-11a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mymomiji-topintro.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Let us try to go to a Bb9 study course from My MOMIJI. 
+Click the course link "Introduction to University Education"("大学教育入門") in the time table.
+</t>
+    <rPh sb="118" eb="124">
+      <t>ダイガクキョウイクニュウモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the link "to Bb9"("Bb9へ") .
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mymomiji-intro.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOMIJI, Login to "Hirodai moodle", and setup MFA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Access to the student portal "MOMIJI", login to the LMS "Hirodai moodle", and setup multi-factor authentication(MFA) of your IMC account and Hirodai ID.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Let us access to the student portal "MOMIJI", login to the learning management system "Hirodai moodle" and setup MFA.
+ &lt;ul&gt;
+&lt;li&gt;&lt;a href="#momiji"&gt;MOMIJI: Student Portal&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#moodle"&gt;login to "Hirodai moodle"&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mfa"&gt;setup multi-factor authentication(MFA)&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MOMIJI top page will be displayed. You can get useful information there.
+You can see many banners on the right of the page.
+&lt;strong&gt;
+(*) We recommend that you add this page to Favorite of your browser.
+&lt;/strong&gt;  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>momiji-bb9moodle.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lms-moodle.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the banner "Bb9/moodle" at right side.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click the banner "HIRODAI moodle" and goto login page. 
+(*) You may access "HIRODAI moodle" directly from this link.
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/" target="_blank" rel="noreferrer"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "Login by Hirodai ID"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-dashboard-en.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-mfa-top.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-mfa-imc.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-mfaimc-below.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-mfa-hirodai.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-mfahirodai-below.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "MFA configuration guide", and you can see the top page of "MFA21" course.Please read comment sheet.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "IMCアカウントのMFA設定" below.</t>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "Practice setting up MFA use of IMC accounts" below, and follow instruction to setup MFA. See PDF documents for details.&lt;span class="check"&gt;check-9&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "広大IDのMFA設定" below.</t>
+    <rPh sb="7" eb="9">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">VPN
+When you view your grades on MOMIJI or print your works in IMC, you need to connect your PC to campus network. If you are off campus and want to use those services, you can connect your PC to campus network via VPN (Vertual Private Network). See IMC web page which shows how to connect to VPN.
+You can find more information on &lt;a href="https://www.media.hiroshima-u.ac.jp/services/hinet/vpngw"&gt;IMC web site&lt;/a&gt;
+. 
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "Practice setting up MFA use of Hirodai ID" below, and follow instruction to setup MFA. See PDF documents for details.&lt;span class="check"&gt;check-10&lt;/span&gt;
+(*) You may need to use VPN to setup Hirodai ID MFA from outside of the campus. To use VPN, you can find more information on &lt;a href="https://www.media.hiroshima-u.ac.jp/services/hinet/vpngw"&gt;IMC web site&lt;/a&gt;.
+Even though the information, you may setup MFA later from inside the campus.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Let us start from the MOMIJI top page again.
+You can see many banners on the right of the page. In this chapter, we will explain &amp;quot;Web Mail&amp;quot;, &amp;quot;My MOMIJI&amp;quot; and &amp;quot;Bb9&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Let us log in to the online services provided by university, such as My MOMIJI, Office365, or Bb9.
 You need a browser to use these services. Microsoft Edge has already been in Windows10. Then double-click its icon to open it.
 &lt;ul&gt;&lt;li&gt;&lt;a href="#momiji"&gt;MOMIJI: Student Portal&lt;/a&gt;
 &lt;/li&gt;
@@ -753,435 +1205,6 @@
 &lt;ul&gt; &lt;/ul&gt;
 &lt;/ul&gt;
 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="bb9"&gt;&lt;/a&gt;Bb9: Learning management system&lt;/h2&gt; </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch5-signin-password.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Input your &amp;quot;HIRODAI password&amp;quot;. And click &amp;quot;Sign in&amp;quot;, blue button.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch5-hirodai-login.png</t>
-  </si>
-  <si>
-    <t>office365-portal.png</t>
-  </si>
-  <si>
-    <t>Click the link to portal.office.com.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Let us go back to MOMIJI top page again. This time, click &amp;quot;Bb9&amp;quot; banner.
-Bb9 is the name of learning management system in Hiroshima University. You may view course materials, answer tests, or submit assignments on Bb9.
-(The application to use Bb9 from the mobile device is now being prepared for the release after late April)  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>In this chaper, we explain how to connect your PC to HINET Wi-Fi (Wi-Fi network in Hiroshima Univ,).
-If you can connect your PC to Internet already, you may use it now and go on next chapter. The procesure in below should be operated after April 2nd, the day all related services are enabled.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">If you are in trouble when you use your PC, don&amp;apos;t hesitate to make a inquiry to IMC.
-&lt;dl&gt;&lt;dt&gt;At IMC: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&amp;ast; Startup workshop (for detail, see below URL)&lt;/dd&gt;
-&lt;dd&gt;&lt;a href="https://www.hiroshima-u.ac.jp/about/initiatives/jyoho_ka/hikkei_pc"&gt;https://www.hiroshima-u.ac.jp/about/initiatives/jyoho_ka/hikkei_pc&lt;/a&gt;&lt;/dd&gt;
-&lt;dt&gt;Online: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
-&lt;/dd&gt;
-&lt;dt&gt;Mail: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;
-&lt;/dd&gt; &lt;/dl&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Win10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Windows10&lt;/h3&gt;
-Mar. 2022&lt;br&gt;
- Information Media Center, Hiroshima University&lt;br&gt;
- Hiroshima Univesity Coop shop 
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Win10 chap.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Win10en chap.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Win10en chap.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Win10en chap.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Input HIRODAI mailaddress（b22xxxxx@hiroshima-u.ac.jp）and click &amp;quot;Next&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>moodle-login.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hirodaiID-login.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>moodle-top.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Win10en chap.4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mfa"&gt;&lt;/a&gt;setup multi-factor authentication(MFA)&lt;/h2&gt; </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Win10en chap.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Win10en chap.6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Submit the Laptop checklist&lt;/h2&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Submit the Laptop checklist: Helpdesk information </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Win10en chap.7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Appendix: How to install Office365 application.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win11en chap.8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If your PC does not have preinstalled Office365, you can download it from your Office365 web page.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11en-imc-office365-portal.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please enter your IMC account with "@hiroshima-u.ac.jp", and password.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11en-ms-signin2.png</t>
-  </si>
-  <si>
-    <t>Edge would ask for the permission to store your password, please choose "never". But you can cache your sign in status by "Yes" to "Stay signed in".</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11en-ms-signin3.png</t>
-  </si>
-  <si>
-    <t>You can find "Install Office" button on the upper right. Please click it to expand its submenu, and check "Office 365 apps". You can download the network installer onto your PC.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11en-office365-download.png</t>
-  </si>
-  <si>
-    <t>When you start the installer, it would ask you to confirm your decition to change your computer. After checking that the verified publisher is Microsoft, please click "Yes" to proceed the installation.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11en-office365-install.png</t>
-  </si>
-  <si>
-    <t>The installation itself is finished, but it is not activated yet. Please back to the chaper "Activate your Office365 app."</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please visit a web page &lt;a href="https://www.media.hiroshima-u.ac.jp/services/webmail-portal/" target="_blank" rel="noreferrer"&gt;https://www.media.hiroshima-u.ac.jp/services/webmail-portal/&lt;/a&gt; in the media center, there is a link (a waterblue button) to &lt;a href="https://portal.office.com/" target="_blank"&gt;https://portal.office.com/&lt;/a&gt;. Please visit there.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mymomiji-1stlogin-en.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;(*) If you have purchased your Windows PC at Hiroshima University Co-op, please follow the initial setup instrucrion from the shop, and start this workshop from chapter 1.&lt;/strong&gt;
-If you turn on your PC for the first time, follow this chapter to see your Desktop in your PC.
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Office365, My MOMIJI, Bb9, and others…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;strong&gt;(*) If you have purchased your Windows PC at Hiroshima University Co-op, please follow the initial setup instrucrion from the shop, and start this workshop from chapter 1.&lt;/strong&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If you turn on your PC for the first time, follow this chapter to see your Desktop in your PC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The procedures described in this and later chapters require the Internetworking environment, please connect your computer to the network. If you don't have the network, please refer Chapter 6 and connect to Wi-Fi in Hiroshima University. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Let's download Google Chrome from official site
-&lt;a href="https://www.google.com/intl/en_us/chrome/" target="_blank" rel="noreferrer"&gt;https://www.google.com/intl/en_us/chrome/&lt;/a&gt;
-and click &amp;quot;Download Chrome&amp;quot; in the site.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Run &amp;quot;Excel&amp;quot; in your PC.
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">* If you cannot run &amp;quot;Excel&amp;quot; for now, you have to download Office to your PC. You can sign in to Office 365 on the Web, and install your Office desktop apps from the top page of your Office 365. See chapter 5. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch5-download-from-portal-office365.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Click "MFA configuration" in "My Course tree", and read the instruction in the course.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirm that you can see "Dashboard" similar to this pic.&lt;span class="check"&gt;check-8&lt;/span&gt;
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Follow the instruction "MFA settings for IMC accounts", and setup MFA of your IMC account.&lt;span class="check"&gt;check-9&lt;/span&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Follow the instruction "MFA settings for Hirodai ID", and setup MFA of your Hirodai ID.&lt;span class="check"&gt;check-10&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>Login to the LMS "Hirodai moodle", and setup multi-factor authentication(MFA) of your IMC account and Hirodai ID.</t>
-  </si>
-  <si>
-    <t>Let us login to the learning management system "Hirodai moodle" and setup MFA.
- &lt;ul&gt;
-&lt;li&gt;&lt;a href="#moodle"&gt;login to "Hirodai moodle"&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#mfa"&gt;setup multi-factor authentication(MFA)&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;You need your Hirodai ID(student ID) and Hirodai Password to go on this chapter.&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="moodle"&gt;&lt;/a&gt;login to "Hirodai moodle"(MFA)&lt;/h2&gt; </t>
-  </si>
-  <si>
-    <t>Follow the link to access "Hirodai moodle".
-&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/" target="_blank" rel="noreferrer"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
-Click "Login by Hirodai ID"</t>
-  </si>
-  <si>
-    <t>Input Hirodai ID(your student number) to the "User Name" box, and input your Hirodai password to the "Password" box.
- (*) This login form may be skipped. This is a normal behavier, so please go on.</t>
-  </si>
-  <si>
-    <t>win11en-momiji-before-login0.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input your &amp;quot;HIRODAI mail address&amp;quot; in the box and click &amp;quot;Next&amp;quot;, 
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o365-outlook.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11en-momiji-before-login.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Input your &amp;quot;HIRODAI ID&amp;quot; and &amp;quot;HIRODAI password&amp;quot; in each box and click &amp;quot;Login&amp;quot; button.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Go to MOMIJI top page, and click the banner "Login to My MOMIJI".</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">When you have finished, click &amp;quot;Logout&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mymomiji"&gt;&lt;/a&gt;My MOMIJI: Class enrollment, bulletin board etc.&lt;/h2&gt; </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;strong&gt;Now you can finish this workshop by submitting the Laptop checklist from Hirodai moodle!&lt;/strong&gt; Also, here is helpdesk information.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Follow this link to login to Hirodai moodle by your HIRODAI ID.
-&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the easiest way to download the files on the Bb9 course page? Right-click the contents  and choose &amp;quot;Save as&amp;quot; in the displayed menu.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">This is &amp;quot;myBlackboard&amp;quot; page. There is &amp;quot;Course List&amp;quot; in the middle of the page. Courses, which you can access, are listed there. Some courses in the list are related to the courses you registered. But others are not.
-Several courses should be introduced here.
-&lt;dl&gt;
-&lt;dt&gt;Introduction to University Education (the screenshot is older one, but you would find new one)&lt;/dt&gt;
-&lt;dd&gt;This course is required. In this course, you will learn what you need to know to study in Hiroshima University. And you are expected to answer a test on a weekly basis.&lt;/dd&gt;
- &lt;/dl&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;strong&gt;Only in campus of Hiroshima University, you can login to Bb9 by below procedure. &lt;/strong&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Helpdesk&lt;/h2&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Login to "Hirodai moodle", and setup MFA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>In the first login to MyMOMIJI, you would be asked about the permission to use your statistic info gathered in Momiji, Hirodai moodle, etc by Hiroshima University (you don't have to permit). For detail, please refer the FAQ linked in the page.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;strong&gt;Submit the Laptop checklist from &amp;quot;Laptop checklist&amp;quot; in &amp;quot;My Course tree&amp;quot;.&lt;/strong&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If you have finished to set/check your PC with Chapter 1 to &lt;it&gt;here&lt;/it&gt; of this startup instruction, let&amp;apos;s open the Hirodai moodle course &amp;quot;Laptop checklist&amp;quot;, and submit the checklist.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">(*) The procesure in below should be operated after April 1st, the day all related services are enabled.
-Here, you will install Google Chrome and activate Microsoft Office on your PC.
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#chrome"&gt;Install Google Chrome&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#office"&gt;Activate Microsoft Office&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;You need your HIRODAI ID(student ID) and HIRODAI Password to go on this chapter.&lt;/strong&gt;
-Again, you need to remember that there are two IDs to use information services provided by Hiroshima University. These IDs are based on student number.
-One of them is called HIRODAI ID, which looks same to student number. The other is &amp;quot;IMC account&amp;quot;, which looks little bit different from student number. The first letter of student number is capital, whereas that of &amp;quot;IMC account&amp;quot; is in lowercase.
-Both IDs share password. It is called &amp;quot;HIRODAI password&amp;quot;. You will know it when you get your ID card.
-Adding &amp;quot;@hiroshima-u.ac.jp&amp;quot; behind your &amp;quot;IMC account&amp;quot;, you will get your email address as a student in Hiroshima University. The email address is called &amp;quot;HIRODAI mail address&amp;quot;. Teachers or staffs in Hiroshima University may send emails to the email address. Check your email box frequently. You will learn how to check it in chapter 5.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">For your first login to Bb9, this page will be shown. Click &amp;quot;Close&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">If you see a prompt for sign in and set Office(see the screenshot), you need to activate Office on your PC.
-